--- a/Bank Register and Budget.xlsx
+++ b/Bank Register and Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\source\repos\excelbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FDD6A7-708A-4984-8A1F-1FB36F30201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFC94D-CCD8-42AC-99D9-46727C0F9747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" activeTab="1" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="28" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <numFmt numFmtId="164" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +367,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,7 +480,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -536,6 +544,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -545,6 +557,10 @@
   </cellStyles>
   <dxfs count="82">
     <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -553,6 +569,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -562,6 +581,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -571,6 +593,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -580,6 +605,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -589,6 +617,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -598,6 +629,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -607,6 +641,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -616,6 +653,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -625,6 +665,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -634,6 +677,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -643,6 +689,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -652,6 +701,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -661,6 +713,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -670,6 +725,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -679,6 +737,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -688,23 +749,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -713,6 +773,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -722,6 +785,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -731,6 +797,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -740,6 +809,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -749,6 +821,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -758,6 +833,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -767,6 +845,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -776,6 +857,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -785,6 +869,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -794,6 +881,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -803,6 +893,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -812,6 +905,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -821,11 +917,14 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -834,37 +933,26 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -874,6 +962,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -883,6 +974,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -892,6 +986,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -901,6 +998,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -910,6 +1010,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -919,6 +1022,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -928,6 +1034,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -937,6 +1046,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -946,6 +1058,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -955,7 +1070,9 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <font>
+        <i/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -964,6 +1081,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -972,6 +1092,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -980,6 +1103,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -988,14 +1114,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <i/>
+      </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1042,22 +1163,54 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -1358,53 +1511,53 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A25:Q42" totalsRowCount="1" headerRowDxfId="74">
   <autoFilter ref="A25:Q41" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="14">
       <totalsRowFormula array="1">OpeningBalance+SUM(BudgetTable[Nov 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="14">
+    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="13">
       <totalsRowFormula>BudgetTable[[#Totals],[Nov 2022]]+SUM(BudgetTable[Dec 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="13">
+    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="12">
       <totalsRowFormula>BudgetTable[[#Totals],[Dec 2022]]+SUM(BudgetTable[Jan 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="11">
       <totalsRowFormula>BudgetTable[[#Totals],[Jan 2023]]+SUM(BudgetTable[Feb 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="11">
+    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="10">
       <totalsRowFormula>BudgetTable[[#Totals],[Feb 2023]]+SUM(BudgetTable[Mar 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="10">
+    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="9">
       <totalsRowFormula>BudgetTable[[#Totals],[Mar 2023]]+SUM(BudgetTable[Apr 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="9">
+    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="8">
       <totalsRowFormula>BudgetTable[[#Totals],[Apr 2023]]+SUM(BudgetTable[May 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="8">
+    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="7">
       <totalsRowFormula>BudgetTable[[#Totals],[May 2023]]+SUM(BudgetTable[Jun 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="7">
+    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="6">
       <totalsRowFormula>BudgetTable[[#Totals],[Jun 2023]]+SUM(BudgetTable[Jul 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="6">
+    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="5">
       <totalsRowFormula>BudgetTable[[#Totals],[Jul 2023]]+SUM(BudgetTable[Aug 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="5">
+    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="4">
       <totalsRowFormula>BudgetTable[[#Totals],[Aug 2023]]+SUM(BudgetTable[Sep 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="4">
+    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="3">
       <totalsRowFormula>BudgetTable[[#Totals],[Sep 2023]]+SUM(BudgetTable[Oct 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="3">
+    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="2">
       <totalsRowFormula>BudgetTable[[#Totals],[Oct 2023]]+SUM(BudgetTable[Nov 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="2">
+    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="1">
       <totalsRowFormula>BudgetTable[[#Totals],[Nov 2023]]+SUM(BudgetTable[Dec 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="1">
+    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="0">
       <totalsRowFormula>BudgetTable[[#Totals],[Dec 2023]]+SUM(BudgetTable[Jan 2024])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" dataDxfId="34" totalsRowDxfId="0">
+    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" dataDxfId="30" totalsRowDxfId="49">
       <calculatedColumnFormula>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1416,68 +1569,68 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:Q21" totalsRowCount="1" headerRowDxfId="73">
   <autoFilter ref="A4:Q20" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="32">
+    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="29">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula array="1">OpeningBalance+SUM(ActualTable[Nov 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="31">
+    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="28">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Nov 2022]]+SUM(ActualTable[Dec 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="30">
+    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="27">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Dec 2022]]+SUM(ActualTable[Jan 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="29">
+    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="26">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Jan 2023]]+SUM(ActualTable[Feb 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="25">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Feb 2023]]+SUM(ActualTable[Mar 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="27">
+    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="24">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Mar 2023]]+SUM(ActualTable[Apr 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="26">
+    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="23">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Apr 2023]]+SUM(ActualTable[May 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="25">
+    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="22">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[May 2023]]+SUM(ActualTable[Jun 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="24">
+    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="21">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Jun 2023]]+SUM(ActualTable[Jul 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="23">
+    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="20">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Jul 2023]]+SUM(ActualTable[Aug 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="22">
+    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="19">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Aug 2023]]+SUM(ActualTable[Sep 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="21">
+    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="18">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Sep 2023]]+SUM(ActualTable[Oct 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="20">
+    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Oct 2023]]+SUM(ActualTable[Nov 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="19">
+    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Nov 2023]]+SUM(ActualTable[Dec 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="18">
+    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Dec 2023]]+SUM(ActualTable[Jan 2024])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" dataDxfId="51" totalsRowDxfId="17">
+    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" dataDxfId="32" totalsRowDxfId="51">
       <calculatedColumnFormula>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1794,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42211B1E-6591-4B2B-9689-E62B5000744C}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3737,10 +3890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE2A7D-2307-4D38-94C2-B579DAA0D29F}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3846,67 +3999,67 @@
       <c r="A5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="21" cm="1">
+      <c r="B5" s="27" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>5000</v>
       </c>
-      <c r="C5" s="21" cm="1">
+      <c r="C5" s="27" cm="1">
         <f t="array" ref="C5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>5000</v>
       </c>
-      <c r="D5" s="21" cm="1">
+      <c r="D5" s="27" cm="1">
         <f t="array" ref="D5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="21" cm="1">
+      <c r="E5" s="27" cm="1">
         <f t="array" ref="E5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="21" cm="1">
+      <c r="F5" s="27" cm="1">
         <f t="array" ref="F5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="21" cm="1">
+      <c r="G5" s="27" cm="1">
         <f t="array" ref="G5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="21" cm="1">
+      <c r="H5" s="27" cm="1">
         <f t="array" ref="H5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="21" cm="1">
+      <c r="I5" s="27" cm="1">
         <f t="array" ref="I5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="21" cm="1">
+      <c r="J5" s="27" cm="1">
         <f t="array" ref="J5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="21" cm="1">
+      <c r="K5" s="27" cm="1">
         <f t="array" ref="K5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="21" cm="1">
+      <c r="L5" s="27" cm="1">
         <f t="array" ref="L5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="21" cm="1">
+      <c r="M5" s="27" cm="1">
         <f t="array" ref="M5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="21" cm="1">
+      <c r="N5" s="27" cm="1">
         <f t="array" ref="N5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="21" cm="1">
+      <c r="O5" s="27" cm="1">
         <f t="array" ref="O5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="21" cm="1">
+      <c r="P5" s="27" cm="1">
         <f t="array" ref="P5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>10000</v>
       </c>
@@ -3915,67 +4068,67 @@
       <c r="A6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="21" cm="1">
+      <c r="B6" s="27" cm="1">
         <f t="array" ref="B6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0.7</v>
       </c>
-      <c r="C6" s="21" cm="1">
+      <c r="C6" s="27" cm="1">
         <f t="array" ref="C6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0.37</v>
       </c>
-      <c r="D6" s="21" cm="1">
+      <c r="D6" s="27" cm="1">
         <f t="array" ref="D6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="21" cm="1">
+      <c r="E6" s="27" cm="1">
         <f t="array" ref="E6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="21" cm="1">
+      <c r="F6" s="27" cm="1">
         <f t="array" ref="F6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21" cm="1">
+      <c r="G6" s="27" cm="1">
         <f t="array" ref="G6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21" cm="1">
+      <c r="H6" s="27" cm="1">
         <f t="array" ref="H6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="21" cm="1">
+      <c r="I6" s="27" cm="1">
         <f t="array" ref="I6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="21" cm="1">
+      <c r="J6" s="27" cm="1">
         <f t="array" ref="J6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="21" cm="1">
+      <c r="K6" s="27" cm="1">
         <f t="array" ref="K6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="21" cm="1">
+      <c r="L6" s="27" cm="1">
         <f t="array" ref="L6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="21" cm="1">
+      <c r="M6" s="27" cm="1">
         <f t="array" ref="M6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="21" cm="1">
+      <c r="N6" s="27" cm="1">
         <f t="array" ref="N6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="21" cm="1">
+      <c r="O6" s="27" cm="1">
         <f t="array" ref="O6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P6" s="21" cm="1">
+      <c r="P6" s="27" cm="1">
         <f t="array" ref="P6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>1.0699999999999998</v>
       </c>
@@ -3984,67 +4137,67 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21" cm="1">
+      <c r="B7" s="27" cm="1">
         <f t="array" ref="B7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="21" cm="1">
+      <c r="C7" s="27" cm="1">
         <f t="array" ref="C7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="21" cm="1">
+      <c r="D7" s="27" cm="1">
         <f t="array" ref="D7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>132</v>
       </c>
-      <c r="E7" s="21" cm="1">
+      <c r="E7" s="27" cm="1">
         <f t="array" ref="E7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="21" cm="1">
+      <c r="F7" s="27" cm="1">
         <f t="array" ref="F7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21" cm="1">
+      <c r="G7" s="27" cm="1">
         <f t="array" ref="G7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="21" cm="1">
+      <c r="H7" s="27" cm="1">
         <f t="array" ref="H7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="21" cm="1">
+      <c r="I7" s="27" cm="1">
         <f t="array" ref="I7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="21" cm="1">
+      <c r="J7" s="27" cm="1">
         <f t="array" ref="J7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="21" cm="1">
+      <c r="K7" s="27" cm="1">
         <f t="array" ref="K7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="21" cm="1">
+      <c r="L7" s="27" cm="1">
         <f t="array" ref="L7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="21" cm="1">
+      <c r="M7" s="27" cm="1">
         <f t="array" ref="M7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="21" cm="1">
+      <c r="N7" s="27" cm="1">
         <f t="array" ref="N7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="21" cm="1">
+      <c r="O7" s="27" cm="1">
         <f t="array" ref="O7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="21" cm="1">
+      <c r="P7" s="27" cm="1">
         <f t="array" ref="P7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>132</v>
       </c>
@@ -4053,67 +4206,67 @@
       <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21" cm="1">
+      <c r="B8" s="27" cm="1">
         <f t="array" ref="B8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2500</v>
       </c>
-      <c r="C8" s="21" cm="1">
+      <c r="C8" s="27" cm="1">
         <f t="array" ref="C8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2500</v>
       </c>
-      <c r="D8" s="21" cm="1">
+      <c r="D8" s="27" cm="1">
         <f t="array" ref="D8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2592.86</v>
       </c>
-      <c r="E8" s="21" cm="1">
+      <c r="E8" s="27" cm="1">
         <f t="array" ref="E8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="21" cm="1">
+      <c r="F8" s="27" cm="1">
         <f t="array" ref="F8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="21" cm="1">
+      <c r="G8" s="27" cm="1">
         <f t="array" ref="G8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="21" cm="1">
+      <c r="H8" s="27" cm="1">
         <f t="array" ref="H8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="21" cm="1">
+      <c r="I8" s="27" cm="1">
         <f t="array" ref="I8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="21" cm="1">
+      <c r="J8" s="27" cm="1">
         <f t="array" ref="J8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="21" cm="1">
+      <c r="K8" s="27" cm="1">
         <f t="array" ref="K8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="21" cm="1">
+      <c r="L8" s="27" cm="1">
         <f t="array" ref="L8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="21" cm="1">
+      <c r="M8" s="27" cm="1">
         <f t="array" ref="M8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="21" cm="1">
+      <c r="N8" s="27" cm="1">
         <f t="array" ref="N8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="21" cm="1">
+      <c r="O8" s="27" cm="1">
         <f t="array" ref="O8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="21" cm="1">
+      <c r="P8" s="27" cm="1">
         <f t="array" ref="P8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-7592.8600000000006</v>
       </c>
@@ -4122,67 +4275,67 @@
       <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" cm="1">
+      <c r="B9" s="27" cm="1">
         <f t="array" ref="B9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-164.55</v>
       </c>
-      <c r="C9" s="21" cm="1">
+      <c r="C9" s="27" cm="1">
         <f t="array" ref="C9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-231.09</v>
       </c>
-      <c r="D9" s="21" cm="1">
+      <c r="D9" s="27" cm="1">
         <f t="array" ref="D9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="21" cm="1">
+      <c r="E9" s="27" cm="1">
         <f t="array" ref="E9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="21" cm="1">
+      <c r="F9" s="27" cm="1">
         <f t="array" ref="F9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="21" cm="1">
+      <c r="G9" s="27" cm="1">
         <f t="array" ref="G9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="21" cm="1">
+      <c r="H9" s="27" cm="1">
         <f t="array" ref="H9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="21" cm="1">
+      <c r="I9" s="27" cm="1">
         <f t="array" ref="I9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="21" cm="1">
+      <c r="J9" s="27" cm="1">
         <f t="array" ref="J9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="21" cm="1">
+      <c r="K9" s="27" cm="1">
         <f t="array" ref="K9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="21" cm="1">
+      <c r="L9" s="27" cm="1">
         <f t="array" ref="L9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="21" cm="1">
+      <c r="M9" s="27" cm="1">
         <f t="array" ref="M9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="21" cm="1">
+      <c r="N9" s="27" cm="1">
         <f t="array" ref="N9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="21" cm="1">
+      <c r="O9" s="27" cm="1">
         <f t="array" ref="O9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P9" s="21" cm="1">
+      <c r="P9" s="27" cm="1">
         <f t="array" ref="P9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-395.64</v>
       </c>
@@ -4191,67 +4344,67 @@
       <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="23" cm="1">
+      <c r="B10" s="28" cm="1">
         <f t="array" ref="B10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-121.93</v>
       </c>
-      <c r="C10" s="23" cm="1">
+      <c r="C10" s="28" cm="1">
         <f t="array" ref="C10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-277.88</v>
       </c>
-      <c r="D10" s="23" cm="1">
+      <c r="D10" s="28" cm="1">
         <f t="array" ref="D10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="23" cm="1">
+      <c r="E10" s="28" cm="1">
         <f t="array" ref="E10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="23" cm="1">
+      <c r="F10" s="28" cm="1">
         <f t="array" ref="F10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="23" cm="1">
+      <c r="G10" s="28" cm="1">
         <f t="array" ref="G10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23" cm="1">
+      <c r="H10" s="28" cm="1">
         <f t="array" ref="H10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="23" cm="1">
+      <c r="I10" s="28" cm="1">
         <f t="array" ref="I10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J10" s="23" cm="1">
+      <c r="J10" s="28" cm="1">
         <f t="array" ref="J10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="23" cm="1">
+      <c r="K10" s="28" cm="1">
         <f t="array" ref="K10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23" cm="1">
+      <c r="L10" s="28" cm="1">
         <f t="array" ref="L10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="23" cm="1">
+      <c r="M10" s="28" cm="1">
         <f t="array" ref="M10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="23" cm="1">
+      <c r="N10" s="28" cm="1">
         <f t="array" ref="N10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O10" s="23" cm="1">
+      <c r="O10" s="28" cm="1">
         <f t="array" ref="O10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P10" s="23" cm="1">
+      <c r="P10" s="28" cm="1">
         <f t="array" ref="P10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-399.81</v>
       </c>
@@ -4260,67 +4413,67 @@
       <c r="A11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="21" cm="1">
+      <c r="B11" s="27" cm="1">
         <f t="array" ref="B11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="21" cm="1">
+      <c r="C11" s="27" cm="1">
         <f t="array" ref="C11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-209.23000000000002</v>
       </c>
-      <c r="D11" s="21" cm="1">
+      <c r="D11" s="27" cm="1">
         <f t="array" ref="D11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="21" cm="1">
+      <c r="E11" s="27" cm="1">
         <f t="array" ref="E11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21" cm="1">
+      <c r="F11" s="27" cm="1">
         <f t="array" ref="F11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="21" cm="1">
+      <c r="G11" s="27" cm="1">
         <f t="array" ref="G11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="21" cm="1">
+      <c r="H11" s="27" cm="1">
         <f t="array" ref="H11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="21" cm="1">
+      <c r="I11" s="27" cm="1">
         <f t="array" ref="I11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="21" cm="1">
+      <c r="J11" s="27" cm="1">
         <f t="array" ref="J11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="21" cm="1">
+      <c r="K11" s="27" cm="1">
         <f t="array" ref="K11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="21" cm="1">
+      <c r="L11" s="27" cm="1">
         <f t="array" ref="L11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="21" cm="1">
+      <c r="M11" s="27" cm="1">
         <f t="array" ref="M11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="21" cm="1">
+      <c r="N11" s="27" cm="1">
         <f t="array" ref="N11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="21" cm="1">
+      <c r="O11" s="27" cm="1">
         <f t="array" ref="O11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="21" cm="1">
+      <c r="P11" s="27" cm="1">
         <f t="array" ref="P11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-209.23000000000002</v>
       </c>
@@ -4329,67 +4482,67 @@
       <c r="A12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="21" cm="1">
+      <c r="B12" s="27" cm="1">
         <f t="array" ref="B12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C12" s="21" cm="1">
+      <c r="C12" s="27" cm="1">
         <f t="array" ref="C12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="21" cm="1">
+      <c r="D12" s="27" cm="1">
         <f t="array" ref="D12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-7.98</v>
       </c>
-      <c r="E12" s="21" cm="1">
+      <c r="E12" s="27" cm="1">
         <f t="array" ref="E12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21" cm="1">
+      <c r="F12" s="27" cm="1">
         <f t="array" ref="F12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="21" cm="1">
+      <c r="G12" s="27" cm="1">
         <f t="array" ref="G12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="21" cm="1">
+      <c r="H12" s="27" cm="1">
         <f t="array" ref="H12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="21" cm="1">
+      <c r="I12" s="27" cm="1">
         <f t="array" ref="I12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="21" cm="1">
+      <c r="J12" s="27" cm="1">
         <f t="array" ref="J12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="21" cm="1">
+      <c r="K12" s="27" cm="1">
         <f t="array" ref="K12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="21" cm="1">
+      <c r="L12" s="27" cm="1">
         <f t="array" ref="L12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="21" cm="1">
+      <c r="M12" s="27" cm="1">
         <f t="array" ref="M12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="21" cm="1">
+      <c r="N12" s="27" cm="1">
         <f t="array" ref="N12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="21" cm="1">
+      <c r="O12" s="27" cm="1">
         <f t="array" ref="O12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P12" s="21" cm="1">
+      <c r="P12" s="27" cm="1">
         <f t="array" ref="P12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-7.98</v>
       </c>
@@ -4398,67 +4551,67 @@
       <c r="A13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="21" cm="1">
+      <c r="B13" s="27" cm="1">
         <f t="array" ref="B13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-256</v>
       </c>
-      <c r="C13" s="21" cm="1">
+      <c r="C13" s="27" cm="1">
         <f t="array" ref="C13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-256</v>
       </c>
-      <c r="D13" s="21" cm="1">
+      <c r="D13" s="27" cm="1">
         <f t="array" ref="D13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="21" cm="1">
+      <c r="E13" s="27" cm="1">
         <f t="array" ref="E13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21" cm="1">
+      <c r="F13" s="27" cm="1">
         <f t="array" ref="F13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21" cm="1">
+      <c r="G13" s="27" cm="1">
         <f t="array" ref="G13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="21" cm="1">
+      <c r="H13" s="27" cm="1">
         <f t="array" ref="H13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="21" cm="1">
+      <c r="I13" s="27" cm="1">
         <f t="array" ref="I13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J13" s="21" cm="1">
+      <c r="J13" s="27" cm="1">
         <f t="array" ref="J13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="21" cm="1">
+      <c r="K13" s="27" cm="1">
         <f t="array" ref="K13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L13" s="21" cm="1">
+      <c r="L13" s="27" cm="1">
         <f t="array" ref="L13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="21" cm="1">
+      <c r="M13" s="27" cm="1">
         <f t="array" ref="M13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="21" cm="1">
+      <c r="N13" s="27" cm="1">
         <f t="array" ref="N13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="21" cm="1">
+      <c r="O13" s="27" cm="1">
         <f t="array" ref="O13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P13" s="21" cm="1">
+      <c r="P13" s="27" cm="1">
         <f t="array" ref="P13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-512</v>
       </c>
@@ -4467,67 +4620,67 @@
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="21" cm="1">
+      <c r="B14" s="27" cm="1">
         <f t="array" ref="B14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-193.24</v>
       </c>
-      <c r="C14" s="21" cm="1">
+      <c r="C14" s="27" cm="1">
         <f t="array" ref="C14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-314.40000000000003</v>
       </c>
-      <c r="D14" s="21" cm="1">
+      <c r="D14" s="27" cm="1">
         <f t="array" ref="D14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="21" cm="1">
+      <c r="E14" s="27" cm="1">
         <f t="array" ref="E14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21" cm="1">
+      <c r="F14" s="27" cm="1">
         <f t="array" ref="F14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="21" cm="1">
+      <c r="G14" s="27" cm="1">
         <f t="array" ref="G14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="21" cm="1">
+      <c r="H14" s="27" cm="1">
         <f t="array" ref="H14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="21" cm="1">
+      <c r="I14" s="27" cm="1">
         <f t="array" ref="I14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="21" cm="1">
+      <c r="J14" s="27" cm="1">
         <f t="array" ref="J14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="21" cm="1">
+      <c r="K14" s="27" cm="1">
         <f t="array" ref="K14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="21" cm="1">
+      <c r="L14" s="27" cm="1">
         <f t="array" ref="L14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="21" cm="1">
+      <c r="M14" s="27" cm="1">
         <f t="array" ref="M14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="21" cm="1">
+      <c r="N14" s="27" cm="1">
         <f t="array" ref="N14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="21" cm="1">
+      <c r="O14" s="27" cm="1">
         <f t="array" ref="O14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P14" s="21" cm="1">
+      <c r="P14" s="27" cm="1">
         <f t="array" ref="P14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-507.64000000000004</v>
       </c>
@@ -4536,67 +4689,67 @@
       <c r="A15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="21" cm="1">
+      <c r="B15" s="27" cm="1">
         <f t="array" ref="B15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="21" cm="1">
+      <c r="C15" s="27" cm="1">
         <f t="array" ref="C15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-617</v>
       </c>
-      <c r="D15" s="21" cm="1">
+      <c r="D15" s="27" cm="1">
         <f t="array" ref="D15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="21" cm="1">
+      <c r="E15" s="27" cm="1">
         <f t="array" ref="E15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21" cm="1">
+      <c r="F15" s="27" cm="1">
         <f t="array" ref="F15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="21" cm="1">
+      <c r="G15" s="27" cm="1">
         <f t="array" ref="G15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="21" cm="1">
+      <c r="H15" s="27" cm="1">
         <f t="array" ref="H15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="21" cm="1">
+      <c r="I15" s="27" cm="1">
         <f t="array" ref="I15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="21" cm="1">
+      <c r="J15" s="27" cm="1">
         <f t="array" ref="J15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="21" cm="1">
+      <c r="K15" s="27" cm="1">
         <f t="array" ref="K15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L15" s="21" cm="1">
+      <c r="L15" s="27" cm="1">
         <f t="array" ref="L15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="21" cm="1">
+      <c r="M15" s="27" cm="1">
         <f t="array" ref="M15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="21" cm="1">
+      <c r="N15" s="27" cm="1">
         <f t="array" ref="N15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="21" cm="1">
+      <c r="O15" s="27" cm="1">
         <f t="array" ref="O15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="21" cm="1">
+      <c r="P15" s="27" cm="1">
         <f t="array" ref="P15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-617</v>
       </c>
@@ -4605,67 +4758,67 @@
       <c r="A16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="21" cm="1">
+      <c r="B16" s="27" cm="1">
         <f t="array" ref="B16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-599</v>
       </c>
-      <c r="C16" s="21" cm="1">
+      <c r="C16" s="27" cm="1">
         <f t="array" ref="C16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-1206.5999999999999</v>
       </c>
-      <c r="D16" s="21" cm="1">
+      <c r="D16" s="27" cm="1">
         <f t="array" ref="D16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="21" cm="1">
+      <c r="E16" s="27" cm="1">
         <f t="array" ref="E16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21" cm="1">
+      <c r="F16" s="27" cm="1">
         <f t="array" ref="F16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="21" cm="1">
+      <c r="G16" s="27" cm="1">
         <f t="array" ref="G16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="21" cm="1">
+      <c r="H16" s="27" cm="1">
         <f t="array" ref="H16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="21" cm="1">
+      <c r="I16" s="27" cm="1">
         <f t="array" ref="I16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="21" cm="1">
+      <c r="J16" s="27" cm="1">
         <f t="array" ref="J16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="21" cm="1">
+      <c r="K16" s="27" cm="1">
         <f t="array" ref="K16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="21" cm="1">
+      <c r="L16" s="27" cm="1">
         <f t="array" ref="L16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="21" cm="1">
+      <c r="M16" s="27" cm="1">
         <f t="array" ref="M16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="21" cm="1">
+      <c r="N16" s="27" cm="1">
         <f t="array" ref="N16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="21" cm="1">
+      <c r="O16" s="27" cm="1">
         <f t="array" ref="O16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P16" s="21" cm="1">
+      <c r="P16" s="27" cm="1">
         <f t="array" ref="P16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1805.6</v>
       </c>
@@ -4674,67 +4827,67 @@
       <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="21" cm="1">
+      <c r="B17" s="27" cm="1">
         <f t="array" ref="B17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C17" s="21" cm="1">
+      <c r="C17" s="27" cm="1">
         <f t="array" ref="C17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-111.45</v>
       </c>
-      <c r="D17" s="21" cm="1">
+      <c r="D17" s="27" cm="1">
         <f t="array" ref="D17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="21" cm="1">
+      <c r="E17" s="27" cm="1">
         <f t="array" ref="E17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="21" cm="1">
+      <c r="F17" s="27" cm="1">
         <f t="array" ref="F17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="21" cm="1">
+      <c r="G17" s="27" cm="1">
         <f t="array" ref="G17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="21" cm="1">
+      <c r="H17" s="27" cm="1">
         <f t="array" ref="H17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="21" cm="1">
+      <c r="I17" s="27" cm="1">
         <f t="array" ref="I17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="21" cm="1">
+      <c r="J17" s="27" cm="1">
         <f t="array" ref="J17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="21" cm="1">
+      <c r="K17" s="27" cm="1">
         <f t="array" ref="K17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L17" s="21" cm="1">
+      <c r="L17" s="27" cm="1">
         <f t="array" ref="L17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="21" cm="1">
+      <c r="M17" s="27" cm="1">
         <f t="array" ref="M17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="21" cm="1">
+      <c r="N17" s="27" cm="1">
         <f t="array" ref="N17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="21" cm="1">
+      <c r="O17" s="27" cm="1">
         <f t="array" ref="O17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P17" s="21" cm="1">
+      <c r="P17" s="27" cm="1">
         <f t="array" ref="P17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-111.45</v>
       </c>
@@ -4743,67 +4896,67 @@
       <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="21" cm="1">
+      <c r="B18" s="27" cm="1">
         <f t="array" ref="B18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C18" s="21" cm="1">
+      <c r="C18" s="27" cm="1">
         <f t="array" ref="C18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="21" cm="1">
+      <c r="D18" s="27" cm="1">
         <f t="array" ref="D18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-528.07000000000005</v>
       </c>
-      <c r="E18" s="21" cm="1">
+      <c r="E18" s="27" cm="1">
         <f t="array" ref="E18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="21" cm="1">
+      <c r="F18" s="27" cm="1">
         <f t="array" ref="F18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="21" cm="1">
+      <c r="G18" s="27" cm="1">
         <f t="array" ref="G18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="21" cm="1">
+      <c r="H18" s="27" cm="1">
         <f t="array" ref="H18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="21" cm="1">
+      <c r="I18" s="27" cm="1">
         <f t="array" ref="I18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J18" s="21" cm="1">
+      <c r="J18" s="27" cm="1">
         <f t="array" ref="J18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="21" cm="1">
+      <c r="K18" s="27" cm="1">
         <f t="array" ref="K18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L18" s="21" cm="1">
+      <c r="L18" s="27" cm="1">
         <f t="array" ref="L18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="21" cm="1">
+      <c r="M18" s="27" cm="1">
         <f t="array" ref="M18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="21" cm="1">
+      <c r="N18" s="27" cm="1">
         <f t="array" ref="N18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O18" s="21" cm="1">
+      <c r="O18" s="27" cm="1">
         <f t="array" ref="O18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P18" s="21" cm="1">
+      <c r="P18" s="27" cm="1">
         <f t="array" ref="P18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-528.07000000000005</v>
       </c>
@@ -4812,67 +4965,67 @@
       <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="21" cm="1">
+      <c r="B19" s="27" cm="1">
         <f t="array" ref="B19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="21" cm="1">
+      <c r="C19" s="27" cm="1">
         <f t="array" ref="C19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="21" cm="1">
+      <c r="D19" s="27" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-66</v>
       </c>
-      <c r="E19" s="21" cm="1">
+      <c r="E19" s="27" cm="1">
         <f t="array" ref="E19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="21" cm="1">
+      <c r="F19" s="27" cm="1">
         <f t="array" ref="F19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="21" cm="1">
+      <c r="G19" s="27" cm="1">
         <f t="array" ref="G19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="21" cm="1">
+      <c r="H19" s="27" cm="1">
         <f t="array" ref="H19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="21" cm="1">
+      <c r="I19" s="27" cm="1">
         <f t="array" ref="I19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="21" cm="1">
+      <c r="J19" s="27" cm="1">
         <f t="array" ref="J19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="21" cm="1">
+      <c r="K19" s="27" cm="1">
         <f t="array" ref="K19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L19" s="21" cm="1">
+      <c r="L19" s="27" cm="1">
         <f t="array" ref="L19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="21" cm="1">
+      <c r="M19" s="27" cm="1">
         <f t="array" ref="M19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="21" cm="1">
+      <c r="N19" s="27" cm="1">
         <f t="array" ref="N19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="21" cm="1">
+      <c r="O19" s="27" cm="1">
         <f t="array" ref="O19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="21" cm="1">
+      <c r="P19" s="27" cm="1">
         <f t="array" ref="P19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-66</v>
       </c>
@@ -4881,67 +5034,67 @@
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="21" cm="1">
+      <c r="B20" s="27" cm="1">
         <f t="array" ref="B20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C20" s="21" cm="1">
+      <c r="C20" s="27" cm="1">
         <f t="array" ref="C20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D20" s="21" cm="1">
+      <c r="D20" s="27" cm="1">
         <f t="array" ref="D20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="21" cm="1">
+      <c r="E20" s="27" cm="1">
         <f t="array" ref="E20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="21" cm="1">
+      <c r="F20" s="27" cm="1">
         <f t="array" ref="F20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="21" cm="1">
+      <c r="G20" s="27" cm="1">
         <f t="array" ref="G20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="21" cm="1">
+      <c r="H20" s="27" cm="1">
         <f t="array" ref="H20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I20" s="21" cm="1">
+      <c r="I20" s="27" cm="1">
         <f t="array" ref="I20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J20" s="21" cm="1">
+      <c r="J20" s="27" cm="1">
         <f t="array" ref="J20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K20" s="21" cm="1">
+      <c r="K20" s="27" cm="1">
         <f t="array" ref="K20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L20" s="21" cm="1">
+      <c r="L20" s="27" cm="1">
         <f t="array" ref="L20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M20" s="21" cm="1">
+      <c r="M20" s="27" cm="1">
         <f t="array" ref="M20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N20" s="21" cm="1">
+      <c r="N20" s="27" cm="1">
         <f t="array" ref="N20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="21" cm="1">
+      <c r="O20" s="27" cm="1">
         <f t="array" ref="O20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P20" s="21" cm="1">
+      <c r="P20" s="27" cm="1">
         <f t="array" ref="P20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="27">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
@@ -4950,63 +5103,63 @@
       <c r="A21" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="21" cm="1">
+      <c r="B21" s="27" cm="1">
         <f t="array" ref="B21">OpeningBalance+SUM(ActualTable[Nov 2022])</f>
         <v>11165.98</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="27">
         <f>ActualTable[[#Totals],[Nov 2022]]+SUM(ActualTable[Dec 2022])</f>
         <v>10442.699999999999</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="27">
         <f>ActualTable[[#Totals],[Dec 2022]]+SUM(ActualTable[Jan 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="27">
         <f>ActualTable[[#Totals],[Jan 2023]]+SUM(ActualTable[Feb 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="27">
         <f>ActualTable[[#Totals],[Feb 2023]]+SUM(ActualTable[Mar 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="27">
         <f>ActualTable[[#Totals],[Mar 2023]]+SUM(ActualTable[Apr 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="27">
         <f>ActualTable[[#Totals],[Apr 2023]]+SUM(ActualTable[May 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="27">
         <f>ActualTable[[#Totals],[May 2023]]+SUM(ActualTable[Jun 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="27">
         <f>ActualTable[[#Totals],[Jun 2023]]+SUM(ActualTable[Jul 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="27">
         <f>ActualTable[[#Totals],[Jul 2023]]+SUM(ActualTable[Aug 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="27">
         <f>ActualTable[[#Totals],[Aug 2023]]+SUM(ActualTable[Sep 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="27">
         <f>ActualTable[[#Totals],[Sep 2023]]+SUM(ActualTable[Oct 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="27">
         <f>ActualTable[[#Totals],[Oct 2023]]+SUM(ActualTable[Nov 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="27">
         <f>ActualTable[[#Totals],[Nov 2023]]+SUM(ActualTable[Dec 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="27">
         <f>ActualTable[[#Totals],[Dec 2023]]+SUM(ActualTable[Jan 2024])</f>
         <v>7379.7899999999991</v>
       </c>
@@ -5149,7 +5302,7 @@
       <c r="P26" s="23">
         <v>5250</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>78250</v>
       </c>
@@ -5203,7 +5356,7 @@
       <c r="P27" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>7.57</v>
       </c>
@@ -5257,7 +5410,7 @@
       <c r="P28" s="21">
         <v>0</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
@@ -5311,7 +5464,7 @@
       <c r="P29" s="21">
         <v>-2592.86</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-38707.180000000008</v>
       </c>
@@ -5365,7 +5518,7 @@
       <c r="P30" s="21">
         <v>-200</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-2995.64</v>
       </c>
@@ -5419,7 +5572,7 @@
       <c r="P31" s="21">
         <v>-250</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-3649.81</v>
       </c>
@@ -5473,7 +5626,7 @@
       <c r="P32" s="21">
         <v>-110</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1639.23</v>
       </c>
@@ -5527,7 +5680,7 @@
       <c r="P33" s="21">
         <v>0</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
@@ -5581,7 +5734,7 @@
       <c r="P34" s="21">
         <v>-256</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-3840</v>
       </c>
@@ -5635,7 +5788,7 @@
       <c r="P35" s="21">
         <v>-300</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-4407.6400000000003</v>
       </c>
@@ -5689,7 +5842,7 @@
       <c r="P36" s="21">
         <v>0</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1467</v>
       </c>
@@ -5743,7 +5896,7 @@
       <c r="P37" s="21">
         <v>0</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1805.6</v>
       </c>
@@ -5797,7 +5950,7 @@
       <c r="P38" s="23">
         <v>-90</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1281.45</v>
       </c>
@@ -5851,7 +6004,7 @@
       <c r="P39" s="21">
         <v>0</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-528.07000000000005</v>
       </c>
@@ -5864,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="21">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="D40" s="21">
         <v>0</v>
@@ -5905,9 +6058,9 @@
       <c r="P40" s="21">
         <v>0</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -5959,7 +6112,7 @@
       <c r="P41" s="21">
         <v>0</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="27">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
@@ -5968,65 +6121,65 @@
       <c r="A42" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="21" cm="1">
+      <c r="B42" s="27" cm="1">
         <f t="array" ref="B42">OpeningBalance+SUM(BudgetTable[Nov 2022])</f>
         <v>11059.75</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="27">
         <f>BudgetTable[[#Totals],[Nov 2022]]+SUM(BudgetTable[Dec 2022])</f>
-        <v>10376.699999999999</v>
-      </c>
-      <c r="D42" s="21">
+        <v>10442.699999999999</v>
+      </c>
+      <c r="D42" s="27">
         <f>BudgetTable[[#Totals],[Dec 2022]]+SUM(BudgetTable[Jan 2023])</f>
-        <v>10450.269999999999</v>
-      </c>
-      <c r="E42" s="21">
+        <v>10516.269999999999</v>
+      </c>
+      <c r="E42" s="27">
         <f>BudgetTable[[#Totals],[Jan 2023]]+SUM(BudgetTable[Feb 2023])</f>
-        <v>11901.909999999998</v>
-      </c>
-      <c r="F42" s="21">
+        <v>11967.909999999998</v>
+      </c>
+      <c r="F42" s="27">
         <f>BudgetTable[[#Totals],[Feb 2023]]+SUM(BudgetTable[Mar 2023])</f>
-        <v>13353.549999999997</v>
-      </c>
-      <c r="G42" s="21">
+        <v>13419.549999999997</v>
+      </c>
+      <c r="G42" s="27">
         <f>BudgetTable[[#Totals],[Mar 2023]]+SUM(BudgetTable[Apr 2023])</f>
-        <v>14805.189999999997</v>
-      </c>
-      <c r="H42" s="21">
+        <v>14871.189999999997</v>
+      </c>
+      <c r="H42" s="27">
         <f>BudgetTable[[#Totals],[Apr 2023]]+SUM(BudgetTable[May 2023])</f>
-        <v>16256.829999999996</v>
-      </c>
-      <c r="I42" s="21">
+        <v>16322.829999999996</v>
+      </c>
+      <c r="I42" s="27">
         <f>BudgetTable[[#Totals],[May 2023]]+SUM(BudgetTable[Jun 2023])</f>
-        <v>17708.469999999998</v>
-      </c>
-      <c r="J42" s="21">
+        <v>17774.469999999998</v>
+      </c>
+      <c r="J42" s="27">
         <f>BudgetTable[[#Totals],[Jun 2023]]+SUM(BudgetTable[Jul 2023])</f>
-        <v>19160.109999999997</v>
-      </c>
-      <c r="K42" s="21">
+        <v>19226.109999999997</v>
+      </c>
+      <c r="K42" s="27">
         <f>BudgetTable[[#Totals],[Jul 2023]]+SUM(BudgetTable[Aug 2023])</f>
-        <v>20611.749999999996</v>
-      </c>
-      <c r="L42" s="21">
+        <v>20677.749999999996</v>
+      </c>
+      <c r="L42" s="27">
         <f>BudgetTable[[#Totals],[Aug 2023]]+SUM(BudgetTable[Sep 2023])</f>
-        <v>22063.389999999996</v>
-      </c>
-      <c r="M42" s="21">
+        <v>22129.389999999996</v>
+      </c>
+      <c r="M42" s="27">
         <f>BudgetTable[[#Totals],[Sep 2023]]+SUM(BudgetTable[Oct 2023])</f>
-        <v>23515.029999999995</v>
-      </c>
-      <c r="N42" s="21">
+        <v>23581.029999999995</v>
+      </c>
+      <c r="N42" s="27">
         <f>BudgetTable[[#Totals],[Oct 2023]]+SUM(BudgetTable[Nov 2023])</f>
-        <v>24966.669999999995</v>
-      </c>
-      <c r="O42" s="21">
+        <v>25032.669999999995</v>
+      </c>
+      <c r="O42" s="27">
         <f>BudgetTable[[#Totals],[Nov 2023]]+SUM(BudgetTable[Dec 2023])</f>
-        <v>26418.309999999994</v>
-      </c>
-      <c r="P42" s="21">
+        <v>26484.309999999994</v>
+      </c>
+      <c r="P42" s="27">
         <f>BudgetTable[[#Totals],[Dec 2023]]+SUM(BudgetTable[Jan 2024])</f>
-        <v>27869.949999999993</v>
+        <v>27935.949999999993</v>
       </c>
       <c r="Q42" s="26"/>
     </row>

--- a/Bank Register and Budget.xlsx
+++ b/Bank Register and Budget.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\source\repos\excelbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFC94D-CCD8-42AC-99D9-46727C0F9747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA36687-0A79-4544-B821-1677C4CE37AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" activeTab="1" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="28" r:id="rId1"/>
     <sheet name="Budget" sheetId="27" r:id="rId2"/>
-    <sheet name="Tables" sheetId="29" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CategoriesList">ActualTable[Category]</definedName>
     <definedName name="OpeningBalance">RegisterTable[[#Headers],[$10,000.00]]</definedName>
-    <definedName name="RecValueList">Rec[Reconcile]</definedName>
+    <definedName name="RecValueList">#REF!</definedName>
     <definedName name="RegisterOpeningBalance">Register!$C$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>Total</t>
   </si>
@@ -182,9 +181,6 @@
     <t>Rec</t>
   </si>
   <si>
-    <t>Reconcile</t>
-  </si>
-  <si>
     <t>Supplies</t>
   </si>
   <si>
@@ -243,9 +239,6 @@
   </si>
   <si>
     <t>All Mart</t>
-  </si>
-  <si>
-    <t>rec</t>
   </si>
   <si>
     <t>Amaze On</t>
@@ -1635,16 +1628,6 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B71B9F43-48E6-429B-8FBF-43E707F742AC}" name="Rec" displayName="Rec" ref="B2:B4" totalsRowShown="0">
-  <autoFilter ref="B2:B4" xr:uid="{B71B9F43-48E6-429B-8FBF-43E707F742AC}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EB14FCAB-9132-4E5C-97D9-ACA7EA2E6899}" name="Reconcile"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1947,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42211B1E-6591-4B2B-9689-E62B5000744C}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -1971,7 +1954,7 @@
     </row>
     <row r="2" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1994,7 +1977,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="4" t="str">
@@ -2007,7 +1990,7 @@
       <c r="B5" s="4"/>
       <c r="G5"/>
       <c r="I5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -2024,24 +2007,24 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9">
         <v>44866</v>
@@ -2051,7 +2034,7 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -2078,7 +2061,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -2106,7 +2089,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -2134,7 +2117,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -2162,7 +2145,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -2190,13 +2173,13 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2220,7 +2203,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -2248,7 +2231,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -2276,10 +2259,10 @@
         <v>5000</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="14">
@@ -2332,7 +2315,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -2358,7 +2341,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -2384,13 +2367,13 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2412,7 +2395,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -2438,7 +2421,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -2464,7 +2447,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -2490,13 +2473,13 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2518,7 +2501,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -2544,7 +2527,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -2570,7 +2553,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -2596,7 +2579,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -2622,7 +2605,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -2648,13 +2631,13 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2676,10 +2659,10 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="14">
@@ -2702,7 +2685,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
@@ -2728,10 +2711,10 @@
         <v>5000</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="14">
@@ -2754,7 +2737,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -2780,13 +2763,13 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2808,7 +2791,7 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -2860,7 +2843,7 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
         <v>25</v>
@@ -2886,13 +2869,13 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H38" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2914,7 +2897,7 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -2939,7 +2922,7 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
@@ -2964,13 +2947,13 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H41" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -2991,13 +2974,13 @@
         <v>132</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H42" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -3018,10 +3001,10 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43"/>
       <c r="H43" s="14">
@@ -3874,8 +3857,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F31 F32:F92" xr:uid="{FACAB7E6-8EDD-409D-8433-6D338E1DB06D}">
       <formula1>CategoriesList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A31 A32:A92" xr:uid="{98EADA3F-E236-4B41-95F7-390B654E7BB4}">
-      <formula1>RecValueList</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A92" xr:uid="{64AC772F-6EAE-43F2-9693-0D3DC8D52BFE}">
+      <formula1>"Rec,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3890,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE2A7D-2307-4D38-94C2-B579DAA0D29F}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
@@ -3997,7 +3980,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="27" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -4411,7 +4394,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="27" cm="1">
         <f t="array" ref="B11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -4480,7 +4463,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="27" cm="1">
         <f t="array" ref="B12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -4825,7 +4808,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="27" cm="1">
         <f t="array" ref="B17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -5255,7 +5238,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="23">
         <v>5000</v>
@@ -5579,7 +5562,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="21">
         <v>-106.23</v>
@@ -5633,7 +5616,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="21">
         <v>0</v>
@@ -5903,7 +5886,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="23">
         <v>0</v>
@@ -6198,35 +6181,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC894C10-7729-4DA6-8C38-14F9D86ABD7B}">
-  <dimension ref="B2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Bank Register and Budget.xlsx
+++ b/Bank Register and Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\source\repos\excelbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA36687-0A79-4544-B821-1677C4CE37AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233DA76A-736C-4554-A036-E54ED180F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" activeTab="1" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="28" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="CategoriesList">ActualTable[Category]</definedName>
     <definedName name="OpeningBalance">RegisterTable[[#Headers],[$10,000.00]]</definedName>
     <definedName name="RecValueList">#REF!</definedName>
-    <definedName name="RegisterOpeningBalance">Register!$C$4</definedName>
+    <definedName name="RegisterOpeningBalance">Register!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
   <si>
     <t>Total</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Balance</t>
-  </si>
-  <si>
-    <t>Opening Balance:</t>
   </si>
   <si>
     <t>Account Register</t>
@@ -287,7 +284,7 @@
     <numFmt numFmtId="164" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +332,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -473,7 +462,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -510,35 +499,26 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -551,9 +531,27 @@
   <dxfs count="82">
     <dxf>
       <font>
-        <i/>
+        <color theme="2" tint="-0.24994659260841701"/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -569,7 +567,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -593,7 +591,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -617,7 +615,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -641,7 +639,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -665,7 +663,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -689,7 +687,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -713,7 +711,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -737,7 +735,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -761,7 +759,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,7 +783,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -809,7 +807,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -829,11 +827,10 @@
       <font>
         <i/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -853,11 +850,10 @@
       <font>
         <i/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -877,11 +873,10 @@
       <font>
         <i/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,11 +896,10 @@
       <font>
         <i/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -917,16 +911,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -943,180 +928,21 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1156,10 +982,343 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1179,153 +1338,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1365,26 +1377,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1393,26 +1393,6 @@
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1476,10 +1456,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}" name="RegisterTable" displayName="RegisterTable" ref="A6:I92" totalsRowShown="0">
-  <autoFilter ref="A6:I92" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I56">
-    <sortCondition ref="B6:B56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}" name="RegisterTable" displayName="RegisterTable" ref="A5:I91" totalsRowShown="0">
+  <autoFilter ref="A5:I91" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I55">
+    <sortCondition ref="B5:B55"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="81"/>
@@ -1489,10 +1469,10 @@
     <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="77"/>
     <tableColumn id="4" xr3:uid="{C5DFAA3E-F213-4889-9036-A50E91D40F6F}" name="Category"/>
     <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="72">
+    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="75">
       <calculatedColumnFormula>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="$10,000.00" dataDxfId="75">
+    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="$10,000.00" dataDxfId="74">
       <calculatedColumnFormula>OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1501,56 +1481,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A25:Q42" totalsRowCount="1" headerRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A25:Q42" totalsRowCount="1" headerRowDxfId="73">
   <autoFilter ref="A25:Q41" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Total" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula array="1">OpeningBalance+SUM(BudgetTable[Nov 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="13">
+    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <totalsRowFormula>BudgetTable[[#Totals],[Nov 2022]]+SUM(BudgetTable[Dec 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="12">
+    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>BudgetTable[[#Totals],[Dec 2022]]+SUM(BudgetTable[Jan 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="11">
+    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <totalsRowFormula>BudgetTable[[#Totals],[Jan 2023]]+SUM(BudgetTable[Feb 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="10">
+    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
       <totalsRowFormula>BudgetTable[[#Totals],[Feb 2023]]+SUM(BudgetTable[Mar 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>BudgetTable[[#Totals],[Mar 2023]]+SUM(BudgetTable[Apr 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>BudgetTable[[#Totals],[Apr 2023]]+SUM(BudgetTable[May 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <totalsRowFormula>BudgetTable[[#Totals],[May 2023]]+SUM(BudgetTable[Jun 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
       <totalsRowFormula>BudgetTable[[#Totals],[Jun 2023]]+SUM(BudgetTable[Jul 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <totalsRowFormula>BudgetTable[[#Totals],[Jul 2023]]+SUM(BudgetTable[Aug 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
       <totalsRowFormula>BudgetTable[[#Totals],[Aug 2023]]+SUM(BudgetTable[Sep 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
       <totalsRowFormula>BudgetTable[[#Totals],[Sep 2023]]+SUM(BudgetTable[Oct 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>BudgetTable[[#Totals],[Oct 2023]]+SUM(BudgetTable[Nov 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
       <totalsRowFormula>BudgetTable[[#Totals],[Nov 2023]]+SUM(BudgetTable[Dec 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
       <totalsRowFormula>BudgetTable[[#Totals],[Dec 2023]]+SUM(BudgetTable[Jan 2024])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" dataDxfId="30" totalsRowDxfId="49">
+    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1559,71 +1539,71 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:Q21" totalsRowCount="1" headerRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:Q21" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="A4:Q20" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="29">
+    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula array="1">OpeningBalance+SUM(ActualTable[Nov 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="28">
+    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Nov 2022]]+SUM(ActualTable[Dec 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="27">
+    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Dec 2022]]+SUM(ActualTable[Jan 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="26">
+    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Jan 2023]]+SUM(ActualTable[Feb 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="25">
+    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Feb 2023]]+SUM(ActualTable[Mar 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="24">
+    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Mar 2023]]+SUM(ActualTable[Apr 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="23">
+    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Apr 2023]]+SUM(ActualTable[May 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="22">
+    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[May 2023]]+SUM(ActualTable[Jun 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="21">
+    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Jun 2023]]+SUM(ActualTable[Jul 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="20">
+    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Jul 2023]]+SUM(ActualTable[Aug 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="19">
+    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Aug 2023]]+SUM(ActualTable[Sep 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="18">
+    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Sep 2023]]+SUM(ActualTable[Oct 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="17">
+    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Oct 2023]]+SUM(ActualTable[Nov 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="16">
+    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Nov 2023]]+SUM(ActualTable[Dec 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="15">
+    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
       <totalsRowFormula>ActualTable[[#Totals],[Dec 2023]]+SUM(ActualTable[Jan 2024])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" dataDxfId="32" totalsRowDxfId="51">
+    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1928,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42211B1E-6591-4B2B-9689-E62B5000744C}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1947,14 +1927,14 @@
     <col min="10" max="10" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1964,370 +1944,380 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="4" t="str">
-        <f>RegisterTable[[#Headers],[$10,000.00]]</f>
-        <v>$10,000.00</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="G5"/>
-      <c r="I5" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44866</v>
+      </c>
+      <c r="C6" s="15">
+        <v>256</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14">
+        <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
+        <v>-256</v>
+      </c>
+      <c r="I6" s="18">
+        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
+        <v>9744</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="9">
-        <v>44866</v>
-      </c>
-      <c r="C7" s="15">
-        <v>256</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
+        <v>44868</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-256</v>
-      </c>
-      <c r="I7" s="19">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>9744</v>
+        <v>-2500</v>
+      </c>
+      <c r="I7" s="14">
+        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
+        <v>7244</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="9">
-        <v>44868</v>
+        <v>44875</v>
       </c>
       <c r="C8" s="4">
-        <v>2500</v>
+        <v>64.040000000000006</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-2500</v>
+        <v>-64.040000000000006</v>
       </c>
       <c r="I8" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7244</v>
+        <v>7179.96</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="9">
-        <v>44875</v>
+        <v>44880</v>
       </c>
       <c r="C9" s="4">
-        <v>64.040000000000006</v>
+        <v>164.55</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-64.040000000000006</v>
+        <v>-164.55</v>
       </c>
       <c r="I9" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7179.96</v>
+        <v>7015.41</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="9">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="C10" s="4">
-        <v>164.55</v>
+        <v>64.73</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-164.55</v>
+        <v>-64.73</v>
       </c>
       <c r="I10" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7015.41</v>
+        <v>6950.68</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="9">
-        <v>44882</v>
+        <v>44884</v>
       </c>
       <c r="C11" s="4">
-        <v>64.73</v>
+        <v>599</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11"/>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-64.73</v>
+        <v>-599</v>
       </c>
       <c r="I11" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6950.68</v>
+        <v>6351.68</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="9">
-        <v>44884</v>
+        <v>44887</v>
       </c>
       <c r="C12" s="4">
-        <v>599</v>
+        <v>55.9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G12"/>
       <c r="H12" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-599</v>
+        <v>-55.9</v>
       </c>
       <c r="I12" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6351.68</v>
+        <v>6295.7800000000007</v>
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="9">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="C13" s="4">
-        <v>55.9</v>
+        <v>64.47</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-55.9</v>
+        <v>-64.47</v>
       </c>
       <c r="I13" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6295.7800000000007</v>
+        <v>6231.31</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="9">
-        <v>44889</v>
-      </c>
-      <c r="C14" s="4">
-        <v>64.47</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>44891</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>5000</v>
+      </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-64.47</v>
+        <v>5000</v>
       </c>
       <c r="I14" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6231.31</v>
+        <v>11231.310000000001</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="9">
-        <v>44891</v>
+        <v>44895</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <v>5000</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>5000</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11231.310000000001</v>
+        <v>11232.010000000002</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="9">
         <v>44895</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="C16" s="4">
+        <v>66.03</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>0.7</v>
+        <v>-66.03</v>
       </c>
       <c r="I16" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11232.010000000002</v>
+        <v>11165.980000000001</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="A17" s="9"/>
       <c r="B17" s="9">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C17" s="4">
-        <v>66.03</v>
+        <v>256</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-66.03</v>
+        <v>-256</v>
       </c>
       <c r="I17" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11165.980000000001</v>
+        <v>10909.980000000001</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -2337,23 +2327,25 @@
         <v>44896</v>
       </c>
       <c r="C18" s="4">
-        <v>256</v>
+        <v>115.6</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18"/>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
       <c r="H18" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-256</v>
+        <v>-115.6</v>
       </c>
       <c r="I18" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10909.980000000001</v>
+        <v>10794.380000000001</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -2363,77 +2355,75 @@
         <v>44896</v>
       </c>
       <c r="C19" s="4">
-        <v>115.6</v>
+        <v>68.8</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G19"/>
       <c r="H19" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-115.6</v>
+        <v>-68.8</v>
       </c>
       <c r="I19" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10794.380000000001</v>
+        <v>10725.580000000002</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9">
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="C20" s="4">
-        <v>68.8</v>
+        <v>2500</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-68.8</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10725.580000000002</v>
+        <v>8225.5800000000017</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9">
-        <v>44898</v>
+        <v>44903</v>
       </c>
       <c r="C21" s="4">
-        <v>2500</v>
+        <v>81.14</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-2500</v>
+        <v>-81.14</v>
       </c>
       <c r="I21" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>8225.5800000000017</v>
+        <v>8144.4400000000014</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2443,103 +2433,103 @@
         <v>44903</v>
       </c>
       <c r="C22" s="4">
-        <v>81.14</v>
+        <v>118</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22"/>
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
       <c r="H22" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-81.14</v>
+        <v>-118</v>
       </c>
       <c r="I22" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>8144.4400000000014</v>
+        <v>8026.4400000000014</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="C23" s="4">
-        <v>118</v>
+        <v>65.06</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23"/>
       <c r="H23" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-118</v>
+        <v>-65.06</v>
       </c>
       <c r="I23" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>8026.4400000000014</v>
+        <v>7961.380000000001</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9">
-        <v>44904</v>
+        <v>44910</v>
       </c>
       <c r="C24" s="4">
-        <v>65.06</v>
+        <v>231.09</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-65.06</v>
+        <v>-231.09</v>
       </c>
       <c r="I24" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7961.380000000001</v>
+        <v>7730.2900000000009</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9">
-        <v>44910</v>
+        <v>44912</v>
       </c>
       <c r="C25" s="4">
-        <v>231.09</v>
+        <v>14.9</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-231.09</v>
+        <v>-14.9</v>
       </c>
       <c r="I25" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7730.2900000000009</v>
+        <v>7715.3900000000012</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -2549,75 +2539,77 @@
         <v>44912</v>
       </c>
       <c r="C26" s="4">
-        <v>14.9</v>
+        <v>57.14</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-14.9</v>
+        <v>-57.14</v>
       </c>
       <c r="I26" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7715.3900000000012</v>
+        <v>7658.2500000000009</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9">
-        <v>44912</v>
+        <v>44916</v>
       </c>
       <c r="C27" s="4">
-        <v>57.14</v>
+        <v>65.33</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-57.14</v>
+        <v>-65.33</v>
       </c>
       <c r="I27" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7658.2500000000009</v>
+        <v>7592.920000000001</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="C28" s="4">
-        <v>65.33</v>
+        <v>111.45</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28"/>
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
       <c r="H28" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-65.33</v>
+        <v>-111.45</v>
       </c>
       <c r="I28" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7592.920000000001</v>
+        <v>7481.4700000000012</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -2627,129 +2619,129 @@
         <v>44917</v>
       </c>
       <c r="C29" s="4">
-        <v>111.45</v>
+        <v>103</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" t="s">
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>65</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G29"/>
       <c r="H29" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-111.45</v>
+        <v>-103</v>
       </c>
       <c r="I29" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7481.4700000000012</v>
+        <v>7378.4700000000012</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="C30" s="4">
-        <v>103</v>
+        <v>60.27</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-103</v>
+        <v>-60.27</v>
       </c>
       <c r="I30" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7378.4700000000012</v>
+        <v>7318.2000000000007</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9">
-        <v>44919</v>
-      </c>
-      <c r="C31" s="4">
-        <v>60.27</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>44922</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>5000</v>
+      </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-60.27</v>
+        <v>5000</v>
       </c>
       <c r="I31" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7318.2000000000007</v>
+        <v>12318.2</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
-        <v>44922</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
-        <v>5000</v>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="C32" s="4">
+        <v>116.51</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>5000</v>
+        <v>-116.51</v>
       </c>
       <c r="I32" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>12318.2</v>
+        <v>12201.69</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="9">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="C33" s="4">
-        <v>116.51</v>
+        <v>499</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33"/>
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-116.51</v>
+        <v>-499</v>
       </c>
       <c r="I33" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>12201.69</v>
+        <v>11702.69</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -2759,51 +2751,49 @@
         <v>44924</v>
       </c>
       <c r="C34" s="4">
-        <v>499</v>
+        <v>1091</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34"/>
       <c r="H34" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-499</v>
+        <v>-1091</v>
       </c>
       <c r="I34" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11702.69</v>
+        <v>10611.69</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="9">
-        <v>44924</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1091</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>44926</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>0.37</v>
+      </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G35"/>
       <c r="H35" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-1091</v>
+        <v>0.37</v>
       </c>
       <c r="I35" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10611.69</v>
+        <v>10612.060000000001</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -2812,24 +2802,24 @@
       <c r="B36" s="9">
         <v>44926</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4">
-        <v>0.37</v>
-      </c>
+      <c r="C36" s="4">
+        <v>63.13</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36"/>
       <c r="H36" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>0.37</v>
+        <v>-63.13</v>
       </c>
       <c r="I36" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10612.060000000001</v>
+        <v>10548.930000000002</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -2839,77 +2829,76 @@
         <v>44926</v>
       </c>
       <c r="C37" s="4">
-        <v>63.13</v>
+        <v>106.23</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37"/>
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-63.13</v>
+        <v>-106.23</v>
       </c>
       <c r="I37" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10548.930000000002</v>
+        <v>10442.700000000003</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="C38" s="4">
-        <v>106.23</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>64</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38"/>
       <c r="H38" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-106.23</v>
+        <v>-66</v>
       </c>
       <c r="I38" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10442.700000000003</v>
-      </c>
-      <c r="J38" s="1"/>
+        <v>10376.700000000003</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9">
-        <v>44927</v>
+        <v>44929</v>
       </c>
       <c r="C39" s="4">
-        <v>66</v>
+        <v>2592.86</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39"/>
       <c r="H39" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-66</v>
+        <v>-2592.86</v>
       </c>
       <c r="I39" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10376.700000000003</v>
+        <v>7783.840000000002</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2918,98 +2907,89 @@
         <v>44929</v>
       </c>
       <c r="C40" s="4">
-        <v>2592.86</v>
+        <v>528.07000000000005</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" t="s">
-        <v>48</v>
+      <c r="E40" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40"/>
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-2592.86</v>
+        <v>-528.07000000000005</v>
       </c>
       <c r="I40" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7783.840000000002</v>
+        <v>7255.7700000000023</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="9">
-        <v>44929</v>
-      </c>
-      <c r="C41" s="4">
-        <v>528.07000000000005</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>44930</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4">
+        <v>132</v>
+      </c>
       <c r="E41" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H41" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-528.07000000000005</v>
+        <v>132</v>
       </c>
       <c r="I41" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7255.7700000000023</v>
+        <v>7387.7700000000023</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
-        <v>44930</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4">
-        <v>132</v>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="C42" s="4">
+        <v>7.98</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G42"/>
       <c r="H42" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>132</v>
+        <v>-7.98</v>
       </c>
       <c r="I42" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7387.7700000000023</v>
+        <v>7379.7900000000027</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
-      <c r="B43" s="9">
-        <v>44931</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7.98</v>
-      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>69</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="G43"/>
       <c r="H43" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>-7.98</v>
+        <v>0</v>
       </c>
       <c r="I43" s="14">
         <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
@@ -3211,9 +3191,10 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="6"/>
+      <c r="F56" s="10"/>
       <c r="G56"/>
       <c r="H56" s="14">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -3819,45 +3800,28 @@
         <v>7379.7900000000027</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="10"/>
-      <c r="G92"/>
-      <c r="H92" s="14">
-        <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G92 C7:E92">
-    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
+  <conditionalFormatting sqref="G6:G91 C6:E91">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5 C4 I6:I7">
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+  <conditionalFormatting sqref="B4 I5:I6">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:I92">
-    <cfRule type="expression" dxfId="69" priority="2">
-      <formula>$A7="Rec"</formula>
+  <conditionalFormatting sqref="A6:I91">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A6="Rec"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F31 F32:F92" xr:uid="{FACAB7E6-8EDD-409D-8433-6D338E1DB06D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F91" xr:uid="{FACAB7E6-8EDD-409D-8433-6D338E1DB06D}">
       <formula1>CategoriesList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A92" xr:uid="{64AC772F-6EAE-43F2-9693-0D3DC8D52BFE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A91" xr:uid="{64AC772F-6EAE-43F2-9693-0D3DC8D52BFE}">
       <formula1>"Rec,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3873,7 +3837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE2A7D-2307-4D38-94C2-B579DAA0D29F}">
   <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
@@ -3908,22 +3872,22 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -3979,1174 +3943,1173 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="27" cm="1">
+      <c r="A5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>5000</v>
       </c>
-      <c r="C5" s="27" cm="1">
+      <c r="C5" s="22" cm="1">
         <f t="array" ref="C5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>5000</v>
       </c>
-      <c r="D5" s="27" cm="1">
+      <c r="D5" s="22" cm="1">
         <f t="array" ref="D5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="27" cm="1">
+      <c r="E5" s="22" cm="1">
         <f t="array" ref="E5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="27" cm="1">
+      <c r="F5" s="22" cm="1">
         <f t="array" ref="F5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="27" cm="1">
+      <c r="G5" s="22" cm="1">
         <f t="array" ref="G5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="27" cm="1">
+      <c r="H5" s="22" cm="1">
         <f t="array" ref="H5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="27" cm="1">
+      <c r="I5" s="22" cm="1">
         <f t="array" ref="I5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="27" cm="1">
+      <c r="J5" s="22" cm="1">
         <f t="array" ref="J5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="27" cm="1">
+      <c r="K5" s="22" cm="1">
         <f t="array" ref="K5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="27" cm="1">
+      <c r="L5" s="22" cm="1">
         <f t="array" ref="L5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="27" cm="1">
+      <c r="M5" s="22" cm="1">
         <f t="array" ref="M5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="27" cm="1">
+      <c r="N5" s="22" cm="1">
         <f t="array" ref="N5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="27" cm="1">
+      <c r="O5" s="22" cm="1">
         <f t="array" ref="O5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="27" cm="1">
+      <c r="P5" s="22" cm="1">
         <f t="array" ref="P5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27" cm="1">
+      <c r="B6" s="22" cm="1">
         <f t="array" ref="B6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0.7</v>
       </c>
-      <c r="C6" s="27" cm="1">
+      <c r="C6" s="22" cm="1">
         <f t="array" ref="C6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0.37</v>
       </c>
-      <c r="D6" s="27" cm="1">
+      <c r="D6" s="22" cm="1">
         <f t="array" ref="D6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="27" cm="1">
+      <c r="E6" s="22" cm="1">
         <f t="array" ref="E6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="27" cm="1">
+      <c r="F6" s="22" cm="1">
         <f t="array" ref="F6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="27" cm="1">
+      <c r="G6" s="22" cm="1">
         <f t="array" ref="G6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="27" cm="1">
+      <c r="H6" s="22" cm="1">
         <f t="array" ref="H6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="27" cm="1">
+      <c r="I6" s="22" cm="1">
         <f t="array" ref="I6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27" cm="1">
+      <c r="J6" s="22" cm="1">
         <f t="array" ref="J6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27" cm="1">
+      <c r="K6" s="22" cm="1">
         <f t="array" ref="K6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="27" cm="1">
+      <c r="L6" s="22" cm="1">
         <f t="array" ref="L6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="27" cm="1">
+      <c r="M6" s="22" cm="1">
         <f t="array" ref="M6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="27" cm="1">
+      <c r="N6" s="22" cm="1">
         <f t="array" ref="N6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="27" cm="1">
+      <c r="O6" s="22" cm="1">
         <f t="array" ref="O6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P6" s="27" cm="1">
+      <c r="P6" s="22" cm="1">
         <f t="array" ref="P6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>1.0699999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" cm="1">
+      <c r="B7" s="22" cm="1">
         <f t="array" ref="B7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="27" cm="1">
+      <c r="C7" s="22" cm="1">
         <f t="array" ref="C7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="27" cm="1">
+      <c r="D7" s="22" cm="1">
         <f t="array" ref="D7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>132</v>
       </c>
-      <c r="E7" s="27" cm="1">
+      <c r="E7" s="22" cm="1">
         <f t="array" ref="E7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="27" cm="1">
+      <c r="F7" s="22" cm="1">
         <f t="array" ref="F7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="27" cm="1">
+      <c r="G7" s="22" cm="1">
         <f t="array" ref="G7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="27" cm="1">
+      <c r="H7" s="22" cm="1">
         <f t="array" ref="H7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="27" cm="1">
+      <c r="I7" s="22" cm="1">
         <f t="array" ref="I7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27" cm="1">
+      <c r="J7" s="22" cm="1">
         <f t="array" ref="J7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27" cm="1">
+      <c r="K7" s="22" cm="1">
         <f t="array" ref="K7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="27" cm="1">
+      <c r="L7" s="22" cm="1">
         <f t="array" ref="L7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="27" cm="1">
+      <c r="M7" s="22" cm="1">
         <f t="array" ref="M7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="27" cm="1">
+      <c r="N7" s="22" cm="1">
         <f t="array" ref="N7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="27" cm="1">
+      <c r="O7" s="22" cm="1">
         <f t="array" ref="O7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="27" cm="1">
+      <c r="P7" s="22" cm="1">
         <f t="array" ref="P7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="27" cm="1">
+      <c r="B8" s="22" cm="1">
         <f t="array" ref="B8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2500</v>
       </c>
-      <c r="C8" s="27" cm="1">
+      <c r="C8" s="22" cm="1">
         <f t="array" ref="C8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2500</v>
       </c>
-      <c r="D8" s="27" cm="1">
+      <c r="D8" s="22" cm="1">
         <f t="array" ref="D8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2592.86</v>
       </c>
-      <c r="E8" s="27" cm="1">
+      <c r="E8" s="22" cm="1">
         <f t="array" ref="E8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="27" cm="1">
+      <c r="F8" s="22" cm="1">
         <f t="array" ref="F8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="27" cm="1">
+      <c r="G8" s="22" cm="1">
         <f t="array" ref="G8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="27" cm="1">
+      <c r="H8" s="22" cm="1">
         <f t="array" ref="H8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="27" cm="1">
+      <c r="I8" s="22" cm="1">
         <f t="array" ref="I8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="27" cm="1">
+      <c r="J8" s="22" cm="1">
         <f t="array" ref="J8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="27" cm="1">
+      <c r="K8" s="22" cm="1">
         <f t="array" ref="K8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="27" cm="1">
+      <c r="L8" s="22" cm="1">
         <f t="array" ref="L8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="27" cm="1">
+      <c r="M8" s="22" cm="1">
         <f t="array" ref="M8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="27" cm="1">
+      <c r="N8" s="22" cm="1">
         <f t="array" ref="N8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="27" cm="1">
+      <c r="O8" s="22" cm="1">
         <f t="array" ref="O8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="27" cm="1">
+      <c r="P8" s="22" cm="1">
         <f t="array" ref="P8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-7592.8600000000006</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="27" cm="1">
+      <c r="B9" s="22" cm="1">
         <f t="array" ref="B9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-164.55</v>
       </c>
-      <c r="C9" s="27" cm="1">
+      <c r="C9" s="22" cm="1">
         <f t="array" ref="C9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-231.09</v>
       </c>
-      <c r="D9" s="27" cm="1">
+      <c r="D9" s="22" cm="1">
         <f t="array" ref="D9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27" cm="1">
+      <c r="E9" s="22" cm="1">
         <f t="array" ref="E9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="27" cm="1">
+      <c r="F9" s="22" cm="1">
         <f t="array" ref="F9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="27" cm="1">
+      <c r="G9" s="22" cm="1">
         <f t="array" ref="G9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="27" cm="1">
+      <c r="H9" s="22" cm="1">
         <f t="array" ref="H9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="27" cm="1">
+      <c r="I9" s="22" cm="1">
         <f t="array" ref="I9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27" cm="1">
+      <c r="J9" s="22" cm="1">
         <f t="array" ref="J9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="27" cm="1">
+      <c r="K9" s="22" cm="1">
         <f t="array" ref="K9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="27" cm="1">
+      <c r="L9" s="22" cm="1">
         <f t="array" ref="L9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="27" cm="1">
+      <c r="M9" s="22" cm="1">
         <f t="array" ref="M9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="27" cm="1">
+      <c r="N9" s="22" cm="1">
         <f t="array" ref="N9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="27" cm="1">
+      <c r="O9" s="22" cm="1">
         <f t="array" ref="O9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P9" s="27" cm="1">
+      <c r="P9" s="22" cm="1">
         <f t="array" ref="P9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-395.64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28" cm="1">
+      <c r="B10" s="23" cm="1">
         <f t="array" ref="B10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-121.93</v>
       </c>
-      <c r="C10" s="28" cm="1">
+      <c r="C10" s="23" cm="1">
         <f t="array" ref="C10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-277.88</v>
       </c>
-      <c r="D10" s="28" cm="1">
+      <c r="D10" s="23" cm="1">
         <f t="array" ref="D10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" cm="1">
+      <c r="E10" s="23" cm="1">
         <f t="array" ref="E10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28" cm="1">
+      <c r="F10" s="23" cm="1">
         <f t="array" ref="F10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="28" cm="1">
+      <c r="G10" s="23" cm="1">
         <f t="array" ref="G10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28" cm="1">
+      <c r="H10" s="23" cm="1">
         <f t="array" ref="H10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="28" cm="1">
+      <c r="I10" s="23" cm="1">
         <f t="array" ref="I10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J10" s="28" cm="1">
+      <c r="J10" s="23" cm="1">
         <f t="array" ref="J10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="28" cm="1">
+      <c r="K10" s="23" cm="1">
         <f t="array" ref="K10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="28" cm="1">
+      <c r="L10" s="23" cm="1">
         <f t="array" ref="L10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="28" cm="1">
+      <c r="M10" s="23" cm="1">
         <f t="array" ref="M10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="28" cm="1">
+      <c r="N10" s="23" cm="1">
         <f t="array" ref="N10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O10" s="28" cm="1">
+      <c r="O10" s="23" cm="1">
         <f t="array" ref="O10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P10" s="28" cm="1">
+      <c r="P10" s="23" cm="1">
         <f t="array" ref="P10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-399.81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="27" cm="1">
+      <c r="B11" s="22" cm="1">
         <f t="array" ref="B11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="27" cm="1">
+      <c r="C11" s="22" cm="1">
         <f t="array" ref="C11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-209.23000000000002</v>
       </c>
-      <c r="D11" s="27" cm="1">
+      <c r="D11" s="22" cm="1">
         <f t="array" ref="D11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="27" cm="1">
+      <c r="E11" s="22" cm="1">
         <f t="array" ref="E11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="27" cm="1">
+      <c r="F11" s="22" cm="1">
         <f t="array" ref="F11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="27" cm="1">
+      <c r="G11" s="22" cm="1">
         <f t="array" ref="G11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="27" cm="1">
+      <c r="H11" s="22" cm="1">
         <f t="array" ref="H11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="27" cm="1">
+      <c r="I11" s="22" cm="1">
         <f t="array" ref="I11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27" cm="1">
+      <c r="J11" s="22" cm="1">
         <f t="array" ref="J11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="27" cm="1">
+      <c r="K11" s="22" cm="1">
         <f t="array" ref="K11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="27" cm="1">
+      <c r="L11" s="22" cm="1">
         <f t="array" ref="L11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="27" cm="1">
+      <c r="M11" s="22" cm="1">
         <f t="array" ref="M11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="27" cm="1">
+      <c r="N11" s="22" cm="1">
         <f t="array" ref="N11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="27" cm="1">
+      <c r="O11" s="22" cm="1">
         <f t="array" ref="O11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="27" cm="1">
+      <c r="P11" s="22" cm="1">
         <f t="array" ref="P11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-209.23000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="27" cm="1">
+      <c r="A12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="22" cm="1">
         <f t="array" ref="B12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C12" s="27" cm="1">
+      <c r="C12" s="22" cm="1">
         <f t="array" ref="C12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="27" cm="1">
+      <c r="D12" s="22" cm="1">
         <f t="array" ref="D12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-7.98</v>
       </c>
-      <c r="E12" s="27" cm="1">
+      <c r="E12" s="22" cm="1">
         <f t="array" ref="E12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="27" cm="1">
+      <c r="F12" s="22" cm="1">
         <f t="array" ref="F12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="27" cm="1">
+      <c r="G12" s="22" cm="1">
         <f t="array" ref="G12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="27" cm="1">
+      <c r="H12" s="22" cm="1">
         <f t="array" ref="H12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="27" cm="1">
+      <c r="I12" s="22" cm="1">
         <f t="array" ref="I12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="27" cm="1">
+      <c r="J12" s="22" cm="1">
         <f t="array" ref="J12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="27" cm="1">
+      <c r="K12" s="22" cm="1">
         <f t="array" ref="K12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="27" cm="1">
+      <c r="L12" s="22" cm="1">
         <f t="array" ref="L12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="27" cm="1">
+      <c r="M12" s="22" cm="1">
         <f t="array" ref="M12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="27" cm="1">
+      <c r="N12" s="22" cm="1">
         <f t="array" ref="N12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="27" cm="1">
+      <c r="O12" s="22" cm="1">
         <f t="array" ref="O12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P12" s="27" cm="1">
+      <c r="P12" s="22" cm="1">
         <f t="array" ref="P12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-7.98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27" cm="1">
+      <c r="B13" s="22" cm="1">
         <f t="array" ref="B13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-256</v>
       </c>
-      <c r="C13" s="27" cm="1">
+      <c r="C13" s="22" cm="1">
         <f t="array" ref="C13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-256</v>
       </c>
-      <c r="D13" s="27" cm="1">
+      <c r="D13" s="22" cm="1">
         <f t="array" ref="D13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="27" cm="1">
+      <c r="E13" s="22" cm="1">
         <f t="array" ref="E13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="27" cm="1">
+      <c r="F13" s="22" cm="1">
         <f t="array" ref="F13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="27" cm="1">
+      <c r="G13" s="22" cm="1">
         <f t="array" ref="G13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="27" cm="1">
+      <c r="H13" s="22" cm="1">
         <f t="array" ref="H13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="27" cm="1">
+      <c r="I13" s="22" cm="1">
         <f t="array" ref="I13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J13" s="27" cm="1">
+      <c r="J13" s="22" cm="1">
         <f t="array" ref="J13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="27" cm="1">
+      <c r="K13" s="22" cm="1">
         <f t="array" ref="K13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L13" s="27" cm="1">
+      <c r="L13" s="22" cm="1">
         <f t="array" ref="L13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="27" cm="1">
+      <c r="M13" s="22" cm="1">
         <f t="array" ref="M13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="27" cm="1">
+      <c r="N13" s="22" cm="1">
         <f t="array" ref="N13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="27" cm="1">
+      <c r="O13" s="22" cm="1">
         <f t="array" ref="O13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P13" s="27" cm="1">
+      <c r="P13" s="22" cm="1">
         <f t="array" ref="P13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-512</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="27" cm="1">
+      <c r="B14" s="22" cm="1">
         <f t="array" ref="B14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-193.24</v>
       </c>
-      <c r="C14" s="27" cm="1">
+      <c r="C14" s="22" cm="1">
         <f t="array" ref="C14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-314.40000000000003</v>
       </c>
-      <c r="D14" s="27" cm="1">
+      <c r="D14" s="22" cm="1">
         <f t="array" ref="D14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="27" cm="1">
+      <c r="E14" s="22" cm="1">
         <f t="array" ref="E14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="27" cm="1">
+      <c r="F14" s="22" cm="1">
         <f t="array" ref="F14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="27" cm="1">
+      <c r="G14" s="22" cm="1">
         <f t="array" ref="G14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="27" cm="1">
+      <c r="H14" s="22" cm="1">
         <f t="array" ref="H14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="27" cm="1">
+      <c r="I14" s="22" cm="1">
         <f t="array" ref="I14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="27" cm="1">
+      <c r="J14" s="22" cm="1">
         <f t="array" ref="J14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="27" cm="1">
+      <c r="K14" s="22" cm="1">
         <f t="array" ref="K14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="27" cm="1">
+      <c r="L14" s="22" cm="1">
         <f t="array" ref="L14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="27" cm="1">
+      <c r="M14" s="22" cm="1">
         <f t="array" ref="M14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="27" cm="1">
+      <c r="N14" s="22" cm="1">
         <f t="array" ref="N14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="27" cm="1">
+      <c r="O14" s="22" cm="1">
         <f t="array" ref="O14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P14" s="27" cm="1">
+      <c r="P14" s="22" cm="1">
         <f t="array" ref="P14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-507.64000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="27" cm="1">
+      <c r="B15" s="22" cm="1">
         <f t="array" ref="B15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="27" cm="1">
+      <c r="C15" s="22" cm="1">
         <f t="array" ref="C15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-617</v>
       </c>
-      <c r="D15" s="27" cm="1">
+      <c r="D15" s="22" cm="1">
         <f t="array" ref="D15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="27" cm="1">
+      <c r="E15" s="22" cm="1">
         <f t="array" ref="E15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="27" cm="1">
+      <c r="F15" s="22" cm="1">
         <f t="array" ref="F15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="27" cm="1">
+      <c r="G15" s="22" cm="1">
         <f t="array" ref="G15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="27" cm="1">
+      <c r="H15" s="22" cm="1">
         <f t="array" ref="H15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="27" cm="1">
+      <c r="I15" s="22" cm="1">
         <f t="array" ref="I15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="27" cm="1">
+      <c r="J15" s="22" cm="1">
         <f t="array" ref="J15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="27" cm="1">
+      <c r="K15" s="22" cm="1">
         <f t="array" ref="K15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L15" s="27" cm="1">
+      <c r="L15" s="22" cm="1">
         <f t="array" ref="L15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="27" cm="1">
+      <c r="M15" s="22" cm="1">
         <f t="array" ref="M15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="27" cm="1">
+      <c r="N15" s="22" cm="1">
         <f t="array" ref="N15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="27" cm="1">
+      <c r="O15" s="22" cm="1">
         <f t="array" ref="O15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="27" cm="1">
+      <c r="P15" s="22" cm="1">
         <f t="array" ref="P15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-617</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27" cm="1">
+      <c r="B16" s="22" cm="1">
         <f t="array" ref="B16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-599</v>
       </c>
-      <c r="C16" s="27" cm="1">
+      <c r="C16" s="22" cm="1">
         <f t="array" ref="C16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-1206.5999999999999</v>
       </c>
-      <c r="D16" s="27" cm="1">
+      <c r="D16" s="22" cm="1">
         <f t="array" ref="D16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="27" cm="1">
+      <c r="E16" s="22" cm="1">
         <f t="array" ref="E16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="27" cm="1">
+      <c r="F16" s="22" cm="1">
         <f t="array" ref="F16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="27" cm="1">
+      <c r="G16" s="22" cm="1">
         <f t="array" ref="G16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="27" cm="1">
+      <c r="H16" s="22" cm="1">
         <f t="array" ref="H16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="27" cm="1">
+      <c r="I16" s="22" cm="1">
         <f t="array" ref="I16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="27" cm="1">
+      <c r="J16" s="22" cm="1">
         <f t="array" ref="J16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="27" cm="1">
+      <c r="K16" s="22" cm="1">
         <f t="array" ref="K16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="27" cm="1">
+      <c r="L16" s="22" cm="1">
         <f t="array" ref="L16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="27" cm="1">
+      <c r="M16" s="22" cm="1">
         <f t="array" ref="M16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="27" cm="1">
+      <c r="N16" s="22" cm="1">
         <f t="array" ref="N16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="27" cm="1">
+      <c r="O16" s="22" cm="1">
         <f t="array" ref="O16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P16" s="27" cm="1">
+      <c r="P16" s="22" cm="1">
         <f t="array" ref="P16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1805.6</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="27" cm="1">
+      <c r="A17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="22" cm="1">
         <f t="array" ref="B17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C17" s="27" cm="1">
+      <c r="C17" s="22" cm="1">
         <f t="array" ref="C17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-111.45</v>
       </c>
-      <c r="D17" s="27" cm="1">
+      <c r="D17" s="22" cm="1">
         <f t="array" ref="D17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="27" cm="1">
+      <c r="E17" s="22" cm="1">
         <f t="array" ref="E17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="27" cm="1">
+      <c r="F17" s="22" cm="1">
         <f t="array" ref="F17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="27" cm="1">
+      <c r="G17" s="22" cm="1">
         <f t="array" ref="G17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="27" cm="1">
+      <c r="H17" s="22" cm="1">
         <f t="array" ref="H17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="27" cm="1">
+      <c r="I17" s="22" cm="1">
         <f t="array" ref="I17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="27" cm="1">
+      <c r="J17" s="22" cm="1">
         <f t="array" ref="J17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="27" cm="1">
+      <c r="K17" s="22" cm="1">
         <f t="array" ref="K17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L17" s="27" cm="1">
+      <c r="L17" s="22" cm="1">
         <f t="array" ref="L17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="27" cm="1">
+      <c r="M17" s="22" cm="1">
         <f t="array" ref="M17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="27" cm="1">
+      <c r="N17" s="22" cm="1">
         <f t="array" ref="N17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="27" cm="1">
+      <c r="O17" s="22" cm="1">
         <f t="array" ref="O17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P17" s="27" cm="1">
+      <c r="P17" s="22" cm="1">
         <f t="array" ref="P17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-111.45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="27" cm="1">
+      <c r="B18" s="22" cm="1">
         <f t="array" ref="B18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C18" s="27" cm="1">
+      <c r="C18" s="22" cm="1">
         <f t="array" ref="C18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27" cm="1">
+      <c r="D18" s="22" cm="1">
         <f t="array" ref="D18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-528.07000000000005</v>
       </c>
-      <c r="E18" s="27" cm="1">
+      <c r="E18" s="22" cm="1">
         <f t="array" ref="E18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27" cm="1">
+      <c r="F18" s="22" cm="1">
         <f t="array" ref="F18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="27" cm="1">
+      <c r="G18" s="22" cm="1">
         <f t="array" ref="G18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="27" cm="1">
+      <c r="H18" s="22" cm="1">
         <f t="array" ref="H18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="27" cm="1">
+      <c r="I18" s="22" cm="1">
         <f t="array" ref="I18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27" cm="1">
+      <c r="J18" s="22" cm="1">
         <f t="array" ref="J18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="27" cm="1">
+      <c r="K18" s="22" cm="1">
         <f t="array" ref="K18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L18" s="27" cm="1">
+      <c r="L18" s="22" cm="1">
         <f t="array" ref="L18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27" cm="1">
+      <c r="M18" s="22" cm="1">
         <f t="array" ref="M18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="27" cm="1">
+      <c r="N18" s="22" cm="1">
         <f t="array" ref="N18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O18" s="27" cm="1">
+      <c r="O18" s="22" cm="1">
         <f t="array" ref="O18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P18" s="27" cm="1">
+      <c r="P18" s="22" cm="1">
         <f t="array" ref="P18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-528.07000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="27" cm="1">
+      <c r="B19" s="22" cm="1">
         <f t="array" ref="B19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="27" cm="1">
+      <c r="C19" s="22" cm="1">
         <f t="array" ref="C19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="27" cm="1">
+      <c r="D19" s="22" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-66</v>
       </c>
-      <c r="E19" s="27" cm="1">
+      <c r="E19" s="22" cm="1">
         <f t="array" ref="E19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="27" cm="1">
+      <c r="F19" s="22" cm="1">
         <f t="array" ref="F19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="27" cm="1">
+      <c r="G19" s="22" cm="1">
         <f t="array" ref="G19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="27" cm="1">
+      <c r="H19" s="22" cm="1">
         <f t="array" ref="H19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="27" cm="1">
+      <c r="I19" s="22" cm="1">
         <f t="array" ref="I19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="27" cm="1">
+      <c r="J19" s="22" cm="1">
         <f t="array" ref="J19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="27" cm="1">
+      <c r="K19" s="22" cm="1">
         <f t="array" ref="K19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L19" s="27" cm="1">
+      <c r="L19" s="22" cm="1">
         <f t="array" ref="L19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="27" cm="1">
+      <c r="M19" s="22" cm="1">
         <f t="array" ref="M19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="27" cm="1">
+      <c r="N19" s="22" cm="1">
         <f t="array" ref="N19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="27" cm="1">
+      <c r="O19" s="22" cm="1">
         <f t="array" ref="O19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="27" cm="1">
+      <c r="P19" s="22" cm="1">
         <f t="array" ref="P19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="27" cm="1">
+      <c r="B20" s="22" cm="1">
         <f t="array" ref="B20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C20" s="27" cm="1">
+      <c r="C20" s="22" cm="1">
         <f t="array" ref="C20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D20" s="27" cm="1">
+      <c r="D20" s="22" cm="1">
         <f t="array" ref="D20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="27" cm="1">
+      <c r="E20" s="22" cm="1">
         <f t="array" ref="E20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="27" cm="1">
+      <c r="F20" s="22" cm="1">
         <f t="array" ref="F20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27" cm="1">
+      <c r="G20" s="22" cm="1">
         <f t="array" ref="G20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="27" cm="1">
+      <c r="H20" s="22" cm="1">
         <f t="array" ref="H20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I20" s="27" cm="1">
+      <c r="I20" s="22" cm="1">
         <f t="array" ref="I20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J20" s="27" cm="1">
+      <c r="J20" s="22" cm="1">
         <f t="array" ref="J20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K20" s="27" cm="1">
+      <c r="K20" s="22" cm="1">
         <f t="array" ref="K20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L20" s="27" cm="1">
+      <c r="L20" s="22" cm="1">
         <f t="array" ref="L20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M20" s="27" cm="1">
+      <c r="M20" s="22" cm="1">
         <f t="array" ref="M20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N20" s="27" cm="1">
+      <c r="N20" s="22" cm="1">
         <f t="array" ref="N20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="27" cm="1">
+      <c r="O20" s="22" cm="1">
         <f t="array" ref="O20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P20" s="27" cm="1">
+      <c r="P20" s="22" cm="1">
         <f t="array" ref="P20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="22">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="27" cm="1">
+      <c r="A21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="22" cm="1">
         <f t="array" ref="B21">OpeningBalance+SUM(ActualTable[Nov 2022])</f>
         <v>11165.98</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="22">
         <f>ActualTable[[#Totals],[Nov 2022]]+SUM(ActualTable[Dec 2022])</f>
         <v>10442.699999999999</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="22">
         <f>ActualTable[[#Totals],[Dec 2022]]+SUM(ActualTable[Jan 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="22">
         <f>ActualTable[[#Totals],[Jan 2023]]+SUM(ActualTable[Feb 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <f>ActualTable[[#Totals],[Feb 2023]]+SUM(ActualTable[Mar 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="22">
         <f>ActualTable[[#Totals],[Mar 2023]]+SUM(ActualTable[Apr 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="22">
         <f>ActualTable[[#Totals],[Apr 2023]]+SUM(ActualTable[May 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="22">
         <f>ActualTable[[#Totals],[May 2023]]+SUM(ActualTable[Jun 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="22">
         <f>ActualTable[[#Totals],[Jun 2023]]+SUM(ActualTable[Jul 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="22">
         <f>ActualTable[[#Totals],[Jul 2023]]+SUM(ActualTable[Aug 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="22">
         <f>ActualTable[[#Totals],[Aug 2023]]+SUM(ActualTable[Sep 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="22">
         <f>ActualTable[[#Totals],[Sep 2023]]+SUM(ActualTable[Oct 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="22">
         <f>ActualTable[[#Totals],[Oct 2023]]+SUM(ActualTable[Nov 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="22">
         <f>ActualTable[[#Totals],[Nov 2023]]+SUM(ActualTable[Dec 2023])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="22">
         <f>ActualTable[[#Totals],[Dec 2023]]+SUM(ActualTable[Jan 2024])</f>
         <v>7379.7899999999991</v>
       </c>
-      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E22" s="1"/>
@@ -5237,940 +5200,939 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="A26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4">
         <v>5000</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="4">
         <v>5000</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="4">
         <v>5250</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="4">
         <v>5250</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="4">
         <v>5250</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="4">
         <v>5250</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="4">
         <v>5250</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="4">
         <v>5250</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="4">
         <v>5250</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="4">
         <v>5250</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="4">
         <v>5250</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="4">
         <v>5250</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="4">
         <v>5250</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="4">
         <v>5250</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="4">
         <v>5250</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>78250</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="1">
         <v>0.7</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="1">
         <v>0.37</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="1">
         <v>0.5</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="1">
         <v>0.5</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="1">
         <v>0.5</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="1">
         <v>0.5</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="1">
         <v>0.5</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="1">
         <v>0.5</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="1">
         <v>0.5</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="1">
         <v>0.5</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="1">
         <v>0.5</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="1">
         <v>0.5</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="1">
         <v>0.5</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="1">
         <v>0.5</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="27">
+      <c r="Q27" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>7.57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="21">
-        <v>0</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <v>0</v>
-      </c>
-      <c r="J28" s="21">
-        <v>0</v>
-      </c>
-      <c r="K28" s="21">
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21">
-        <v>0</v>
-      </c>
-      <c r="O28" s="21">
-        <v>0</v>
-      </c>
-      <c r="P28" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="27">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="4">
         <v>-2500</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="1">
         <v>-2500</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-38707.180000000008</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="1">
         <v>-164.55</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="1">
         <v>-231.09</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="1">
         <v>-200</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="1">
         <v>-200</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="1">
         <v>-200</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="1">
         <v>-200</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="1">
         <v>-200</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="1">
         <v>-200</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="1">
         <v>-200</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="1">
         <v>-200</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="1">
         <v>-200</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="1">
         <v>-200</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="1">
         <v>-200</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="1">
         <v>-200</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="1">
         <v>-200</v>
       </c>
-      <c r="Q30" s="27">
+      <c r="Q30" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-2995.64</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="1">
         <v>-121.93</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="1">
         <v>-277.88</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="1">
         <v>-250</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="1">
         <v>-250</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="1">
         <v>-250</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="1">
         <v>-250</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="1">
         <v>-250</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="1">
         <v>-250</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="1">
         <v>-250</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="1">
         <v>-250</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="1">
         <v>-250</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="1">
         <v>-250</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="1">
         <v>-250</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="1">
         <v>-250</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="1">
         <v>-250</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-3649.81</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="1">
         <v>-106.23</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="1">
         <v>-103</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="1">
         <v>-110</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="1">
         <v>-110</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="1">
         <v>-110</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="1">
         <v>-110</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="1">
         <v>-110</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="1">
         <v>-110</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="1">
         <v>-110</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="1">
         <v>-110</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="1">
         <v>-110</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="1">
         <v>-110</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="1">
         <v>-110</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="1">
         <v>-110</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="1">
         <v>-110</v>
       </c>
-      <c r="Q32" s="27">
+      <c r="Q32" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1639.23</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="21">
-        <v>0</v>
-      </c>
-      <c r="C33" s="21">
-        <v>0</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="21">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="21">
-        <v>0</v>
-      </c>
-      <c r="J33" s="21">
-        <v>0</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0</v>
-      </c>
-      <c r="L33" s="21">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21">
-        <v>0</v>
-      </c>
-      <c r="N33" s="21">
-        <v>0</v>
-      </c>
-      <c r="O33" s="21">
-        <v>0</v>
-      </c>
-      <c r="P33" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="27">
+      <c r="A33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="1">
         <v>-256</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="1">
         <v>-256</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="1">
         <v>-256</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="1">
         <v>-256</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="1">
         <v>-256</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="1">
         <v>-256</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="1">
         <v>-256</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="1">
         <v>-256</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="1">
         <v>-256</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="1">
         <v>-256</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="1">
         <v>-256</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="1">
         <v>-256</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="1">
         <v>-256</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="1">
         <v>-256</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="1">
         <v>-256</v>
       </c>
-      <c r="Q34" s="27">
+      <c r="Q34" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-3840</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="1">
         <v>-193.24</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="1">
         <v>-314.40000000000003</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="1">
         <v>-300</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="1">
         <v>-300</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="1">
         <v>-300</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="1">
         <v>-300</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="1">
         <v>-300</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="1">
         <v>-300</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="1">
         <v>-300</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="1">
         <v>-300</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="1">
         <v>-300</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="1">
         <v>-300</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="1">
         <v>-300</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="1">
         <v>-300</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="1">
         <v>-300</v>
       </c>
-      <c r="Q35" s="27">
+      <c r="Q35" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-4407.6400000000003</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="21">
-        <v>0</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
         <v>-617</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="1">
         <v>-850</v>
       </c>
-      <c r="E36" s="21">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0</v>
-      </c>
-      <c r="J36" s="21">
-        <v>0</v>
-      </c>
-      <c r="K36" s="21">
-        <v>0</v>
-      </c>
-      <c r="L36" s="21">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21">
-        <v>0</v>
-      </c>
-      <c r="N36" s="21">
-        <v>0</v>
-      </c>
-      <c r="O36" s="21">
-        <v>0</v>
-      </c>
-      <c r="P36" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="27">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1467</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="1">
         <v>-599</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="1">
         <v>-1206.5999999999999</v>
       </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21">
-        <v>0</v>
-      </c>
-      <c r="J37" s="21">
-        <v>0</v>
-      </c>
-      <c r="K37" s="21">
-        <v>0</v>
-      </c>
-      <c r="L37" s="21">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21">
-        <v>0</v>
-      </c>
-      <c r="N37" s="21">
-        <v>0</v>
-      </c>
-      <c r="O37" s="21">
-        <v>0</v>
-      </c>
-      <c r="P37" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="27">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1805.6</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="23">
-        <v>0</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="A38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
         <v>-111.45</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="4">
         <v>-90</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="4">
         <v>-90</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="4">
         <v>-90</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="4">
         <v>-90</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="4">
         <v>-90</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="4">
         <v>-90</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="4">
         <v>-90</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="4">
         <v>-90</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="4">
         <v>-90</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="4">
         <v>-90</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="4">
         <v>-90</v>
       </c>
-      <c r="O38" s="23">
+      <c r="O38" s="4">
         <v>-90</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="4">
         <v>-90</v>
       </c>
-      <c r="Q38" s="27">
+      <c r="Q38" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1281.45</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="21">
-        <v>0</v>
-      </c>
-      <c r="C39" s="21">
-        <v>0</v>
-      </c>
-      <c r="D39" s="21">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
         <v>-528.07000000000005</v>
       </c>
-      <c r="E39" s="21">
-        <v>0</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21">
-        <v>0</v>
-      </c>
-      <c r="J39" s="21">
-        <v>0</v>
-      </c>
-      <c r="K39" s="21">
-        <v>0</v>
-      </c>
-      <c r="L39" s="21">
-        <v>0</v>
-      </c>
-      <c r="M39" s="21">
-        <v>0</v>
-      </c>
-      <c r="N39" s="21">
-        <v>0</v>
-      </c>
-      <c r="O39" s="21">
-        <v>0</v>
-      </c>
-      <c r="P39" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="27">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-528.07000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="21">
-        <v>0</v>
-      </c>
-      <c r="C40" s="21">
-        <v>0</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0</v>
-      </c>
-      <c r="E40" s="21">
-        <v>0</v>
-      </c>
-      <c r="F40" s="21">
-        <v>0</v>
-      </c>
-      <c r="G40" s="21">
-        <v>0</v>
-      </c>
-      <c r="H40" s="21">
-        <v>0</v>
-      </c>
-      <c r="I40" s="21">
-        <v>0</v>
-      </c>
-      <c r="J40" s="21">
-        <v>0</v>
-      </c>
-      <c r="K40" s="21">
-        <v>0</v>
-      </c>
-      <c r="L40" s="21">
-        <v>0</v>
-      </c>
-      <c r="M40" s="21">
-        <v>0</v>
-      </c>
-      <c r="N40" s="21">
-        <v>0</v>
-      </c>
-      <c r="O40" s="21">
-        <v>0</v>
-      </c>
-      <c r="P40" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="27">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="21">
-        <v>0</v>
-      </c>
-      <c r="C41" s="21">
-        <v>0</v>
-      </c>
-      <c r="D41" s="21">
-        <v>0</v>
-      </c>
-      <c r="E41" s="21">
-        <v>0</v>
-      </c>
-      <c r="F41" s="21">
-        <v>0</v>
-      </c>
-      <c r="G41" s="21">
-        <v>0</v>
-      </c>
-      <c r="H41" s="21">
-        <v>0</v>
-      </c>
-      <c r="I41" s="21">
-        <v>0</v>
-      </c>
-      <c r="J41" s="21">
-        <v>0</v>
-      </c>
-      <c r="K41" s="21">
-        <v>0</v>
-      </c>
-      <c r="L41" s="21">
-        <v>0</v>
-      </c>
-      <c r="M41" s="21">
-        <v>0</v>
-      </c>
-      <c r="N41" s="21">
-        <v>0</v>
-      </c>
-      <c r="O41" s="21">
-        <v>0</v>
-      </c>
-      <c r="P41" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="27">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="22">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="27" cm="1">
+      <c r="A42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="22" cm="1">
         <f t="array" ref="B42">OpeningBalance+SUM(BudgetTable[Nov 2022])</f>
         <v>11059.75</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="22">
         <f>BudgetTable[[#Totals],[Nov 2022]]+SUM(BudgetTable[Dec 2022])</f>
         <v>10442.699999999999</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="22">
         <f>BudgetTable[[#Totals],[Dec 2022]]+SUM(BudgetTable[Jan 2023])</f>
         <v>10516.269999999999</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="22">
         <f>BudgetTable[[#Totals],[Jan 2023]]+SUM(BudgetTable[Feb 2023])</f>
         <v>11967.909999999998</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="22">
         <f>BudgetTable[[#Totals],[Feb 2023]]+SUM(BudgetTable[Mar 2023])</f>
         <v>13419.549999999997</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="22">
         <f>BudgetTable[[#Totals],[Mar 2023]]+SUM(BudgetTable[Apr 2023])</f>
         <v>14871.189999999997</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="22">
         <f>BudgetTable[[#Totals],[Apr 2023]]+SUM(BudgetTable[May 2023])</f>
         <v>16322.829999999996</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="22">
         <f>BudgetTable[[#Totals],[May 2023]]+SUM(BudgetTable[Jun 2023])</f>
         <v>17774.469999999998</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="22">
         <f>BudgetTable[[#Totals],[Jun 2023]]+SUM(BudgetTable[Jul 2023])</f>
         <v>19226.109999999997</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="22">
         <f>BudgetTable[[#Totals],[Jul 2023]]+SUM(BudgetTable[Aug 2023])</f>
         <v>20677.749999999996</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="22">
         <f>BudgetTable[[#Totals],[Aug 2023]]+SUM(BudgetTable[Sep 2023])</f>
         <v>22129.389999999996</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="22">
         <f>BudgetTable[[#Totals],[Sep 2023]]+SUM(BudgetTable[Oct 2023])</f>
         <v>23581.029999999995</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="22">
         <f>BudgetTable[[#Totals],[Oct 2023]]+SUM(BudgetTable[Nov 2023])</f>
         <v>25032.669999999995</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O42" s="22">
         <f>BudgetTable[[#Totals],[Nov 2023]]+SUM(BudgetTable[Dec 2023])</f>
         <v>26484.309999999994</v>
       </c>
-      <c r="P42" s="27">
+      <c r="P42" s="22">
         <f>BudgetTable[[#Totals],[Dec 2023]]+SUM(BudgetTable[Jan 2024])</f>
         <v>27935.949999999993</v>
       </c>
-      <c r="Q42" s="26"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A5:Q20 A26:Q41">
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Bank Register and Budget.xlsx
+++ b/Bank Register and Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\source\repos\excelbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233DA76A-736C-4554-A036-E54ED180F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC47D8-B023-4F54-A3C7-655621E774FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21040" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="28" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="CategoriesList">ActualTable[Category]</definedName>
-    <definedName name="OpeningBalance">RegisterTable[[#Headers],[$10,000.00]]</definedName>
-    <definedName name="RecValueList">#REF!</definedName>
-    <definedName name="RegisterOpeningBalance">Register!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -65,10 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
   <si>
     <t>Adjust</t>
   </si>
@@ -202,9 +196,6 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>$10,000.00</t>
-  </si>
-  <si>
     <t>Joe's Gas</t>
   </si>
   <si>
@@ -273,6 +264,21 @@
   <si>
     <t>Dining Out</t>
   </si>
+  <si>
+    <t>Go team!</t>
+  </si>
+  <si>
+    <t>Monthly Total</t>
+  </si>
+  <si>
+    <t>Running Balance</t>
+  </si>
+  <si>
+    <t>Montly Total</t>
+  </si>
+  <si>
+    <t>Statement Balance</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +290,7 @@
     <numFmt numFmtId="164" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,19 +367,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -447,8 +455,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <top style="double">
+        <color theme="4"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -462,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -492,7 +500,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -521,6 +528,11 @@
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -528,7 +540,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="154">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -552,12 +564,2378 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -570,18 +2948,26 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -597,15 +2983,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -621,15 +3014,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -645,15 +3045,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -669,15 +3076,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -693,15 +3107,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -717,15 +3138,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -741,15 +3169,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -765,15 +3200,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -789,15 +3231,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -813,15 +3262,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -836,15 +3292,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -859,15 +3322,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -882,15 +3352,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -905,15 +3382,22 @@
     </dxf>
     <dxf>
       <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -928,12 +3412,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -992,14 +3470,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
       </font>
@@ -1012,18 +3482,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1033,18 +3491,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1054,18 +3500,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1075,18 +3509,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1096,18 +3518,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1117,18 +3527,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1138,18 +3536,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1159,18 +3545,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1180,18 +3554,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1201,18 +3563,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1222,18 +3572,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1242,18 +3580,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1262,18 +3588,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1282,18 +3596,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1302,18 +3604,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1321,23 +3611,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1456,24 +3729,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}" name="RegisterTable" displayName="RegisterTable" ref="A5:I91" totalsRowShown="0">
-  <autoFilter ref="A5:I91" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I55">
-    <sortCondition ref="B5:B55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}" name="RegisterTable" displayName="RegisterTable" ref="A4:I91" totalsRowShown="0">
+  <autoFilter ref="A4:I91" xr:uid="{0E724A18-196A-490B-AF25-DA7D1E3A9428}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I55">
+    <sortCondition ref="B4:B55"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="81"/>
-    <tableColumn id="1" xr3:uid="{DE810105-8991-4033-85C5-0CB87295F10E}" name="Date" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{1313C629-1859-4679-AB7B-794875C6BDE7}" name="Debit" dataDxfId="79" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{094886E6-6B53-424C-8022-4ECFFBA4718E}" name="Credit" dataDxfId="78" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="153"/>
+    <tableColumn id="1" xr3:uid="{DE810105-8991-4033-85C5-0CB87295F10E}" name="Date" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{1313C629-1859-4679-AB7B-794875C6BDE7}" name="Debit" dataDxfId="151" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{094886E6-6B53-424C-8022-4ECFFBA4718E}" name="Credit" dataDxfId="150" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="149"/>
     <tableColumn id="4" xr3:uid="{C5DFAA3E-F213-4889-9036-A50E91D40F6F}" name="Category"/>
-    <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="75">
+    <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="148"/>
+    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="147">
       <calculatedColumnFormula>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="$10,000.00" dataDxfId="74">
-      <calculatedColumnFormula>OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="Balance" dataDxfId="146">
+      <calculatedColumnFormula>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1481,56 +3754,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A25:Q42" totalsRowCount="1" headerRowDxfId="73">
-  <autoFilter ref="A25:Q41" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A26:Q43" totalsRowCount="1" headerRowDxfId="145">
+  <autoFilter ref="A26:Q42" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Total" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
-      <totalsRowFormula array="1">OpeningBalance+SUM(BudgetTable[Nov 2022])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
-      <totalsRowFormula>BudgetTable[[#Totals],[Nov 2022]]+SUM(BudgetTable[Dec 2022])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
-      <totalsRowFormula>BudgetTable[[#Totals],[Dec 2022]]+SUM(BudgetTable[Jan 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
-      <totalsRowFormula>BudgetTable[[#Totals],[Jan 2023]]+SUM(BudgetTable[Feb 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
-      <totalsRowFormula>BudgetTable[[#Totals],[Feb 2023]]+SUM(BudgetTable[Mar 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
-      <totalsRowFormula>BudgetTable[[#Totals],[Mar 2023]]+SUM(BudgetTable[Apr 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
-      <totalsRowFormula>BudgetTable[[#Totals],[Apr 2023]]+SUM(BudgetTable[May 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
-      <totalsRowFormula>BudgetTable[[#Totals],[May 2023]]+SUM(BudgetTable[Jun 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
-      <totalsRowFormula>BudgetTable[[#Totals],[Jun 2023]]+SUM(BudgetTable[Jul 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
-      <totalsRowFormula>BudgetTable[[#Totals],[Jul 2023]]+SUM(BudgetTable[Aug 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
-      <totalsRowFormula>BudgetTable[[#Totals],[Aug 2023]]+SUM(BudgetTable[Sep 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
-      <totalsRowFormula>BudgetTable[[#Totals],[Sep 2023]]+SUM(BudgetTable[Oct 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
-      <totalsRowFormula>BudgetTable[[#Totals],[Oct 2023]]+SUM(BudgetTable[Nov 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
-      <totalsRowFormula>BudgetTable[[#Totals],[Nov 2023]]+SUM(BudgetTable[Dec 2023])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
-      <totalsRowFormula>BudgetTable[[#Totals],[Dec 2023]]+SUM(BudgetTable[Jan 2024])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Montly Total" dataDxfId="144" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="81"/>
+    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="80"/>
+    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="78"/>
+    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="77">
       <calculatedColumnFormula>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1539,75 +3782,174 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:Q21" totalsRowCount="1" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:Q21" totalsRowCount="1" headerRowDxfId="127">
   <autoFilter ref="A4:Q20" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Monthly Total" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula array="1">OpeningBalance+SUM(ActualTable[Nov 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Nov 2022]]+SUM(ActualTable[Dec 2022])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Dec 2022]]+SUM(ActualTable[Jan 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Jan 2023]]+SUM(ActualTable[Feb 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Feb 2023]]+SUM(ActualTable[Mar 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Mar 2023]]+SUM(ActualTable[Apr 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Apr 2023]]+SUM(ActualTable[May 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[May 2023]]+SUM(ActualTable[Jun 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Jun 2023]]+SUM(ActualTable[Jul 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Jul 2023]]+SUM(ActualTable[Aug 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Aug 2023]]+SUM(ActualTable[Sep 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Sep 2023]]+SUM(ActualTable[Oct 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Oct 2023]]+SUM(ActualTable[Nov 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Nov 2023]]+SUM(ActualTable[Dec 2023])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-      <totalsRowFormula>ActualTable[[#Totals],[Dec 2023]]+SUM(ActualTable[Jan 2024])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" totalsRowFunction="sum" dataDxfId="94">
       <calculatedColumnFormula>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5C736DA-6B88-49D8-A960-CC4A26944980}" name="ActualRunningBalanceTable" displayName="ActualRunningBalanceTable" ref="A22:Q22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57" dataDxfId="58" tableBorderDxfId="76">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{F23BACF8-DA26-414C-96F8-F239251B34A0}" name="Column1" headerRowDxfId="40" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{CB2C2F6C-C726-46F6-987F-13D38048E197}" name="Column2" headerRowDxfId="41" dataDxfId="74">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D204962C-C708-4A31-B693-2F3679069959}" name="Column3" headerRowDxfId="42" dataDxfId="73">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EB3D4E5D-3B95-407C-A714-70B8BCEA2543}" name="Column4" headerRowDxfId="43" dataDxfId="72">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5E3D2F40-5A85-48AF-BE8D-F4CA1DD9FAB0}" name="Column5" headerRowDxfId="44" dataDxfId="71">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{41C6086C-4AC1-49C8-9CAE-9B722F8C5DE6}" name="Column6" headerRowDxfId="45" dataDxfId="70">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{98B739A8-2BB6-4BCB-B6A7-F9DE7448DD0B}" name="Column7" headerRowDxfId="46" dataDxfId="69">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1E1941EB-8DED-46F3-AFAD-423F7B86B829}" name="Column8" headerRowDxfId="47" dataDxfId="68">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5DC5EE24-D5F5-4317-8D44-8A1EE8A62638}" name="Column9" headerRowDxfId="48" dataDxfId="67">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A66E19CB-4AF7-4A87-A0A2-99DAB0031DBA}" name="Column10" headerRowDxfId="49" dataDxfId="66">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{785D40F6-8A87-4B2D-AA95-9F879FAF111F}" name="Column11" headerRowDxfId="50" dataDxfId="65">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{CC724688-AFD3-4BDE-85C3-F8B8FC320CA2}" name="Column12" headerRowDxfId="51" dataDxfId="64">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D473094E-F3A7-44E3-A202-AB635580FEE2}" name="Column13" headerRowDxfId="52" dataDxfId="63">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{7A3025B1-959D-4559-84AF-CEBC4745388E}" name="Column14" headerRowDxfId="53" dataDxfId="62">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{B1DCB620-C302-4535-B92B-318DF4DB2A44}" name="Column15" headerRowDxfId="54" dataDxfId="61">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{BE1D3C65-6130-4DDD-9CEC-92DED9A32FB1}" name="Column16" headerRowDxfId="55" dataDxfId="60">
+      <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{D4F6A915-8205-4968-8736-81371E8F816C}" name="Column17" headerRowDxfId="56" dataDxfId="59">
+      <calculatedColumnFormula>SUM(ActualTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7587E99-5F8A-43FE-B4E1-B1CAD40FFAFF}" name="BudgetRunningBalanceTable" displayName="BudgetRunningBalanceTable" ref="A44:Q44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{15F6C22D-B364-4801-B17D-2E46D088613F}" name="Column1" headerRowDxfId="4" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{1E19EC6F-740B-4C8D-BE78-A598230F7807}" name="Column2" headerRowDxfId="5" dataDxfId="38">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BFADC692-5771-4BA2-9292-D4C74551968E}" name="Column3" headerRowDxfId="6" dataDxfId="37">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{548FD2AA-A32C-4529-A600-D9C54C038E7D}" name="Column4" headerRowDxfId="7" dataDxfId="36">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{AAC561EB-84BE-48EF-B8AF-28EF4E40603D}" name="Column5" headerRowDxfId="8" dataDxfId="35">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7ECBFC53-D9EA-4E38-AD10-95F013AC283B}" name="Column6" headerRowDxfId="9" dataDxfId="34">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6C32F445-59B2-4A61-8295-9D2CED55069F}" name="Column7" headerRowDxfId="10" dataDxfId="33">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5C780453-C5F7-486E-80BB-F07DBD8FEC16}" name="Column8" headerRowDxfId="11" dataDxfId="32">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{AA90F6D1-4BFD-41B3-B8D2-67F5F7CB81F9}" name="Column9" headerRowDxfId="12" dataDxfId="31">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5A9FFB57-AEBB-4EAA-82D0-AD823904ABA2}" name="Column10" headerRowDxfId="13" dataDxfId="30">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{01FA178A-5573-48E5-97CD-4DA22072A4EA}" name="Column11" headerRowDxfId="14" dataDxfId="29">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{7C6C8C43-0896-4A8B-9215-7AF979F41F48}" name="Column12" headerRowDxfId="15" dataDxfId="28">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{DFC6B5C4-FB62-4CA3-9929-0A4370204E93}" name="Column13" headerRowDxfId="16" dataDxfId="27">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{84F16A56-AAAF-4C47-99E0-50F75A5BEB98}" name="Column14" headerRowDxfId="17" dataDxfId="26">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{05192377-12E6-4148-ADE0-697462615E27}" name="Column15" headerRowDxfId="18" dataDxfId="25">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{2EA4ACDD-C710-4F94-A6AD-8015D759315A}" name="Column16" headerRowDxfId="19" dataDxfId="24">
+      <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{29F62938-5D2C-40BE-9004-264F84F57C83}" name="Column17" headerRowDxfId="20" dataDxfId="23">
+      <calculatedColumnFormula>SUM(BudgetTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1934,7 +4276,7 @@
     </row>
     <row r="2" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1951,71 +4293,88 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="G4"/>
-      <c r="I4" s="13" t="s">
-        <v>39</v>
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44866</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
+        <v>8479.26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="13">
+        <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
+        <v>8479.26</v>
+      </c>
+      <c r="I5" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>8479.26</v>
+      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9">
         <v>44866</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>256</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="14">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-256</v>
       </c>
-      <c r="I6" s="18">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>9744</v>
+      <c r="I6" s="17">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>8223.26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9">
         <v>44868</v>
@@ -2025,25 +4384,25 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7"/>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-2500</v>
       </c>
-      <c r="I7" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7244</v>
+      <c r="I7" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5723.26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9">
         <v>44875</v>
@@ -2053,25 +4412,25 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-64.040000000000006</v>
       </c>
-      <c r="I8" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7179.96</v>
+      <c r="I8" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5659.22</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9">
         <v>44880</v>
@@ -2081,25 +4440,25 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-164.55</v>
       </c>
-      <c r="I9" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7015.41</v>
+      <c r="I9" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5494.67</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9">
         <v>44882</v>
@@ -2109,25 +4468,25 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-64.73</v>
       </c>
-      <c r="I10" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6950.68</v>
+      <c r="I10" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5429.9400000000005</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9">
         <v>44884</v>
@@ -2137,27 +4496,27 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="14">
+        <v>56</v>
+      </c>
+      <c r="H11" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-599</v>
       </c>
-      <c r="I11" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6351.68</v>
+      <c r="I11" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>4830.9400000000005</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9">
         <v>44887</v>
@@ -2167,25 +4526,25 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12"/>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-55.9</v>
       </c>
-      <c r="I12" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6295.7800000000007</v>
+      <c r="I12" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>4775.0400000000009</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="9">
         <v>44889</v>
@@ -2195,25 +4554,25 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13"/>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-64.47</v>
       </c>
-      <c r="I13" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>6231.31</v>
+      <c r="I13" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>4710.5700000000006</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9">
         <v>44891</v>
@@ -2223,53 +4582,53 @@
         <v>5000</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14"/>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>5000</v>
       </c>
-      <c r="I14" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11231.310000000001</v>
+      <c r="I14" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9710.57</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9">
         <v>44895</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15"/>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
-        <v>0.7</v>
-      </c>
-      <c r="I15" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11232.010000000002</v>
+        <v>0.53</v>
+      </c>
+      <c r="I15" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9711.1</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9">
         <v>44895</v>
@@ -2279,19 +4638,19 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16"/>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-66.03</v>
       </c>
-      <c r="I16" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11165.980000000001</v>
+      <c r="I16" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9645.07</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -2305,19 +4664,19 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17"/>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-256</v>
       </c>
-      <c r="I17" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10909.980000000001</v>
+      <c r="I17" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9389.07</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -2331,21 +4690,21 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="14">
+        <v>60</v>
+      </c>
+      <c r="H18" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-115.6</v>
       </c>
-      <c r="I18" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10794.380000000001</v>
+      <c r="I18" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9273.4699999999993</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -2359,19 +4718,19 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19"/>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-68.8</v>
       </c>
-      <c r="I19" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10725.580000000002</v>
+      <c r="I19" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9204.67</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2385,19 +4744,19 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-2500</v>
       </c>
-      <c r="I20" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>8225.5800000000017</v>
+      <c r="I20" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6704.67</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -2411,19 +4770,19 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-81.14</v>
       </c>
-      <c r="I21" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>8144.4400000000014</v>
+      <c r="I21" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6623.53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2437,21 +4796,21 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="14">
+        <v>59</v>
+      </c>
+      <c r="H22" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-118</v>
       </c>
-      <c r="I22" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>8026.4400000000014</v>
+      <c r="I22" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6505.53</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -2465,19 +4824,19 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23"/>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-65.06</v>
       </c>
-      <c r="I23" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7961.380000000001</v>
+      <c r="I23" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6440.4699999999993</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -2491,19 +4850,19 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24"/>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-231.09</v>
       </c>
-      <c r="I24" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7730.2900000000009</v>
+      <c r="I24" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6209.3799999999992</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -2517,19 +4876,19 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-14.9</v>
       </c>
-      <c r="I25" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7715.3900000000012</v>
+      <c r="I25" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6194.48</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -2543,19 +4902,19 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26"/>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-57.14</v>
       </c>
-      <c r="I26" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7658.2500000000009</v>
+      <c r="I26" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6137.3399999999992</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -2569,19 +4928,19 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-65.33</v>
       </c>
-      <c r="I27" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7592.920000000001</v>
+      <c r="I27" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6072.0099999999993</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -2595,21 +4954,21 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="14">
+        <v>62</v>
+      </c>
+      <c r="H28" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-111.45</v>
       </c>
-      <c r="I28" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7481.4700000000012</v>
+      <c r="I28" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5960.5599999999995</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -2623,19 +4982,19 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-103</v>
       </c>
-      <c r="I29" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7378.4700000000012</v>
+      <c r="I29" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5857.5599999999995</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -2649,19 +5008,19 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30"/>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-60.27</v>
       </c>
-      <c r="I30" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7318.2000000000007</v>
+      <c r="I30" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5797.2899999999991</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -2675,19 +5034,19 @@
         <v>5000</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31"/>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>5000</v>
       </c>
-      <c r="I31" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>12318.2</v>
+      <c r="I31" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>10797.289999999999</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -2701,19 +5060,19 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-116.51</v>
       </c>
-      <c r="I32" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>12201.69</v>
+      <c r="I32" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>10680.779999999999</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -2727,21 +5086,21 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="14">
+        <v>57</v>
+      </c>
+      <c r="H33" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-499</v>
       </c>
-      <c r="I33" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>11702.69</v>
+      <c r="I33" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>10181.779999999999</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -2755,19 +5114,19 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-1091</v>
       </c>
-      <c r="I34" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10611.69</v>
+      <c r="I34" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9090.7799999999988</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -2781,19 +5140,19 @@
         <v>0.37</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35"/>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0.37</v>
       </c>
-      <c r="I35" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10612.060000000001</v>
+      <c r="I35" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9091.15</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -2807,19 +5166,19 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36"/>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-63.13</v>
       </c>
-      <c r="I36" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10548.930000000002</v>
+      <c r="I36" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>9028.02</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -2833,23 +5192,22 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="14">
+        <v>61</v>
+      </c>
+      <c r="H37" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-106.23</v>
       </c>
-      <c r="I37" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10442.700000000003</v>
-      </c>
-      <c r="J37" s="1"/>
+      <c r="I37" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>8921.7900000000009</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
@@ -2861,19 +5219,21 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" s="14">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-66</v>
       </c>
-      <c r="I38" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>10376.700000000003</v>
+      <c r="I38" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>8855.7900000000009</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2886,19 +5246,19 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39"/>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-2592.86</v>
       </c>
-      <c r="I39" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7783.840000000002</v>
+      <c r="I39" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>6262.93</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2911,21 +5271,21 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="14">
+        <v>58</v>
+      </c>
+      <c r="H40" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-528.07000000000005</v>
       </c>
-      <c r="I40" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7255.7700000000023</v>
+      <c r="I40" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5734.8600000000006</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2938,21 +5298,21 @@
         <v>132</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="14">
+        <v>63</v>
+      </c>
+      <c r="H41" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>132</v>
       </c>
-      <c r="I41" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7387.7700000000023</v>
+      <c r="I41" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5866.8600000000006</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2965,19 +5325,19 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G42"/>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>-7.98</v>
       </c>
-      <c r="I42" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I42" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2987,13 +5347,13 @@
       <c r="D43" s="4"/>
       <c r="E43" s="6"/>
       <c r="G43"/>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I43" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I43" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -3003,13 +5363,13 @@
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="G44"/>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I44" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I44" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -3019,13 +5379,13 @@
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="G45"/>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I45" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I45" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -3035,13 +5395,13 @@
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="G46"/>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I46" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I46" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -3051,13 +5411,13 @@
       <c r="D47" s="4"/>
       <c r="E47" s="6"/>
       <c r="G47"/>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I47" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I47" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -3067,13 +5427,13 @@
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="G48"/>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I48" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I48" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -3083,13 +5443,13 @@
       <c r="D49" s="4"/>
       <c r="E49" s="6"/>
       <c r="G49"/>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I49" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -3099,13 +5459,13 @@
       <c r="D50" s="4"/>
       <c r="E50" s="6"/>
       <c r="G50"/>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I50" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I50" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3115,13 +5475,13 @@
       <c r="D51" s="4"/>
       <c r="E51" s="6"/>
       <c r="G51"/>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I51" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I51" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3131,13 +5491,13 @@
       <c r="D52" s="4"/>
       <c r="E52" s="6"/>
       <c r="G52"/>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I52" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I52" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -3147,13 +5507,13 @@
       <c r="D53" s="4"/>
       <c r="E53" s="6"/>
       <c r="G53"/>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I53" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I53" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -3163,13 +5523,13 @@
       <c r="D54" s="4"/>
       <c r="E54" s="6"/>
       <c r="G54"/>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I54" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I54" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -3179,649 +5539,649 @@
       <c r="D55" s="4"/>
       <c r="E55" s="6"/>
       <c r="G55"/>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I55" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I55" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="6"/>
       <c r="F56" s="10"/>
       <c r="G56"/>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I56" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I56" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="6"/>
       <c r="F57" s="10"/>
       <c r="G57"/>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I57" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I57" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="6"/>
       <c r="F58" s="10"/>
       <c r="G58"/>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I58" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I58" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="6"/>
       <c r="F59" s="10"/>
       <c r="G59"/>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I59" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I59" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="6"/>
       <c r="F60" s="10"/>
       <c r="G60"/>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I60" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I60" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="6"/>
       <c r="F61" s="10"/>
       <c r="G61"/>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I61" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I61" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="6"/>
       <c r="F62" s="10"/>
       <c r="G62"/>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I62" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I62" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="6"/>
       <c r="F63" s="10"/>
       <c r="G63"/>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I63" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I63" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="6"/>
       <c r="F64" s="10"/>
       <c r="G64"/>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I64" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I64" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="6"/>
       <c r="F65" s="10"/>
       <c r="G65"/>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I65" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I65" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="6"/>
       <c r="F66" s="10"/>
       <c r="G66"/>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I66" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I66" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="6"/>
       <c r="F67" s="10"/>
       <c r="G67"/>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I67" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I67" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="6"/>
       <c r="F68" s="10"/>
       <c r="G68"/>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I68" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I68" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="6"/>
       <c r="F69" s="10"/>
       <c r="G69"/>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I69" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I69" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="6"/>
       <c r="F70" s="10"/>
       <c r="G70"/>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I70" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I70" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="6"/>
       <c r="F71" s="10"/>
       <c r="G71"/>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I71" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I71" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="6"/>
       <c r="F72" s="10"/>
       <c r="G72"/>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I72" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I72" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="6"/>
       <c r="F73" s="10"/>
       <c r="G73"/>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I73" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I73" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="6"/>
       <c r="F74" s="10"/>
       <c r="G74"/>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I74" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I74" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="6"/>
       <c r="F75" s="10"/>
       <c r="G75"/>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I75" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I75" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="6"/>
       <c r="F76" s="10"/>
       <c r="G76"/>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I76" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I76" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="6"/>
       <c r="F77" s="10"/>
       <c r="G77"/>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I77" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I77" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="6"/>
       <c r="F78" s="10"/>
       <c r="G78"/>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I78" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I78" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="6"/>
       <c r="F79" s="10"/>
       <c r="G79"/>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I79" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I79" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="6"/>
       <c r="F80" s="10"/>
       <c r="G80"/>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I80" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I80" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="6"/>
       <c r="F81" s="10"/>
       <c r="G81"/>
-      <c r="H81" s="14">
+      <c r="H81" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I81" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I81" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="6"/>
       <c r="F82" s="10"/>
       <c r="G82"/>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I82" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I82" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="6"/>
       <c r="F83" s="10"/>
       <c r="G83"/>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I83" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I83" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="6"/>
       <c r="F84" s="10"/>
       <c r="G84"/>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I84" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I84" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="6"/>
       <c r="F85" s="10"/>
       <c r="G85"/>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I85" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I85" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="6"/>
       <c r="F86" s="10"/>
       <c r="G86"/>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I86" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I86" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="6"/>
       <c r="F87" s="10"/>
       <c r="G87"/>
-      <c r="H87" s="14">
+      <c r="H87" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I87" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I87" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="6"/>
       <c r="F88" s="10"/>
       <c r="G88"/>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I88" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I88" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="6"/>
       <c r="F89" s="10"/>
       <c r="G89"/>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I89" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I89" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="6"/>
       <c r="F90" s="10"/>
       <c r="G90"/>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I90" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I90" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="6"/>
       <c r="F91" s="10"/>
       <c r="G91"/>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
         <v>0</v>
       </c>
-      <c r="I91" s="14">
-        <f ca="1">OFFSET(RegisterTable[[#This Row],[$10,000.00]],-1,)+RegisterTable[[#This Row],[Net]]</f>
-        <v>7379.7900000000027</v>
+      <c r="I91" s="13">
+        <f>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</f>
+        <v>5858.880000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G6:G91 C6:E91">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+  <conditionalFormatting sqref="G5:G91 C5:E91">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 I5:I6">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="I4:I6">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I91">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$A6="Rec"</formula>
+  <conditionalFormatting sqref="A5:I91">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$A5="Rec"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F91" xr:uid="{FACAB7E6-8EDD-409D-8433-6D338E1DB06D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F91" xr:uid="{FACAB7E6-8EDD-409D-8433-6D338E1DB06D}">
       <formula1>CategoriesList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A91" xr:uid="{64AC772F-6EAE-43F2-9693-0D3DC8D52BFE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A91" xr:uid="{64AC772F-6EAE-43F2-9693-0D3DC8D52BFE}">
       <formula1>"Rec,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3835,12 +6195,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE2A7D-2307-4D38-94C2-B579DAA0D29F}">
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:Q44"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3852,7 +6212,7 @@
   <sheetData>
     <row r="2" spans="1:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -3872,2275 +6232,2410 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="22" cm="1">
+      <c r="A5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="21" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>5000</v>
       </c>
-      <c r="C5" s="22" cm="1">
+      <c r="C5" s="21" cm="1">
         <f t="array" ref="C5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>5000</v>
       </c>
-      <c r="D5" s="22" cm="1">
+      <c r="D5" s="21" cm="1">
         <f t="array" ref="D5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="22" cm="1">
+      <c r="E5" s="21" cm="1">
         <f t="array" ref="E5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22" cm="1">
+      <c r="F5" s="21" cm="1">
         <f t="array" ref="F5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="22" cm="1">
+      <c r="G5" s="21" cm="1">
         <f t="array" ref="G5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="22" cm="1">
+      <c r="H5" s="21" cm="1">
         <f t="array" ref="H5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22" cm="1">
+      <c r="I5" s="21" cm="1">
         <f t="array" ref="I5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="22" cm="1">
+      <c r="J5" s="21" cm="1">
         <f t="array" ref="J5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="22" cm="1">
+      <c r="K5" s="21" cm="1">
         <f t="array" ref="K5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="22" cm="1">
+      <c r="L5" s="21" cm="1">
         <f t="array" ref="L5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="22" cm="1">
+      <c r="M5" s="21" cm="1">
         <f t="array" ref="M5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="22" cm="1">
+      <c r="N5" s="21" cm="1">
         <f t="array" ref="N5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="22" cm="1">
+      <c r="O5" s="21" cm="1">
         <f t="array" ref="O5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="22" cm="1">
+      <c r="P5" s="21" cm="1">
         <f t="array" ref="P5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="22" cm="1">
+      <c r="A6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="21" cm="1">
         <f t="array" ref="B6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0.7</v>
-      </c>
-      <c r="C6" s="22" cm="1">
+        <v>0.53</v>
+      </c>
+      <c r="C6" s="21" cm="1">
         <f t="array" ref="C6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0.37</v>
       </c>
-      <c r="D6" s="22" cm="1">
+      <c r="D6" s="21" cm="1">
         <f t="array" ref="D6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="22" cm="1">
+      <c r="E6" s="21" cm="1">
         <f t="array" ref="E6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="22" cm="1">
+      <c r="F6" s="21" cm="1">
         <f t="array" ref="F6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="22" cm="1">
+      <c r="G6" s="21" cm="1">
         <f t="array" ref="G6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="22" cm="1">
+      <c r="H6" s="21" cm="1">
         <f t="array" ref="H6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="22" cm="1">
+      <c r="I6" s="21" cm="1">
         <f t="array" ref="I6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="22" cm="1">
+      <c r="J6" s="21" cm="1">
         <f t="array" ref="J6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="22" cm="1">
+      <c r="K6" s="21" cm="1">
         <f t="array" ref="K6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="22" cm="1">
+      <c r="L6" s="21" cm="1">
         <f t="array" ref="L6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="22" cm="1">
+      <c r="M6" s="21" cm="1">
         <f t="array" ref="M6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="22" cm="1">
+      <c r="N6" s="21" cm="1">
         <f t="array" ref="N6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="22" cm="1">
+      <c r="O6" s="21" cm="1">
         <f t="array" ref="O6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P6" s="22" cm="1">
+      <c r="P6" s="21" cm="1">
         <f t="array" ref="P6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>1.0699999999999998</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="22" cm="1">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21" cm="1">
         <f t="array" ref="B7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="22" cm="1">
+      <c r="C7" s="21" cm="1">
         <f t="array" ref="C7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="22" cm="1">
+      <c r="D7" s="21" cm="1">
         <f t="array" ref="D7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>132</v>
       </c>
-      <c r="E7" s="22" cm="1">
+      <c r="E7" s="21" cm="1">
         <f t="array" ref="E7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="22" cm="1">
+      <c r="F7" s="21" cm="1">
         <f t="array" ref="F7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="22" cm="1">
+      <c r="G7" s="21" cm="1">
         <f t="array" ref="G7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="22" cm="1">
+      <c r="H7" s="21" cm="1">
         <f t="array" ref="H7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="22" cm="1">
+      <c r="I7" s="21" cm="1">
         <f t="array" ref="I7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="22" cm="1">
+      <c r="J7" s="21" cm="1">
         <f t="array" ref="J7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="22" cm="1">
+      <c r="K7" s="21" cm="1">
         <f t="array" ref="K7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="22" cm="1">
+      <c r="L7" s="21" cm="1">
         <f t="array" ref="L7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="22" cm="1">
+      <c r="M7" s="21" cm="1">
         <f t="array" ref="M7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="22" cm="1">
+      <c r="N7" s="21" cm="1">
         <f t="array" ref="N7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="22" cm="1">
+      <c r="O7" s="21" cm="1">
         <f t="array" ref="O7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="22" cm="1">
+      <c r="P7" s="21" cm="1">
         <f t="array" ref="P7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="22" cm="1">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="21" cm="1">
         <f t="array" ref="B8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2500</v>
       </c>
-      <c r="C8" s="22" cm="1">
+      <c r="C8" s="21" cm="1">
         <f t="array" ref="C8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2500</v>
       </c>
-      <c r="D8" s="22" cm="1">
+      <c r="D8" s="21" cm="1">
         <f t="array" ref="D8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-2592.86</v>
       </c>
-      <c r="E8" s="22" cm="1">
+      <c r="E8" s="21" cm="1">
         <f t="array" ref="E8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="22" cm="1">
+      <c r="F8" s="21" cm="1">
         <f t="array" ref="F8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="22" cm="1">
+      <c r="G8" s="21" cm="1">
         <f t="array" ref="G8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="22" cm="1">
+      <c r="H8" s="21" cm="1">
         <f t="array" ref="H8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="22" cm="1">
+      <c r="I8" s="21" cm="1">
         <f t="array" ref="I8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="22" cm="1">
+      <c r="J8" s="21" cm="1">
         <f t="array" ref="J8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="22" cm="1">
+      <c r="K8" s="21" cm="1">
         <f t="array" ref="K8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="22" cm="1">
+      <c r="L8" s="21" cm="1">
         <f t="array" ref="L8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="22" cm="1">
+      <c r="M8" s="21" cm="1">
         <f t="array" ref="M8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="22" cm="1">
+      <c r="N8" s="21" cm="1">
         <f t="array" ref="N8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="22" cm="1">
+      <c r="O8" s="21" cm="1">
         <f t="array" ref="O8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="22" cm="1">
+      <c r="P8" s="21" cm="1">
         <f t="array" ref="P8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-7592.8600000000006</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="22" cm="1">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="21" cm="1">
         <f t="array" ref="B9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-164.55</v>
       </c>
-      <c r="C9" s="22" cm="1">
+      <c r="C9" s="21" cm="1">
         <f t="array" ref="C9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-231.09</v>
       </c>
-      <c r="D9" s="22" cm="1">
+      <c r="D9" s="21" cm="1">
         <f t="array" ref="D9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="22" cm="1">
+      <c r="E9" s="21" cm="1">
         <f t="array" ref="E9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="22" cm="1">
+      <c r="F9" s="21" cm="1">
         <f t="array" ref="F9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="22" cm="1">
+      <c r="G9" s="21" cm="1">
         <f t="array" ref="G9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="22" cm="1">
+      <c r="H9" s="21" cm="1">
         <f t="array" ref="H9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="22" cm="1">
+      <c r="I9" s="21" cm="1">
         <f t="array" ref="I9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="22" cm="1">
+      <c r="J9" s="21" cm="1">
         <f t="array" ref="J9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="22" cm="1">
+      <c r="K9" s="21" cm="1">
         <f t="array" ref="K9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="22" cm="1">
+      <c r="L9" s="21" cm="1">
         <f t="array" ref="L9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="22" cm="1">
+      <c r="M9" s="21" cm="1">
         <f t="array" ref="M9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="22" cm="1">
+      <c r="N9" s="21" cm="1">
         <f t="array" ref="N9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="22" cm="1">
+      <c r="O9" s="21" cm="1">
         <f t="array" ref="O9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P9" s="22" cm="1">
+      <c r="P9" s="21" cm="1">
         <f t="array" ref="P9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-395.64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="23" cm="1">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="22" cm="1">
         <f t="array" ref="B10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-121.93</v>
       </c>
-      <c r="C10" s="23" cm="1">
+      <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-277.88</v>
       </c>
-      <c r="D10" s="23" cm="1">
+      <c r="D10" s="22" cm="1">
         <f t="array" ref="D10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="23" cm="1">
+      <c r="E10" s="22" cm="1">
         <f t="array" ref="E10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="23" cm="1">
+      <c r="F10" s="22" cm="1">
         <f t="array" ref="F10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="23" cm="1">
+      <c r="G10" s="22" cm="1">
         <f t="array" ref="G10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23" cm="1">
+      <c r="H10" s="22" cm="1">
         <f t="array" ref="H10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="23" cm="1">
+      <c r="I10" s="22" cm="1">
         <f t="array" ref="I10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J10" s="23" cm="1">
+      <c r="J10" s="22" cm="1">
         <f t="array" ref="J10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="23" cm="1">
+      <c r="K10" s="22" cm="1">
         <f t="array" ref="K10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23" cm="1">
+      <c r="L10" s="22" cm="1">
         <f t="array" ref="L10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="23" cm="1">
+      <c r="M10" s="22" cm="1">
         <f t="array" ref="M10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="23" cm="1">
+      <c r="N10" s="22" cm="1">
         <f t="array" ref="N10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O10" s="23" cm="1">
+      <c r="O10" s="22" cm="1">
         <f t="array" ref="O10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P10" s="23" cm="1">
+      <c r="P10" s="22" cm="1">
         <f t="array" ref="P10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-399.81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="22" cm="1">
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="21" cm="1">
         <f t="array" ref="B11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="22" cm="1">
+      <c r="C11" s="21" cm="1">
         <f t="array" ref="C11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-209.23000000000002</v>
       </c>
-      <c r="D11" s="22" cm="1">
+      <c r="D11" s="21" cm="1">
         <f t="array" ref="D11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="22" cm="1">
+      <c r="E11" s="21" cm="1">
         <f t="array" ref="E11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="22" cm="1">
+      <c r="F11" s="21" cm="1">
         <f t="array" ref="F11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="22" cm="1">
+      <c r="G11" s="21" cm="1">
         <f t="array" ref="G11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="22" cm="1">
+      <c r="H11" s="21" cm="1">
         <f t="array" ref="H11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="22" cm="1">
+      <c r="I11" s="21" cm="1">
         <f t="array" ref="I11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="22" cm="1">
+      <c r="J11" s="21" cm="1">
         <f t="array" ref="J11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="22" cm="1">
+      <c r="K11" s="21" cm="1">
         <f t="array" ref="K11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="22" cm="1">
+      <c r="L11" s="21" cm="1">
         <f t="array" ref="L11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="22" cm="1">
+      <c r="M11" s="21" cm="1">
         <f t="array" ref="M11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="22" cm="1">
+      <c r="N11" s="21" cm="1">
         <f t="array" ref="N11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="22" cm="1">
+      <c r="O11" s="21" cm="1">
         <f t="array" ref="O11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="22" cm="1">
+      <c r="P11" s="21" cm="1">
         <f t="array" ref="P11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-209.23000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="22" cm="1">
+      <c r="A12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="21" cm="1">
         <f t="array" ref="B12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C12" s="22" cm="1">
+      <c r="C12" s="21" cm="1">
         <f t="array" ref="C12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="22" cm="1">
+      <c r="D12" s="21" cm="1">
         <f t="array" ref="D12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-7.98</v>
       </c>
-      <c r="E12" s="22" cm="1">
+      <c r="E12" s="21" cm="1">
         <f t="array" ref="E12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="22" cm="1">
+      <c r="F12" s="21" cm="1">
         <f t="array" ref="F12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="22" cm="1">
+      <c r="G12" s="21" cm="1">
         <f t="array" ref="G12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="22" cm="1">
+      <c r="H12" s="21" cm="1">
         <f t="array" ref="H12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="22" cm="1">
+      <c r="I12" s="21" cm="1">
         <f t="array" ref="I12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="22" cm="1">
+      <c r="J12" s="21" cm="1">
         <f t="array" ref="J12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22" cm="1">
+      <c r="K12" s="21" cm="1">
         <f t="array" ref="K12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="22" cm="1">
+      <c r="L12" s="21" cm="1">
         <f t="array" ref="L12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="22" cm="1">
+      <c r="M12" s="21" cm="1">
         <f t="array" ref="M12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="22" cm="1">
+      <c r="N12" s="21" cm="1">
         <f t="array" ref="N12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="22" cm="1">
+      <c r="O12" s="21" cm="1">
         <f t="array" ref="O12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P12" s="22" cm="1">
+      <c r="P12" s="21" cm="1">
         <f t="array" ref="P12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-7.98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="22" cm="1">
+      <c r="A13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21" cm="1">
         <f t="array" ref="B13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-256</v>
       </c>
-      <c r="C13" s="22" cm="1">
+      <c r="C13" s="21" cm="1">
         <f t="array" ref="C13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-256</v>
       </c>
-      <c r="D13" s="22" cm="1">
+      <c r="D13" s="21" cm="1">
         <f t="array" ref="D13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="22" cm="1">
+      <c r="E13" s="21" cm="1">
         <f t="array" ref="E13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="22" cm="1">
+      <c r="F13" s="21" cm="1">
         <f t="array" ref="F13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="22" cm="1">
+      <c r="G13" s="21" cm="1">
         <f t="array" ref="G13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="22" cm="1">
+      <c r="H13" s="21" cm="1">
         <f t="array" ref="H13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="22" cm="1">
+      <c r="I13" s="21" cm="1">
         <f t="array" ref="I13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J13" s="22" cm="1">
+      <c r="J13" s="21" cm="1">
         <f t="array" ref="J13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="22" cm="1">
+      <c r="K13" s="21" cm="1">
         <f t="array" ref="K13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L13" s="22" cm="1">
+      <c r="L13" s="21" cm="1">
         <f t="array" ref="L13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="22" cm="1">
+      <c r="M13" s="21" cm="1">
         <f t="array" ref="M13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="22" cm="1">
+      <c r="N13" s="21" cm="1">
         <f t="array" ref="N13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="22" cm="1">
+      <c r="O13" s="21" cm="1">
         <f t="array" ref="O13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P13" s="22" cm="1">
+      <c r="P13" s="21" cm="1">
         <f t="array" ref="P13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-512</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="22" cm="1">
+      <c r="A14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21" cm="1">
         <f t="array" ref="B14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-193.24</v>
       </c>
-      <c r="C14" s="22" cm="1">
+      <c r="C14" s="21" cm="1">
         <f t="array" ref="C14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-314.40000000000003</v>
       </c>
-      <c r="D14" s="22" cm="1">
+      <c r="D14" s="21" cm="1">
         <f t="array" ref="D14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="22" cm="1">
+      <c r="E14" s="21" cm="1">
         <f t="array" ref="E14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="22" cm="1">
+      <c r="F14" s="21" cm="1">
         <f t="array" ref="F14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="22" cm="1">
+      <c r="G14" s="21" cm="1">
         <f t="array" ref="G14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="22" cm="1">
+      <c r="H14" s="21" cm="1">
         <f t="array" ref="H14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="22" cm="1">
+      <c r="I14" s="21" cm="1">
         <f t="array" ref="I14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="22" cm="1">
+      <c r="J14" s="21" cm="1">
         <f t="array" ref="J14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="22" cm="1">
+      <c r="K14" s="21" cm="1">
         <f t="array" ref="K14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="22" cm="1">
+      <c r="L14" s="21" cm="1">
         <f t="array" ref="L14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="22" cm="1">
+      <c r="M14" s="21" cm="1">
         <f t="array" ref="M14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="22" cm="1">
+      <c r="N14" s="21" cm="1">
         <f t="array" ref="N14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="22" cm="1">
+      <c r="O14" s="21" cm="1">
         <f t="array" ref="O14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P14" s="22" cm="1">
+      <c r="P14" s="21" cm="1">
         <f t="array" ref="P14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-507.64000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="22" cm="1">
+      <c r="A15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="21" cm="1">
         <f t="array" ref="B15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="22" cm="1">
+      <c r="C15" s="21" cm="1">
         <f t="array" ref="C15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-617</v>
       </c>
-      <c r="D15" s="22" cm="1">
+      <c r="D15" s="21" cm="1">
         <f t="array" ref="D15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="22" cm="1">
+      <c r="E15" s="21" cm="1">
         <f t="array" ref="E15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="22" cm="1">
+      <c r="F15" s="21" cm="1">
         <f t="array" ref="F15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="22" cm="1">
+      <c r="G15" s="21" cm="1">
         <f t="array" ref="G15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="22" cm="1">
+      <c r="H15" s="21" cm="1">
         <f t="array" ref="H15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="22" cm="1">
+      <c r="I15" s="21" cm="1">
         <f t="array" ref="I15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="22" cm="1">
+      <c r="J15" s="21" cm="1">
         <f t="array" ref="J15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22" cm="1">
+      <c r="K15" s="21" cm="1">
         <f t="array" ref="K15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L15" s="22" cm="1">
+      <c r="L15" s="21" cm="1">
         <f t="array" ref="L15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="22" cm="1">
+      <c r="M15" s="21" cm="1">
         <f t="array" ref="M15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="22" cm="1">
+      <c r="N15" s="21" cm="1">
         <f t="array" ref="N15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="22" cm="1">
+      <c r="O15" s="21" cm="1">
         <f t="array" ref="O15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="22" cm="1">
+      <c r="P15" s="21" cm="1">
         <f t="array" ref="P15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-617</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="22" cm="1">
+      <c r="A16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="21" cm="1">
         <f t="array" ref="B16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-599</v>
       </c>
-      <c r="C16" s="22" cm="1">
+      <c r="C16" s="21" cm="1">
         <f t="array" ref="C16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-1206.5999999999999</v>
       </c>
-      <c r="D16" s="22" cm="1">
+      <c r="D16" s="21" cm="1">
         <f t="array" ref="D16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="22" cm="1">
+      <c r="E16" s="21" cm="1">
         <f t="array" ref="E16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="22" cm="1">
+      <c r="F16" s="21" cm="1">
         <f t="array" ref="F16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="22" cm="1">
+      <c r="G16" s="21" cm="1">
         <f t="array" ref="G16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="22" cm="1">
+      <c r="H16" s="21" cm="1">
         <f t="array" ref="H16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="22" cm="1">
+      <c r="I16" s="21" cm="1">
         <f t="array" ref="I16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="22" cm="1">
+      <c r="J16" s="21" cm="1">
         <f t="array" ref="J16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="22" cm="1">
+      <c r="K16" s="21" cm="1">
         <f t="array" ref="K16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="22" cm="1">
+      <c r="L16" s="21" cm="1">
         <f t="array" ref="L16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="22" cm="1">
+      <c r="M16" s="21" cm="1">
         <f t="array" ref="M16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="22" cm="1">
+      <c r="N16" s="21" cm="1">
         <f t="array" ref="N16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="22" cm="1">
+      <c r="O16" s="21" cm="1">
         <f t="array" ref="O16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P16" s="22" cm="1">
+      <c r="P16" s="21" cm="1">
         <f t="array" ref="P16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1805.6</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="22" cm="1">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="21" cm="1">
         <f t="array" ref="B17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C17" s="22" cm="1">
+      <c r="C17" s="21" cm="1">
         <f t="array" ref="C17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-111.45</v>
       </c>
-      <c r="D17" s="22" cm="1">
+      <c r="D17" s="21" cm="1">
         <f t="array" ref="D17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="22" cm="1">
+      <c r="E17" s="21" cm="1">
         <f t="array" ref="E17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="22" cm="1">
+      <c r="F17" s="21" cm="1">
         <f t="array" ref="F17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="22" cm="1">
+      <c r="G17" s="21" cm="1">
         <f t="array" ref="G17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="22" cm="1">
+      <c r="H17" s="21" cm="1">
         <f t="array" ref="H17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="22" cm="1">
+      <c r="I17" s="21" cm="1">
         <f t="array" ref="I17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="22" cm="1">
+      <c r="J17" s="21" cm="1">
         <f t="array" ref="J17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="22" cm="1">
+      <c r="K17" s="21" cm="1">
         <f t="array" ref="K17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L17" s="22" cm="1">
+      <c r="L17" s="21" cm="1">
         <f t="array" ref="L17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="22" cm="1">
+      <c r="M17" s="21" cm="1">
         <f t="array" ref="M17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="22" cm="1">
+      <c r="N17" s="21" cm="1">
         <f t="array" ref="N17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="22" cm="1">
+      <c r="O17" s="21" cm="1">
         <f t="array" ref="O17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P17" s="22" cm="1">
+      <c r="P17" s="21" cm="1">
         <f t="array" ref="P17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-111.45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="22" cm="1">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="21" cm="1">
         <f t="array" ref="B18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C18" s="22" cm="1">
+      <c r="C18" s="21" cm="1">
         <f t="array" ref="C18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="22" cm="1">
+      <c r="D18" s="21" cm="1">
         <f t="array" ref="D18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-528.07000000000005</v>
       </c>
-      <c r="E18" s="22" cm="1">
+      <c r="E18" s="21" cm="1">
         <f t="array" ref="E18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22" cm="1">
+      <c r="F18" s="21" cm="1">
         <f t="array" ref="F18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="22" cm="1">
+      <c r="G18" s="21" cm="1">
         <f t="array" ref="G18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="22" cm="1">
+      <c r="H18" s="21" cm="1">
         <f t="array" ref="H18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="22" cm="1">
+      <c r="I18" s="21" cm="1">
         <f t="array" ref="I18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J18" s="22" cm="1">
+      <c r="J18" s="21" cm="1">
         <f t="array" ref="J18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22" cm="1">
+      <c r="K18" s="21" cm="1">
         <f t="array" ref="K18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22" cm="1">
+      <c r="L18" s="21" cm="1">
         <f t="array" ref="L18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="22" cm="1">
+      <c r="M18" s="21" cm="1">
         <f t="array" ref="M18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="22" cm="1">
+      <c r="N18" s="21" cm="1">
         <f t="array" ref="N18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O18" s="22" cm="1">
+      <c r="O18" s="21" cm="1">
         <f t="array" ref="O18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P18" s="22" cm="1">
+      <c r="P18" s="21" cm="1">
         <f t="array" ref="P18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-528.07000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22" cm="1">
+      <c r="A19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21" cm="1">
         <f t="array" ref="B19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="22" cm="1">
+      <c r="C19" s="21" cm="1">
         <f t="array" ref="C19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="22" cm="1">
+      <c r="D19" s="21" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>-66</v>
       </c>
-      <c r="E19" s="22" cm="1">
+      <c r="E19" s="21" cm="1">
         <f t="array" ref="E19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="22" cm="1">
+      <c r="F19" s="21" cm="1">
         <f t="array" ref="F19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="22" cm="1">
+      <c r="G19" s="21" cm="1">
         <f t="array" ref="G19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="22" cm="1">
+      <c r="H19" s="21" cm="1">
         <f t="array" ref="H19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="22" cm="1">
+      <c r="I19" s="21" cm="1">
         <f t="array" ref="I19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="22" cm="1">
+      <c r="J19" s="21" cm="1">
         <f t="array" ref="J19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="22" cm="1">
+      <c r="K19" s="21" cm="1">
         <f t="array" ref="K19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L19" s="22" cm="1">
+      <c r="L19" s="21" cm="1">
         <f t="array" ref="L19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="22" cm="1">
+      <c r="M19" s="21" cm="1">
         <f t="array" ref="M19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="22" cm="1">
+      <c r="N19" s="21" cm="1">
         <f t="array" ref="N19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="22" cm="1">
+      <c r="O19" s="21" cm="1">
         <f t="array" ref="O19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="22" cm="1">
+      <c r="P19" s="21" cm="1">
         <f t="array" ref="P19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="21">
         <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="21" cm="1">
+        <f t="array" ref="B20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="21" cm="1">
+        <f t="array" ref="C20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="21" cm="1">
+        <f t="array" ref="D20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="21" cm="1">
+        <f t="array" ref="E20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21" cm="1">
+        <f t="array" ref="F20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21" cm="1">
+        <f t="array" ref="G20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="21" cm="1">
+        <f t="array" ref="H20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="21" cm="1">
+        <f t="array" ref="I20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" cm="1">
+        <f t="array" ref="J20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21" cm="1">
+        <f t="array" ref="K20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="21" cm="1">
+        <f t="array" ref="L20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21" cm="1">
+        <f t="array" ref="M20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="21" cm="1">
+        <f t="array" ref="N20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="21" cm="1">
+        <f t="array" ref="O20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="21" cm="1">
+        <f t="array" ref="P20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Nov 2022])</f>
+        <v>1165.8099999999997</v>
+      </c>
+      <c r="C21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Dec 2022])</f>
+        <v>-723.28000000000043</v>
+      </c>
+      <c r="D21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Jan 2023])</f>
+        <v>-3062.9100000000003</v>
+      </c>
+      <c r="E21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Feb 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Mar 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Apr 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <f>SUBTOTAL(109,ActualTable[May 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Jun 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Jul 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Aug 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Sep 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Oct 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Nov 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Dec 2023])</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <f>SUBTOTAL(109,ActualTable[Jan 2024])</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>SUBTOTAL(109,ActualTable[Totals])</f>
+        <v>-2620.380000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>9645.07</v>
+      </c>
+      <c r="C22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>8921.7899999999991</v>
+      </c>
+      <c r="D22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="E22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="F22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="G22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="H22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="I22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="J22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="K22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="L22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="M22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="N22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="O22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="P22" s="23">
+        <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+      <c r="Q22" s="25">
+        <f>SUM(ActualTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>5858.8799999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="22" cm="1">
-        <f t="array" ref="B20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="22" cm="1">
-        <f t="array" ref="C20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="22" cm="1">
-        <f t="array" ref="D20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="22" cm="1">
-        <f t="array" ref="E20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="22" cm="1">
-        <f t="array" ref="F20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="22" cm="1">
-        <f t="array" ref="G20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22" cm="1">
-        <f t="array" ref="H20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="22" cm="1">
-        <f t="array" ref="I20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="22" cm="1">
-        <f t="array" ref="J20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="22" cm="1">
-        <f t="array" ref="K20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="22" cm="1">
-        <f t="array" ref="L20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="22" cm="1">
-        <f t="array" ref="M20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="22" cm="1">
-        <f t="array" ref="N20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="22" cm="1">
-        <f t="array" ref="O20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="22" cm="1">
-        <f t="array" ref="P20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="22" cm="1">
-        <f t="array" ref="B21">OpeningBalance+SUM(ActualTable[Nov 2022])</f>
-        <v>11165.98</v>
-      </c>
-      <c r="C21" s="22">
-        <f>ActualTable[[#Totals],[Nov 2022]]+SUM(ActualTable[Dec 2022])</f>
-        <v>10442.699999999999</v>
-      </c>
-      <c r="D21" s="22">
-        <f>ActualTable[[#Totals],[Dec 2022]]+SUM(ActualTable[Jan 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="E21" s="22">
-        <f>ActualTable[[#Totals],[Jan 2023]]+SUM(ActualTable[Feb 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="F21" s="22">
-        <f>ActualTable[[#Totals],[Feb 2023]]+SUM(ActualTable[Mar 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="G21" s="22">
-        <f>ActualTable[[#Totals],[Mar 2023]]+SUM(ActualTable[Apr 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="H21" s="22">
-        <f>ActualTable[[#Totals],[Apr 2023]]+SUM(ActualTable[May 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="I21" s="22">
-        <f>ActualTable[[#Totals],[May 2023]]+SUM(ActualTable[Jun 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="J21" s="22">
-        <f>ActualTable[[#Totals],[Jun 2023]]+SUM(ActualTable[Jul 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="K21" s="22">
-        <f>ActualTable[[#Totals],[Jul 2023]]+SUM(ActualTable[Aug 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="L21" s="22">
-        <f>ActualTable[[#Totals],[Aug 2023]]+SUM(ActualTable[Sep 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="M21" s="22">
-        <f>ActualTable[[#Totals],[Sep 2023]]+SUM(ActualTable[Oct 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="N21" s="22">
-        <f>ActualTable[[#Totals],[Oct 2023]]+SUM(ActualTable[Nov 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="O21" s="22">
-        <f>ActualTable[[#Totals],[Nov 2023]]+SUM(ActualTable[Dec 2023])</f>
-        <v>7379.7899999999991</v>
-      </c>
-      <c r="P21" s="22">
-        <f>ActualTable[[#Totals],[Dec 2023]]+SUM(ActualTable[Jan 2024])</f>
-        <v>7379.7899999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="O26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="P26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4">
         <v>5000</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>5000</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>5250</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>5250</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>5250</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>5250</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>5250</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="4">
         <v>5250</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J27" s="4">
         <v>5250</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K27" s="4">
         <v>5250</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L27" s="4">
         <v>5250</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M27" s="4">
         <v>5250</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N27" s="4">
         <v>5250</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O27" s="4">
         <v>5250</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P27" s="4">
         <v>5250</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q27" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>78250</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
         <v>0.7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>0.37</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>0.5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>0.5</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>0.5</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>0.5</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>0.5</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <v>0.5</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L28" s="1">
         <v>0.5</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M28" s="1">
         <v>0.5</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N28" s="1">
         <v>0.5</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O28" s="1">
         <v>0.5</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P28" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q28" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>7.57</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="22">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4">
         <v>-2500</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>-2500</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P30" s="1">
         <v>-2592.86</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q30" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-38707.180000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
         <v>-164.55</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>-231.09</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>-200</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>-200</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>-200</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>-200</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>-200</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <v>-200</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31" s="1">
         <v>-200</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K31" s="1">
         <v>-200</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L31" s="1">
         <v>-200</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M31" s="1">
         <v>-200</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N31" s="1">
         <v>-200</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O31" s="1">
         <v>-200</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P31" s="1">
         <v>-200</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q31" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-2995.64</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
         <v>-121.93</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>-277.88</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>-250</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>-250</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>-250</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
         <v>-250</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="1">
         <v>-250</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>-250</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>-250</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="1">
         <v>-250</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L32" s="1">
         <v>-250</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M32" s="1">
         <v>-250</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N32" s="1">
         <v>-250</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O32" s="1">
         <v>-250</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P32" s="1">
         <v>-250</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q32" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-3649.81</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
         <v>-106.23</v>
       </c>
-      <c r="C32" s="1">
-        <v>-103</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C33" s="1">
+        <v>-209.23000000000002</v>
+      </c>
+      <c r="D33" s="1">
         <v>-110</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>-110</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>-110</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>-110</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>-110</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>-110</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>-110</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <v>-110</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <v>-110</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M33" s="1">
         <v>-110</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N33" s="1">
         <v>-110</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O33" s="1">
         <v>-110</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P33" s="1">
         <v>-110</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q33" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-1639.23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
+        <v>-1745.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
         <v>-256</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>-256</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <v>-256</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>-256</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>-256</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <v>-256</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H35" s="1">
         <v>-256</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I35" s="1">
         <v>-256</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J35" s="1">
         <v>-256</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K35" s="1">
         <v>-256</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L35" s="1">
         <v>-256</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M35" s="1">
         <v>-256</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N35" s="1">
         <v>-256</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O35" s="1">
         <v>-256</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P35" s="1">
         <v>-256</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q35" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-3840</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
         <v>-193.24</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>-314.40000000000003</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>-300</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>-300</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F36" s="1">
         <v>-300</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G36" s="1">
         <v>-300</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H36" s="1">
         <v>-300</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I36" s="1">
         <v>-300</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J36" s="1">
         <v>-300</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K36" s="1">
         <v>-300</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L36" s="1">
         <v>-300</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M36" s="1">
         <v>-300</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N36" s="1">
         <v>-300</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O36" s="1">
         <v>-300</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P36" s="1">
         <v>-300</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q36" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-4407.6400000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
         <v>-617</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>-850</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1467</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
         <v>-599</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>-1206.5999999999999</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="22">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1805.6</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
         <v>-111.45</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>-90</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>-90</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F39" s="4">
         <v>-90</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="4">
         <v>-90</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H39" s="4">
         <v>-90</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I39" s="4">
         <v>-90</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J39" s="4">
         <v>-90</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K39" s="4">
         <v>-90</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L39" s="4">
         <v>-90</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M39" s="4">
         <v>-90</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N39" s="4">
         <v>-90</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O39" s="4">
         <v>-90</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P39" s="4">
         <v>-90</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q39" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-1281.45</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
         <v>-528.07000000000005</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="22">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>-528.07000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="22">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="22">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="21">
         <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="22" cm="1">
-        <f t="array" ref="B42">OpeningBalance+SUM(BudgetTable[Nov 2022])</f>
-        <v>11059.75</v>
-      </c>
-      <c r="C42" s="22">
-        <f>BudgetTable[[#Totals],[Nov 2022]]+SUM(BudgetTable[Dec 2022])</f>
-        <v>10442.699999999999</v>
-      </c>
-      <c r="D42" s="22">
-        <f>BudgetTable[[#Totals],[Dec 2022]]+SUM(BudgetTable[Jan 2023])</f>
-        <v>10516.269999999999</v>
-      </c>
-      <c r="E42" s="22">
-        <f>BudgetTable[[#Totals],[Jan 2023]]+SUM(BudgetTable[Feb 2023])</f>
-        <v>11967.909999999998</v>
-      </c>
-      <c r="F42" s="22">
-        <f>BudgetTable[[#Totals],[Feb 2023]]+SUM(BudgetTable[Mar 2023])</f>
-        <v>13419.549999999997</v>
-      </c>
-      <c r="G42" s="22">
-        <f>BudgetTable[[#Totals],[Mar 2023]]+SUM(BudgetTable[Apr 2023])</f>
-        <v>14871.189999999997</v>
-      </c>
-      <c r="H42" s="22">
-        <f>BudgetTable[[#Totals],[Apr 2023]]+SUM(BudgetTable[May 2023])</f>
-        <v>16322.829999999996</v>
-      </c>
-      <c r="I42" s="22">
-        <f>BudgetTable[[#Totals],[May 2023]]+SUM(BudgetTable[Jun 2023])</f>
-        <v>17774.469999999998</v>
-      </c>
-      <c r="J42" s="22">
-        <f>BudgetTable[[#Totals],[Jun 2023]]+SUM(BudgetTable[Jul 2023])</f>
-        <v>19226.109999999997</v>
-      </c>
-      <c r="K42" s="22">
-        <f>BudgetTable[[#Totals],[Jul 2023]]+SUM(BudgetTable[Aug 2023])</f>
-        <v>20677.749999999996</v>
-      </c>
-      <c r="L42" s="22">
-        <f>BudgetTable[[#Totals],[Aug 2023]]+SUM(BudgetTable[Sep 2023])</f>
-        <v>22129.389999999996</v>
-      </c>
-      <c r="M42" s="22">
-        <f>BudgetTable[[#Totals],[Sep 2023]]+SUM(BudgetTable[Oct 2023])</f>
-        <v>23581.029999999995</v>
-      </c>
-      <c r="N42" s="22">
-        <f>BudgetTable[[#Totals],[Oct 2023]]+SUM(BudgetTable[Nov 2023])</f>
-        <v>25032.669999999995</v>
-      </c>
-      <c r="O42" s="22">
-        <f>BudgetTable[[#Totals],[Nov 2023]]+SUM(BudgetTable[Dec 2023])</f>
-        <v>26484.309999999994</v>
-      </c>
-      <c r="P42" s="22">
-        <f>BudgetTable[[#Totals],[Dec 2023]]+SUM(BudgetTable[Jan 2024])</f>
-        <v>27935.949999999993</v>
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Nov 2022])</f>
+        <v>1059.7499999999998</v>
+      </c>
+      <c r="C43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Dec 2022])</f>
+        <v>-723.28000000000043</v>
+      </c>
+      <c r="D43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Jan 2023])</f>
+        <v>73.569999999999823</v>
+      </c>
+      <c r="E43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Feb 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="F43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Mar 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="G43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Apr 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="H43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[May 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="I43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Jun 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="J43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Jul 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="K43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Aug 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="L43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Sep 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="M43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Oct 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="N43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Nov 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="O43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Dec 2023])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="P43" s="21">
+        <f>SUBTOTAL(109,BudgetTable[Jan 2024])</f>
+        <v>1451.6399999999999</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>SUBTOTAL(109,BudgetTable[Totals])</f>
+        <v>17829.720000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>9539.01</v>
+      </c>
+      <c r="C44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>8815.73</v>
+      </c>
+      <c r="D44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>8889.2999999999993</v>
+      </c>
+      <c r="E44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>10340.939999999999</v>
+      </c>
+      <c r="F44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>11792.579999999998</v>
+      </c>
+      <c r="G44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>13244.22</v>
+      </c>
+      <c r="H44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>14695.859999999999</v>
+      </c>
+      <c r="I44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>16147.499999999998</v>
+      </c>
+      <c r="J44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>17599.14</v>
+      </c>
+      <c r="K44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>19050.78</v>
+      </c>
+      <c r="L44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>20502.419999999998</v>
+      </c>
+      <c r="M44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>21954.059999999998</v>
+      </c>
+      <c r="N44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>23405.699999999997</v>
+      </c>
+      <c r="O44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>24857.339999999997</v>
+      </c>
+      <c r="P44" s="23">
+        <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>26308.979999999996</v>
+      </c>
+      <c r="Q44" s="23">
+        <f>SUM(BudgetTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
+        <v>26308.980000000003</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A5:Q20 A26:Q41">
+  <conditionalFormatting sqref="A27:Q42 A5:Q20">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bank Register and Budget.xlsx
+++ b/Bank Register and Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\source\repos\excelbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC47D8-B023-4F54-A3C7-655621E774FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5834B-9D1C-4AAB-A31C-F6CD498027A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21040" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="28" r:id="rId1"/>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Dec 2023</t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
   <si>
     <t>Other Income</t>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Statement Balance</t>
+  </si>
+  <si>
+    <t>Vacations</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -532,7 +532,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -540,7 +543,303 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -565,523 +864,299 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
         <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1132,6 +1207,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1163,6 +1267,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1194,6 +1327,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1225,6 +1387,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1256,6 +1447,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1287,6 +1507,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1318,6 +1567,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1349,6 +1627,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1380,6 +1687,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1411,6 +1747,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1442,6 +1807,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1473,6 +1867,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1504,6 +1927,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1535,6 +1987,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1566,6 +2047,110 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1582,44 +2167,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1664,476 +2211,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2165,6 +2242,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2196,6 +2302,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2227,6 +2362,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2258,6 +2422,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2289,6 +2482,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2320,6 +2542,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2351,6 +2602,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2382,6 +2662,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2413,6 +2722,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2444,6 +2782,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2475,6 +2842,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2506,6 +2902,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2537,6 +2962,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2568,7 +3022,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="double">
@@ -2577,40 +3031,26 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2639,303 +3079,41 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -2948,26 +3126,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -2983,25 +3141,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3014,25 +3153,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3045,25 +3165,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3076,25 +3177,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3107,25 +3189,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3138,25 +3201,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3169,25 +3213,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3200,25 +3225,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3231,28 +3237,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+        <i/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3262,25 +3248,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <fill>
@@ -3292,25 +3259,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <fill>
@@ -3322,25 +3270,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
       </font>
       <fill>
@@ -3352,75 +3281,15 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
+        <i/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3468,18 +3337,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3735,17 +3592,17 @@
     <sortCondition ref="B4:B55"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="153"/>
-    <tableColumn id="1" xr3:uid="{DE810105-8991-4033-85C5-0CB87295F10E}" name="Date" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{1313C629-1859-4679-AB7B-794875C6BDE7}" name="Debit" dataDxfId="151" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{094886E6-6B53-424C-8022-4ECFFBA4718E}" name="Credit" dataDxfId="150" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="149"/>
+    <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="146"/>
+    <tableColumn id="1" xr3:uid="{DE810105-8991-4033-85C5-0CB87295F10E}" name="Date" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{1313C629-1859-4679-AB7B-794875C6BDE7}" name="Debit" dataDxfId="144" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{094886E6-6B53-424C-8022-4ECFFBA4718E}" name="Credit" dataDxfId="143" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="142"/>
     <tableColumn id="4" xr3:uid="{C5DFAA3E-F213-4889-9036-A50E91D40F6F}" name="Category"/>
-    <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="148"/>
-    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="147">
+    <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="141"/>
+    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="140">
       <calculatedColumnFormula>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="Balance" dataDxfId="146">
+    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="Balance" dataDxfId="139">
       <calculatedColumnFormula>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3754,85 +3611,79 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A26:Q43" totalsRowCount="1" headerRowDxfId="145">
-  <autoFilter ref="A26:Q42" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Montly Total" dataDxfId="144" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="81"/>
-    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="80"/>
-    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="79"/>
-    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="78"/>
-    <tableColumn id="17" xr3:uid="{245EF947-5A56-4481-9B01-7BD49B1D7201}" name="Totals" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="77">
-      <calculatedColumnFormula>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A27:P45" totalsRowCount="1" headerRowDxfId="138">
+  <autoFilter ref="A27:P44" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Montly Total" dataDxfId="137" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:Q21" totalsRowCount="1" headerRowDxfId="127">
-  <autoFilter ref="A4:Q20" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Monthly Total" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:P22" totalsRowCount="1" headerRowDxfId="121">
+  <autoFilter ref="A4:P21" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Monthly Total" dataDxfId="120" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="34">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="33">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="32">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="31">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="30">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="29">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="28">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="27">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="26">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="25">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="24">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="23">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="22">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="21">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="20">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{DA1A4836-0D7F-4977-B2CA-D915B949B8F5}" name="Totals" totalsRowFunction="sum" dataDxfId="94">
-      <calculatedColumnFormula>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3840,56 +3691,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5C736DA-6B88-49D8-A960-CC4A26944980}" name="ActualRunningBalanceTable" displayName="ActualRunningBalanceTable" ref="A22:Q22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57" dataDxfId="58" tableBorderDxfId="76">
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F23BACF8-DA26-414C-96F8-F239251B34A0}" name="Column1" headerRowDxfId="40" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{CB2C2F6C-C726-46F6-987F-13D38048E197}" name="Column2" headerRowDxfId="41" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5C736DA-6B88-49D8-A960-CC4A26944980}" name="ActualRunningBalanceTable" displayName="ActualRunningBalanceTable" ref="A23:P23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{F23BACF8-DA26-414C-96F8-F239251B34A0}" name="Column1" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{CB2C2F6C-C726-46F6-987F-13D38048E197}" name="Column2" headerRowDxfId="99" dataDxfId="98">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D204962C-C708-4A31-B693-2F3679069959}" name="Column3" headerRowDxfId="42" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{D204962C-C708-4A31-B693-2F3679069959}" name="Column3" headerRowDxfId="97" dataDxfId="96">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB3D4E5D-3B95-407C-A714-70B8BCEA2543}" name="Column4" headerRowDxfId="43" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{EB3D4E5D-3B95-407C-A714-70B8BCEA2543}" name="Column4" headerRowDxfId="95" dataDxfId="94">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E3D2F40-5A85-48AF-BE8D-F4CA1DD9FAB0}" name="Column5" headerRowDxfId="44" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{5E3D2F40-5A85-48AF-BE8D-F4CA1DD9FAB0}" name="Column5" headerRowDxfId="93" dataDxfId="92">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{41C6086C-4AC1-49C8-9CAE-9B722F8C5DE6}" name="Column6" headerRowDxfId="45" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{41C6086C-4AC1-49C8-9CAE-9B722F8C5DE6}" name="Column6" headerRowDxfId="91" dataDxfId="90">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{98B739A8-2BB6-4BCB-B6A7-F9DE7448DD0B}" name="Column7" headerRowDxfId="46" dataDxfId="69">
+    <tableColumn id="7" xr3:uid="{98B739A8-2BB6-4BCB-B6A7-F9DE7448DD0B}" name="Column7" headerRowDxfId="89" dataDxfId="88">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E1941EB-8DED-46F3-AFAD-423F7B86B829}" name="Column8" headerRowDxfId="47" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{1E1941EB-8DED-46F3-AFAD-423F7B86B829}" name="Column8" headerRowDxfId="87" dataDxfId="86">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DC5EE24-D5F5-4317-8D44-8A1EE8A62638}" name="Column9" headerRowDxfId="48" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{5DC5EE24-D5F5-4317-8D44-8A1EE8A62638}" name="Column9" headerRowDxfId="85" dataDxfId="84">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A66E19CB-4AF7-4A87-A0A2-99DAB0031DBA}" name="Column10" headerRowDxfId="49" dataDxfId="66">
+    <tableColumn id="10" xr3:uid="{A66E19CB-4AF7-4A87-A0A2-99DAB0031DBA}" name="Column10" headerRowDxfId="83" dataDxfId="82">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{785D40F6-8A87-4B2D-AA95-9F879FAF111F}" name="Column11" headerRowDxfId="50" dataDxfId="65">
+    <tableColumn id="11" xr3:uid="{785D40F6-8A87-4B2D-AA95-9F879FAF111F}" name="Column11" headerRowDxfId="81" dataDxfId="80">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CC724688-AFD3-4BDE-85C3-F8B8FC320CA2}" name="Column12" headerRowDxfId="51" dataDxfId="64">
+    <tableColumn id="12" xr3:uid="{CC724688-AFD3-4BDE-85C3-F8B8FC320CA2}" name="Column12" headerRowDxfId="79" dataDxfId="78">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D473094E-F3A7-44E3-A202-AB635580FEE2}" name="Column13" headerRowDxfId="52" dataDxfId="63">
+    <tableColumn id="13" xr3:uid="{D473094E-F3A7-44E3-A202-AB635580FEE2}" name="Column13" headerRowDxfId="77" dataDxfId="76">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7A3025B1-959D-4559-84AF-CEBC4745388E}" name="Column14" headerRowDxfId="53" dataDxfId="62">
+    <tableColumn id="14" xr3:uid="{7A3025B1-959D-4559-84AF-CEBC4745388E}" name="Column14" headerRowDxfId="75" dataDxfId="74">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B1DCB620-C302-4535-B92B-318DF4DB2A44}" name="Column15" headerRowDxfId="54" dataDxfId="61">
+    <tableColumn id="15" xr3:uid="{B1DCB620-C302-4535-B92B-318DF4DB2A44}" name="Column15" headerRowDxfId="73" dataDxfId="72">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE1D3C65-6130-4DDD-9CEC-92DED9A32FB1}" name="Column16" headerRowDxfId="55" dataDxfId="60">
+    <tableColumn id="16" xr3:uid="{BE1D3C65-6130-4DDD-9CEC-92DED9A32FB1}" name="Column16" headerRowDxfId="71" dataDxfId="70">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{D4F6A915-8205-4968-8736-81371E8F816C}" name="Column17" headerRowDxfId="56" dataDxfId="59">
-      <calculatedColumnFormula>SUM(ActualTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -3897,56 +3745,53 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7587E99-5F8A-43FE-B4E1-B1CAD40FFAFF}" name="BudgetRunningBalanceTable" displayName="BudgetRunningBalanceTable" ref="A44:Q44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{15F6C22D-B364-4801-B17D-2E46D088613F}" name="Column1" headerRowDxfId="4" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{1E19EC6F-740B-4C8D-BE78-A598230F7807}" name="Column2" headerRowDxfId="5" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7587E99-5F8A-43FE-B4E1-B1CAD40FFAFF}" name="BudgetRunningBalanceTable" displayName="BudgetRunningBalanceTable" ref="A46:P46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{15F6C22D-B364-4801-B17D-2E46D088613F}" name="Column1" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{1E19EC6F-740B-4C8D-BE78-A598230F7807}" name="Column2" headerRowDxfId="65" dataDxfId="64">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BFADC692-5771-4BA2-9292-D4C74551968E}" name="Column3" headerRowDxfId="6" dataDxfId="37">
+    <tableColumn id="3" xr3:uid="{BFADC692-5771-4BA2-9292-D4C74551968E}" name="Column3" headerRowDxfId="63" dataDxfId="62">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{548FD2AA-A32C-4529-A600-D9C54C038E7D}" name="Column4" headerRowDxfId="7" dataDxfId="36">
+    <tableColumn id="4" xr3:uid="{548FD2AA-A32C-4529-A600-D9C54C038E7D}" name="Column4" headerRowDxfId="61" dataDxfId="60">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AAC561EB-84BE-48EF-B8AF-28EF4E40603D}" name="Column5" headerRowDxfId="8" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{AAC561EB-84BE-48EF-B8AF-28EF4E40603D}" name="Column5" headerRowDxfId="59" dataDxfId="58">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7ECBFC53-D9EA-4E38-AD10-95F013AC283B}" name="Column6" headerRowDxfId="9" dataDxfId="34">
+    <tableColumn id="6" xr3:uid="{7ECBFC53-D9EA-4E38-AD10-95F013AC283B}" name="Column6" headerRowDxfId="57" dataDxfId="56">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C32F445-59B2-4A61-8295-9D2CED55069F}" name="Column7" headerRowDxfId="10" dataDxfId="33">
+    <tableColumn id="7" xr3:uid="{6C32F445-59B2-4A61-8295-9D2CED55069F}" name="Column7" headerRowDxfId="55" dataDxfId="54">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C780453-C5F7-486E-80BB-F07DBD8FEC16}" name="Column8" headerRowDxfId="11" dataDxfId="32">
+    <tableColumn id="8" xr3:uid="{5C780453-C5F7-486E-80BB-F07DBD8FEC16}" name="Column8" headerRowDxfId="53" dataDxfId="52">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AA90F6D1-4BFD-41B3-B8D2-67F5F7CB81F9}" name="Column9" headerRowDxfId="12" dataDxfId="31">
+    <tableColumn id="9" xr3:uid="{AA90F6D1-4BFD-41B3-B8D2-67F5F7CB81F9}" name="Column9" headerRowDxfId="51" dataDxfId="50">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A9FFB57-AEBB-4EAA-82D0-AD823904ABA2}" name="Column10" headerRowDxfId="13" dataDxfId="30">
+    <tableColumn id="10" xr3:uid="{5A9FFB57-AEBB-4EAA-82D0-AD823904ABA2}" name="Column10" headerRowDxfId="49" dataDxfId="48">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{01FA178A-5573-48E5-97CD-4DA22072A4EA}" name="Column11" headerRowDxfId="14" dataDxfId="29">
+    <tableColumn id="11" xr3:uid="{01FA178A-5573-48E5-97CD-4DA22072A4EA}" name="Column11" headerRowDxfId="47" dataDxfId="46">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7C6C8C43-0896-4A8B-9215-7AF979F41F48}" name="Column12" headerRowDxfId="15" dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{7C6C8C43-0896-4A8B-9215-7AF979F41F48}" name="Column12" headerRowDxfId="45" dataDxfId="44">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DFC6B5C4-FB62-4CA3-9929-0A4370204E93}" name="Column13" headerRowDxfId="16" dataDxfId="27">
+    <tableColumn id="13" xr3:uid="{DFC6B5C4-FB62-4CA3-9929-0A4370204E93}" name="Column13" headerRowDxfId="43" dataDxfId="42">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{84F16A56-AAAF-4C47-99E0-50F75A5BEB98}" name="Column14" headerRowDxfId="17" dataDxfId="26">
+    <tableColumn id="14" xr3:uid="{84F16A56-AAAF-4C47-99E0-50F75A5BEB98}" name="Column14" headerRowDxfId="41" dataDxfId="40">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05192377-12E6-4148-ADE0-697462615E27}" name="Column15" headerRowDxfId="18" dataDxfId="25">
+    <tableColumn id="15" xr3:uid="{05192377-12E6-4148-ADE0-697462615E27}" name="Column15" headerRowDxfId="39" dataDxfId="38">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EA4ACDD-C710-4F94-A6AD-8015D759315A}" name="Column16" headerRowDxfId="19" dataDxfId="24">
+    <tableColumn id="16" xr3:uid="{2EA4ACDD-C710-4F94-A6AD-8015D759315A}" name="Column16" headerRowDxfId="37" dataDxfId="36">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{29F62938-5D2C-40BE-9004-264F84F57C83}" name="Column17" headerRowDxfId="20" dataDxfId="23">
-      <calculatedColumnFormula>SUM(BudgetTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -4276,7 +4121,7 @@
     </row>
     <row r="2" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4294,36 +4139,36 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9">
         <v>44866</v>
@@ -4333,7 +4178,7 @@
         <v>8479.26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -4347,7 +4192,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9">
         <v>44866</v>
@@ -4357,10 +4202,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -4374,7 +4219,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9">
         <v>44868</v>
@@ -4384,10 +4229,10 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="13">
@@ -4402,7 +4247,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9">
         <v>44875</v>
@@ -4412,10 +4257,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="13">
@@ -4430,7 +4275,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9">
         <v>44880</v>
@@ -4440,10 +4285,10 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="13">
@@ -4458,7 +4303,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9">
         <v>44882</v>
@@ -4468,10 +4313,10 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="13">
@@ -4486,7 +4331,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9">
         <v>44884</v>
@@ -4496,13 +4341,13 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -4516,7 +4361,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9">
         <v>44887</v>
@@ -4526,10 +4371,10 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="13">
@@ -4544,7 +4389,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="9">
         <v>44889</v>
@@ -4554,10 +4399,10 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="13">
@@ -4572,7 +4417,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="9">
         <v>44891</v>
@@ -4582,10 +4427,10 @@
         <v>5000</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="13">
@@ -4600,7 +4445,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="9">
         <v>44895</v>
@@ -4610,10 +4455,10 @@
         <v>0.53</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="13">
@@ -4628,7 +4473,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9">
         <v>44895</v>
@@ -4638,10 +4483,10 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="13">
@@ -4664,10 +4509,10 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="13">
@@ -4690,13 +4535,13 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -4718,10 +4563,10 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="13">
@@ -4744,10 +4589,10 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="13">
@@ -4770,10 +4615,10 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="13">
@@ -4796,13 +4641,13 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -4824,10 +4669,10 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="13">
@@ -4850,10 +4695,10 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="13">
@@ -4876,10 +4721,10 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="13">
@@ -4902,10 +4747,10 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="13">
@@ -4928,10 +4773,10 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="13">
@@ -4954,13 +4799,13 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -4982,10 +4827,10 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="13">
@@ -5008,10 +4853,10 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="13">
@@ -5034,10 +4879,10 @@
         <v>5000</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="13">
@@ -5060,10 +4905,10 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="13">
@@ -5086,13 +4931,13 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -5114,10 +4959,10 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34"/>
       <c r="H34" s="13">
@@ -5140,10 +4985,10 @@
         <v>0.37</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35"/>
       <c r="H35" s="13">
@@ -5166,10 +5011,10 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36"/>
       <c r="H36" s="13">
@@ -5192,13 +5037,13 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -5219,13 +5064,13 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -5246,10 +5091,10 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39"/>
       <c r="H39" s="13">
@@ -5271,13 +5116,13 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -5298,13 +5143,13 @@
         <v>132</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="13">
         <f>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</f>
@@ -5325,10 +5170,10 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
         <v>65</v>
-      </c>
-      <c r="F42" t="s">
-        <v>66</v>
       </c>
       <c r="G42"/>
       <c r="H42" s="13">
@@ -6163,17 +6008,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G5:G91 C5:E91">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:I91">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$A5="Rec"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6195,7 +6040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE2A7D-2307-4D38-94C2-B579DAA0D29F}">
-  <dimension ref="A2:Q44"/>
+  <dimension ref="A2:Q46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -6212,7 +6057,7 @@
   <sheetData>
     <row r="2" spans="1:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -6251,7 +6096,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
@@ -6296,15 +6141,12 @@
         <v>14</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="21" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6366,14 +6208,10 @@
         <f t="array" ref="P5">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>10000</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="21" cm="1">
         <f t="array" ref="B6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6435,14 +6273,10 @@
         <f t="array" ref="P6">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0.9</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="21" cm="1">
         <f t="array" ref="B7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6504,14 +6338,10 @@
         <f t="array" ref="P7">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>132</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="21" cm="1">
         <f t="array" ref="B8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6573,14 +6403,10 @@
         <f t="array" ref="P8">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-7592.8600000000006</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="21" cm="1">
         <f t="array" ref="B9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6642,14 +6468,10 @@
         <f t="array" ref="P9">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-395.64</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="22" cm="1">
         <f t="array" ref="B10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6711,14 +6533,10 @@
         <f t="array" ref="P10">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-399.81</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="21" cm="1">
         <f t="array" ref="B11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6780,14 +6598,10 @@
         <f t="array" ref="P11">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-209.23000000000002</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="21" cm="1">
         <f t="array" ref="B12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6849,14 +6663,10 @@
         <f t="array" ref="P12">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-7.98</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="21" cm="1">
         <f t="array" ref="B13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6918,14 +6728,10 @@
         <f t="array" ref="P13">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-512</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="21" cm="1">
         <f t="array" ref="B14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -6987,14 +6793,10 @@
         <f t="array" ref="P14">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-507.64000000000004</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="21" cm="1">
         <f t="array" ref="B15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -7056,14 +6858,10 @@
         <f t="array" ref="P15">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-617</v>
-      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="21" cm="1">
         <f t="array" ref="B16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -7125,14 +6923,10 @@
         <f t="array" ref="P16">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-1805.6</v>
-      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="21" cm="1">
         <f t="array" ref="B17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -7194,14 +6988,10 @@
         <f t="array" ref="P17">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-111.45</v>
-      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="21" cm="1">
         <f t="array" ref="B18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -7263,83 +7053,75 @@
         <f t="array" ref="P18">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-528.07000000000005</v>
-      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21" cm="1">
+      <c r="A19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="26" cm="1">
         <f t="array" ref="B19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="21" cm="1">
+      <c r="C19" s="26" cm="1">
         <f t="array" ref="C19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="21" cm="1">
+      <c r="D19" s="26" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>-66</v>
-      </c>
-      <c r="E19" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26" cm="1">
         <f t="array" ref="E19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="21" cm="1">
+      <c r="F19" s="26" cm="1">
         <f t="array" ref="F19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="21" cm="1">
+      <c r="G19" s="26" cm="1">
         <f t="array" ref="G19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="21" cm="1">
+      <c r="H19" s="26" cm="1">
         <f t="array" ref="H19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="21" cm="1">
+      <c r="I19" s="26" cm="1">
         <f t="array" ref="I19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="21" cm="1">
+      <c r="J19" s="26" cm="1">
         <f t="array" ref="J19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="21" cm="1">
+      <c r="K19" s="26" cm="1">
         <f t="array" ref="K19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L19" s="21" cm="1">
+      <c r="L19" s="26" cm="1">
         <f t="array" ref="L19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="21" cm="1">
+      <c r="M19" s="26" cm="1">
         <f t="array" ref="M19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="21" cm="1">
+      <c r="N19" s="26" cm="1">
         <f t="array" ref="N19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="21" cm="1">
+      <c r="O19" s="26" cm="1">
         <f t="array" ref="O19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="21" cm="1">
+      <c r="P19" s="26" cm="1">
         <f t="array" ref="P19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
-      </c>
-      <c r="Q19" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B20" s="21" cm="1">
         <f t="array" ref="B20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -7351,7 +7133,7 @@
       </c>
       <c r="D20" s="21" cm="1">
         <f t="array" ref="D20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="E20" s="21" cm="1">
         <f t="array" ref="E20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
@@ -7401,993 +7183,937 @@
         <f t="array" ref="P20">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="21">
-        <f>SUM(ActualTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="21">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="21" cm="1">
+        <f t="array" ref="B21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="21" cm="1">
+        <f t="array" ref="C21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="21" cm="1">
+        <f t="array" ref="D21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" cm="1">
+        <f t="array" ref="E21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21" cm="1">
+        <f t="array" ref="F21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="21" cm="1">
+        <f t="array" ref="G21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21" cm="1">
+        <f t="array" ref="H21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21" cm="1">
+        <f t="array" ref="I21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" cm="1">
+        <f t="array" ref="J21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21" cm="1">
+        <f t="array" ref="K21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="21" cm="1">
+        <f t="array" ref="L21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21" cm="1">
+        <f t="array" ref="M21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21" cm="1">
+        <f t="array" ref="N21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="21" cm="1">
+        <f t="array" ref="O21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="21" cm="1">
+        <f t="array" ref="P21">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="21">
         <f>SUBTOTAL(109,ActualTable[Nov 2022])</f>
         <v>1165.8099999999997</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C22" s="21">
         <f>SUBTOTAL(109,ActualTable[Dec 2022])</f>
         <v>-723.28000000000043</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="21">
         <f>SUBTOTAL(109,ActualTable[Jan 2023])</f>
         <v>-3062.9100000000003</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="21">
         <f>SUBTOTAL(109,ActualTable[Feb 2023])</f>
         <v>0</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F22" s="21">
         <f>SUBTOTAL(109,ActualTable[Mar 2023])</f>
         <v>0</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="21">
         <f>SUBTOTAL(109,ActualTable[Apr 2023])</f>
         <v>0</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H22" s="21">
         <f>SUBTOTAL(109,ActualTable[May 2023])</f>
         <v>0</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I22" s="21">
         <f>SUBTOTAL(109,ActualTable[Jun 2023])</f>
         <v>0</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J22" s="21">
         <f>SUBTOTAL(109,ActualTable[Jul 2023])</f>
         <v>0</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K22" s="21">
         <f>SUBTOTAL(109,ActualTable[Aug 2023])</f>
         <v>0</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L22" s="21">
         <f>SUBTOTAL(109,ActualTable[Sep 2023])</f>
         <v>0</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M22" s="21">
         <f>SUBTOTAL(109,ActualTable[Oct 2023])</f>
         <v>0</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N22" s="21">
         <f>SUBTOTAL(109,ActualTable[Nov 2023])</f>
         <v>0</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O22" s="21">
         <f>SUBTOTAL(109,ActualTable[Dec 2023])</f>
         <v>0</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P22" s="21">
         <f>SUBTOTAL(109,ActualTable[Jan 2024])</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
-        <f>SUBTOTAL(109,ActualTable[Totals])</f>
-        <v>-2620.380000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="23">
+    </row>
+    <row r="23" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>9645.07</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>8921.7899999999991</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P23" s="23">
         <f>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>5858.8799999999992</v>
       </c>
-      <c r="Q22" s="25">
-        <f>SUM(ActualTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>5858.8799999999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+    </row>
+    <row r="25" spans="1:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="H27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="I27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="K27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="L27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="M27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="N27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="O27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="P27" s="4">
-        <v>5250</v>
-      </c>
-      <c r="Q27" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>78250</v>
+      <c r="P27" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q28" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>7.57</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="M28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="N28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="O28" s="4">
+        <v>5250</v>
+      </c>
+      <c r="P28" s="4">
+        <v>5250</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4">
-        <v>-2500</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>-2592.86</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>-2592.86</v>
-      </c>
-      <c r="Q30" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-38707.180000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-164.55</v>
+        <v>18</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-2500</v>
       </c>
       <c r="C31" s="1">
-        <v>-231.09</v>
+        <v>-2500</v>
       </c>
       <c r="D31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="E31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="F31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="G31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="H31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="I31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="J31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="K31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="L31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="M31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="N31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="O31" s="1">
-        <v>-200</v>
+        <v>-2592.86</v>
       </c>
       <c r="P31" s="1">
-        <v>-200</v>
-      </c>
-      <c r="Q31" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-2995.64</v>
+        <v>-2592.86</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1">
+        <v>-164.55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-231.09</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="1">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
         <v>-121.93</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>-277.88</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>-250</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>-250</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>-250</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>-250</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>-250</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>-250</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>-250</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <v>-250</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <v>-250</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M33" s="1">
         <v>-250</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N33" s="1">
         <v>-250</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O33" s="1">
         <v>-250</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P33" s="1">
         <v>-250</v>
       </c>
-      <c r="Q32" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-3649.81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
         <v>-106.23</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>-209.23000000000002</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>-110</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>-110</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>-110</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>-110</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>-110</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>-110</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>-110</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <v>-110</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L34" s="1">
         <v>-110</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M34" s="1">
         <v>-110</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N34" s="1">
         <v>-110</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O34" s="1">
         <v>-110</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P34" s="1">
         <v>-110</v>
       </c>
-      <c r="Q33" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-1745.46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-256</v>
+      </c>
+      <c r="P36" s="1">
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="C35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="H35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="I35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="K35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="L35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="M35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="N35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="O35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="P35" s="1">
-        <v>-256</v>
-      </c>
-      <c r="Q35" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-3840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>-193.24</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>-314.40000000000003</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>-300</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>-300</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <v>-300</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G37" s="1">
         <v>-300</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H37" s="1">
         <v>-300</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I37" s="1">
         <v>-300</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J37" s="1">
         <v>-300</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K37" s="1">
         <v>-300</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L37" s="1">
         <v>-300</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M37" s="1">
         <v>-300</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N37" s="1">
         <v>-300</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O37" s="1">
         <v>-300</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P37" s="1">
         <v>-300</v>
       </c>
-      <c r="Q36" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-4407.6400000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-617</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-850</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-1467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-617</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-850</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
         <v>-599</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>-1206.5999999999999</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-1805.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <v>-111.45</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="4">
         <v>-90</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>-90</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>-90</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>-90</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>-90</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>-90</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <v>-90</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K40" s="4">
         <v>-90</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L40" s="4">
         <v>-90</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M40" s="4">
         <v>-90</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N40" s="4">
         <v>-90</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O40" s="4">
         <v>-90</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P40" s="4">
         <v>-90</v>
       </c>
-      <c r="Q39" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-1281.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
         <v>-528.07000000000005</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>-528.07000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
@@ -8424,14 +8150,10 @@
       <c r="P41" s="1">
         <v>0</v>
       </c>
-      <c r="Q41" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
-        <v>0</v>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -8455,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -8473,159 +8195,247 @@
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="P42" s="1">
         <v>0</v>
       </c>
-      <c r="Q42" s="21">
-        <f>SUM(BudgetTable[[#This Row],[Nov 2022]:[Jan 2024]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="21">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Nov 2022])</f>
         <v>1059.7499999999998</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Dec 2022])</f>
         <v>-723.28000000000043</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Jan 2023])</f>
         <v>73.569999999999823</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Feb 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Mar 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Apr 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H45" s="21">
         <f>SUBTOTAL(109,BudgetTable[May 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Jun 2023])</f>
-        <v>1451.6399999999999</v>
-      </c>
-      <c r="J43" s="21">
+        <v>-48.360000000000127</v>
+      </c>
+      <c r="J45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Jul 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Aug 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Sep 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Oct 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Nov 2023])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Dec 2023])</f>
-        <v>1451.6399999999999</v>
-      </c>
-      <c r="P43" s="21">
+        <v>-548.36000000000013</v>
+      </c>
+      <c r="P45" s="21">
         <f>SUBTOTAL(109,BudgetTable[Jan 2024])</f>
         <v>1451.6399999999999</v>
       </c>
-      <c r="Q43" s="1">
-        <f>SUBTOTAL(109,BudgetTable[Totals])</f>
-        <v>17829.720000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="23">
+    </row>
+    <row r="46" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>9539.01</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>8815.73</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>8889.2999999999993</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>10340.939999999999</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>11792.579999999998</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>13244.22</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
         <v>14695.859999999999</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>16147.499999999998</v>
-      </c>
-      <c r="J44" s="23">
+        <v>14647.499999999998</v>
+      </c>
+      <c r="J46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>17599.14</v>
-      </c>
-      <c r="K44" s="23">
+        <v>16099.139999999998</v>
+      </c>
+      <c r="K46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>19050.78</v>
-      </c>
-      <c r="L44" s="23">
+        <v>17550.78</v>
+      </c>
+      <c r="L46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>20502.419999999998</v>
-      </c>
-      <c r="M44" s="23">
+        <v>19002.419999999998</v>
+      </c>
+      <c r="M46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>21954.059999999998</v>
-      </c>
-      <c r="N44" s="23">
+        <v>20454.059999999998</v>
+      </c>
+      <c r="N46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>23405.699999999997</v>
-      </c>
-      <c r="O44" s="23">
+        <v>21905.699999999997</v>
+      </c>
+      <c r="O46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>24857.339999999997</v>
-      </c>
-      <c r="P44" s="23">
+        <v>21357.339999999997</v>
+      </c>
+      <c r="P46" s="23">
         <f>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>26308.979999999996</v>
-      </c>
-      <c r="Q44" s="23">
-        <f>SUM(BudgetTable[[#Totals],[Totals]], INDEX(RegisterTable[[Balance]:[Balance]],1))</f>
-        <v>26308.980000000003</v>
+        <v>22808.979999999996</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A27:Q42 A5:Q20">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="A5:P21 A28:P44">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Bank Register and Budget.xlsx
+++ b/Bank Register and Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\source\repos\excelbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5834B-9D1C-4AAB-A31C-F6CD498027A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6462AE2E-1C17-48CE-B77D-CC2A479DD816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="797" xr2:uid="{C88FE53F-2AC6-481E-80CC-17C81C708257}"/>
   </bookViews>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -532,10 +532,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -544,620 +540,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="147">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3117,6 +2499,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3129,6 +2530,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3141,6 +2561,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3153,6 +2592,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3165,6 +2623,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3177,6 +2654,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3189,6 +2685,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3201,6 +2716,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3213,6 +2747,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3225,6 +2778,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3237,6 +2809,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <fill>
@@ -3248,6 +2839,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <fill>
@@ -3259,6 +2869,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <fill>
@@ -3270,6 +2899,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <fill>
@@ -3281,6 +2929,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
         <i/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -3290,6 +2957,17 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3339,6 +3017,25 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3348,6 +3045,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3357,6 +3073,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3366,6 +3101,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3375,6 +3129,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3384,6 +3157,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3393,6 +3185,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3402,6 +3213,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3411,6 +3241,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3420,6 +3269,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3429,6 +3297,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3437,6 +3324,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3445,6 +3351,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3453,6 +3378,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3461,6 +3405,25 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -3468,6 +3431,17 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3518,6 +3492,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i/>
       </font>
@@ -3571,6 +3550,23 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="20" formatCode="d/mmm/yy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3592,17 +3588,17 @@
     <sortCondition ref="B4:B55"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="146"/>
-    <tableColumn id="1" xr3:uid="{DE810105-8991-4033-85C5-0CB87295F10E}" name="Date" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{1313C629-1859-4679-AB7B-794875C6BDE7}" name="Debit" dataDxfId="144" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{094886E6-6B53-424C-8022-4ECFFBA4718E}" name="Credit" dataDxfId="143" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{D8A49B8A-1951-4447-AF47-9EAA0BB85DE7}" name="Rec" dataDxfId="143"/>
+    <tableColumn id="1" xr3:uid="{DE810105-8991-4033-85C5-0CB87295F10E}" name="Date" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{1313C629-1859-4679-AB7B-794875C6BDE7}" name="Debit" dataDxfId="141" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{094886E6-6B53-424C-8022-4ECFFBA4718E}" name="Credit" dataDxfId="140" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{18AD39F4-D969-44C0-8DCD-C00AFA8EA48E}" name="Payee" dataDxfId="139"/>
     <tableColumn id="4" xr3:uid="{C5DFAA3E-F213-4889-9036-A50E91D40F6F}" name="Category"/>
-    <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="141"/>
-    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="140">
+    <tableColumn id="6" xr3:uid="{77E29FE0-2E33-4741-9118-8EC005A9AB4C}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="14" xr3:uid="{A613C5BE-1236-43D9-961D-74D8FCAAFE9F}" name="Net" dataDxfId="137">
       <calculatedColumnFormula>_xlfn.LET(_xlpm.credit, TRIM(RegisterTable[[#This Row],[Credit]]), _xlpm.debit, TRIM(RegisterTable[[#This Row],[Debit]]), IF(ISBLANK(RegisterTable[[#This Row],[Credit]]),0,RegisterTable[[#This Row],[Credit]])-IF(ISBLANK(RegisterTable[[#This Row],[Debit]]),0,RegisterTable[[#This Row],[Debit]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="Balance" dataDxfId="139">
+    <tableColumn id="11" xr3:uid="{484B540F-3960-49E6-971A-19BCA48D90F6}" name="Balance" dataDxfId="136">
       <calculatedColumnFormula>SUM(INDEX(RegisterTable[Net],1):RegisterTable[[#This Row],[Net]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3611,132 +3607,132 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A27:P45" totalsRowCount="1" headerRowDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}" name="BudgetTable" displayName="BudgetTable" ref="A27:P45" totalsRowCount="1" headerRowDxfId="134">
   <autoFilter ref="A27:P44" xr:uid="{1E06BD01-B313-45E4-975C-3CAA9A21FDC7}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Montly Total" dataDxfId="137" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F195EB07-0B7E-4399-BAAC-2C019D4EC1C4}" name="Category" totalsRowLabel="Montly Total" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{F6CF870F-2AE5-4ACC-80D8-40E81335CC2B}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{1298B2BF-2ED4-4618-AA49-5FDD356BE21B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{4BA778F9-5B81-4732-B2E1-3C7E32B28814}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{549168B5-A7B9-4D84-A170-F170EFC6A7B3}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{DED36E17-BA63-4BF6-83F4-D83B65AA0D12}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="7" xr3:uid="{68CEFDE2-E938-4B68-AE39-2EBD5FC28E1B}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{377E6EA8-C596-4631-9E2A-3590AB4EC1D5}" name="May 2023" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{D5628591-0023-4077-83B0-7900C54155B8}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{C07A4D5D-EB75-43C2-8153-4E2DCA60E363}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{EEF26386-A1DB-4E9B-8EAB-6692F8A67113}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="12" xr3:uid="{60471A64-457D-42F6-A3FB-9BAE6D297576}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{E437F2AA-A9B3-4D0D-9D27-69547E4FA011}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="14" xr3:uid="{DF02C039-087C-4D3B-8D65-8627C22E5BE6}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="15" xr3:uid="{57B08509-BD1D-41E5-8DE3-18AA29D2B5F2}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="16" xr3:uid="{2D00FE55-614D-48C5-8627-843C3DA47392}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:P22" totalsRowCount="1" headerRowDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}" name="ActualTable" displayName="ActualTable" ref="A4:P22" totalsRowCount="1" headerRowDxfId="101">
   <autoFilter ref="A4:P21" xr:uid="{8F13A1AB-DBB2-4C60-9DD4-0E8B38F346CE}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Monthly Total" dataDxfId="120" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{A6469E61-0901-403F-85FE-D8A2BCD25BA7}" name="Category" totalsRowLabel="Monthly Total" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{57A3F446-7D83-4D14-BD75-BF0A5DE0DD40}" name="Nov 2022" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="33">
+    <tableColumn id="3" xr3:uid="{8AF382D3-D469-4B05-AD14-6D1605E1488B}" name="Dec 2022" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="32">
+    <tableColumn id="4" xr3:uid="{420EFD40-2B22-4F84-8EEA-1FCBCE85D53D}" name="Jan 2023" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="31">
+    <tableColumn id="5" xr3:uid="{BC157BD9-FD20-4743-804D-5D9C48744EEE}" name="Feb 2023" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="30">
+    <tableColumn id="6" xr3:uid="{CD0BEB67-CFFD-4BC6-8D55-710B2BD0E4EA}" name="Mar 2023" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="29">
+    <tableColumn id="7" xr3:uid="{45E93579-E542-4AAB-A8ED-7C97F7E64D71}" name="Apr 2023" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="28">
+    <tableColumn id="8" xr3:uid="{863B960F-499C-4314-9C92-C9952E7A41E1}" name="May 2023" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="27">
+    <tableColumn id="9" xr3:uid="{783190E7-0649-4C0E-B6EC-273C3E8BC3A9}" name="Jun 2023" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{8AEE0546-96FF-4A7D-AA05-356F0DA33CDD}" name="Jul 2023" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="25">
+    <tableColumn id="11" xr3:uid="{AC5A0F84-E7B0-4AAD-8B53-2E395EB228DD}" name="Aug 2023" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="24">
+    <tableColumn id="12" xr3:uid="{7EFFCD30-C9ED-4ED1-874B-17963208C559}" name="Sep 2023" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="23">
+    <tableColumn id="13" xr3:uid="{7FC47548-D669-473F-BD51-A6F248C26ADA}" name="Oct 2023" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="22">
+    <tableColumn id="14" xr3:uid="{CCCB34EE-F43A-4DE2-B2E4-FCC6C14A6F2C}" name="Nov 2023" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="21">
+    <tableColumn id="15" xr3:uid="{DA560EF7-A0B7-4160-9A40-E56B909C66F6}" name="Dec 2023" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{80F0D7EA-C213-468E-9404-A08E4FA7C38A}" name="Jan 2024" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5C736DA-6B88-49D8-A960-CC4A26944980}" name="ActualRunningBalanceTable" displayName="ActualRunningBalanceTable" ref="A23:P23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A5C736DA-6B88-49D8-A960-CC4A26944980}" name="ActualRunningBalanceTable" displayName="ActualRunningBalanceTable" ref="A23:P23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{F23BACF8-DA26-414C-96F8-F239251B34A0}" name="Column1" headerRowDxfId="101" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{CB2C2F6C-C726-46F6-987F-13D38048E197}" name="Column2" headerRowDxfId="99" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{F23BACF8-DA26-414C-96F8-F239251B34A0}" name="Column1" headerRowDxfId="65" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{CB2C2F6C-C726-46F6-987F-13D38048E197}" name="Column2" headerRowDxfId="63" dataDxfId="62">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D204962C-C708-4A31-B693-2F3679069959}" name="Column3" headerRowDxfId="97" dataDxfId="96">
+    <tableColumn id="3" xr3:uid="{D204962C-C708-4A31-B693-2F3679069959}" name="Column3" headerRowDxfId="61" dataDxfId="60">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB3D4E5D-3B95-407C-A714-70B8BCEA2543}" name="Column4" headerRowDxfId="95" dataDxfId="94">
+    <tableColumn id="4" xr3:uid="{EB3D4E5D-3B95-407C-A714-70B8BCEA2543}" name="Column4" headerRowDxfId="59" dataDxfId="58">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E3D2F40-5A85-48AF-BE8D-F4CA1DD9FAB0}" name="Column5" headerRowDxfId="93" dataDxfId="92">
+    <tableColumn id="5" xr3:uid="{5E3D2F40-5A85-48AF-BE8D-F4CA1DD9FAB0}" name="Column5" headerRowDxfId="57" dataDxfId="56">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{41C6086C-4AC1-49C8-9CAE-9B722F8C5DE6}" name="Column6" headerRowDxfId="91" dataDxfId="90">
+    <tableColumn id="6" xr3:uid="{41C6086C-4AC1-49C8-9CAE-9B722F8C5DE6}" name="Column6" headerRowDxfId="55" dataDxfId="54">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{98B739A8-2BB6-4BCB-B6A7-F9DE7448DD0B}" name="Column7" headerRowDxfId="89" dataDxfId="88">
+    <tableColumn id="7" xr3:uid="{98B739A8-2BB6-4BCB-B6A7-F9DE7448DD0B}" name="Column7" headerRowDxfId="53" dataDxfId="52">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E1941EB-8DED-46F3-AFAD-423F7B86B829}" name="Column8" headerRowDxfId="87" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{1E1941EB-8DED-46F3-AFAD-423F7B86B829}" name="Column8" headerRowDxfId="51" dataDxfId="50">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DC5EE24-D5F5-4317-8D44-8A1EE8A62638}" name="Column9" headerRowDxfId="85" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{5DC5EE24-D5F5-4317-8D44-8A1EE8A62638}" name="Column9" headerRowDxfId="49" dataDxfId="48">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A66E19CB-4AF7-4A87-A0A2-99DAB0031DBA}" name="Column10" headerRowDxfId="83" dataDxfId="82">
+    <tableColumn id="10" xr3:uid="{A66E19CB-4AF7-4A87-A0A2-99DAB0031DBA}" name="Column10" headerRowDxfId="47" dataDxfId="46">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{785D40F6-8A87-4B2D-AA95-9F879FAF111F}" name="Column11" headerRowDxfId="81" dataDxfId="80">
+    <tableColumn id="11" xr3:uid="{785D40F6-8A87-4B2D-AA95-9F879FAF111F}" name="Column11" headerRowDxfId="45" dataDxfId="44">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CC724688-AFD3-4BDE-85C3-F8B8FC320CA2}" name="Column12" headerRowDxfId="79" dataDxfId="78">
+    <tableColumn id="12" xr3:uid="{CC724688-AFD3-4BDE-85C3-F8B8FC320CA2}" name="Column12" headerRowDxfId="43" dataDxfId="42">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D473094E-F3A7-44E3-A202-AB635580FEE2}" name="Column13" headerRowDxfId="77" dataDxfId="76">
+    <tableColumn id="13" xr3:uid="{D473094E-F3A7-44E3-A202-AB635580FEE2}" name="Column13" headerRowDxfId="41" dataDxfId="40">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7A3025B1-959D-4559-84AF-CEBC4745388E}" name="Column14" headerRowDxfId="75" dataDxfId="74">
+    <tableColumn id="14" xr3:uid="{7A3025B1-959D-4559-84AF-CEBC4745388E}" name="Column14" headerRowDxfId="39" dataDxfId="38">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B1DCB620-C302-4535-B92B-318DF4DB2A44}" name="Column15" headerRowDxfId="73" dataDxfId="72">
+    <tableColumn id="15" xr3:uid="{B1DCB620-C302-4535-B92B-318DF4DB2A44}" name="Column15" headerRowDxfId="37" dataDxfId="36">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE1D3C65-6130-4DDD-9CEC-92DED9A32FB1}" name="Column16" headerRowDxfId="71" dataDxfId="70">
+    <tableColumn id="16" xr3:uid="{BE1D3C65-6130-4DDD-9CEC-92DED9A32FB1}" name="Column16" headerRowDxfId="35" dataDxfId="34">
       <calculatedColumnFormula>SUM(INDEX(ActualTable[#Totals],1,2):ActualTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3745,52 +3741,52 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7587E99-5F8A-43FE-B4E1-B1CAD40FFAFF}" name="BudgetRunningBalanceTable" displayName="BudgetRunningBalanceTable" ref="A46:P46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7587E99-5F8A-43FE-B4E1-B1CAD40FFAFF}" name="BudgetRunningBalanceTable" displayName="BudgetRunningBalanceTable" ref="A46:P46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{15F6C22D-B364-4801-B17D-2E46D088613F}" name="Column1" headerRowDxfId="67" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{1E19EC6F-740B-4C8D-BE78-A598230F7807}" name="Column2" headerRowDxfId="65" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{15F6C22D-B364-4801-B17D-2E46D088613F}" name="Column1" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{1E19EC6F-740B-4C8D-BE78-A598230F7807}" name="Column2" headerRowDxfId="29" dataDxfId="28">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BFADC692-5771-4BA2-9292-D4C74551968E}" name="Column3" headerRowDxfId="63" dataDxfId="62">
+    <tableColumn id="3" xr3:uid="{BFADC692-5771-4BA2-9292-D4C74551968E}" name="Column3" headerRowDxfId="27" dataDxfId="26">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2022]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{548FD2AA-A32C-4529-A600-D9C54C038E7D}" name="Column4" headerRowDxfId="61" dataDxfId="60">
+    <tableColumn id="4" xr3:uid="{548FD2AA-A32C-4529-A600-D9C54C038E7D}" name="Column4" headerRowDxfId="25" dataDxfId="24">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AAC561EB-84BE-48EF-B8AF-28EF4E40603D}" name="Column5" headerRowDxfId="59" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{AAC561EB-84BE-48EF-B8AF-28EF4E40603D}" name="Column5" headerRowDxfId="23" dataDxfId="22">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Feb 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7ECBFC53-D9EA-4E38-AD10-95F013AC283B}" name="Column6" headerRowDxfId="57" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{7ECBFC53-D9EA-4E38-AD10-95F013AC283B}" name="Column6" headerRowDxfId="21" dataDxfId="20">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Mar 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C32F445-59B2-4A61-8295-9D2CED55069F}" name="Column7" headerRowDxfId="55" dataDxfId="54">
+    <tableColumn id="7" xr3:uid="{6C32F445-59B2-4A61-8295-9D2CED55069F}" name="Column7" headerRowDxfId="19" dataDxfId="18">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Apr 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C780453-C5F7-486E-80BB-F07DBD8FEC16}" name="Column8" headerRowDxfId="53" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{5C780453-C5F7-486E-80BB-F07DBD8FEC16}" name="Column8" headerRowDxfId="17" dataDxfId="16">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[May 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AA90F6D1-4BFD-41B3-B8D2-67F5F7CB81F9}" name="Column9" headerRowDxfId="51" dataDxfId="50">
+    <tableColumn id="9" xr3:uid="{AA90F6D1-4BFD-41B3-B8D2-67F5F7CB81F9}" name="Column9" headerRowDxfId="15" dataDxfId="14">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jun 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A9FFB57-AEBB-4EAA-82D0-AD823904ABA2}" name="Column10" headerRowDxfId="49" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{5A9FFB57-AEBB-4EAA-82D0-AD823904ABA2}" name="Column10" headerRowDxfId="13" dataDxfId="12">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jul 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{01FA178A-5573-48E5-97CD-4DA22072A4EA}" name="Column11" headerRowDxfId="47" dataDxfId="46">
+    <tableColumn id="11" xr3:uid="{01FA178A-5573-48E5-97CD-4DA22072A4EA}" name="Column11" headerRowDxfId="11" dataDxfId="10">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Aug 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7C6C8C43-0896-4A8B-9215-7AF979F41F48}" name="Column12" headerRowDxfId="45" dataDxfId="44">
+    <tableColumn id="12" xr3:uid="{7C6C8C43-0896-4A8B-9215-7AF979F41F48}" name="Column12" headerRowDxfId="9" dataDxfId="8">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Sep 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DFC6B5C4-FB62-4CA3-9929-0A4370204E93}" name="Column13" headerRowDxfId="43" dataDxfId="42">
+    <tableColumn id="13" xr3:uid="{DFC6B5C4-FB62-4CA3-9929-0A4370204E93}" name="Column13" headerRowDxfId="7" dataDxfId="6">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Oct 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{84F16A56-AAAF-4C47-99E0-50F75A5BEB98}" name="Column14" headerRowDxfId="41" dataDxfId="40">
+    <tableColumn id="14" xr3:uid="{84F16A56-AAAF-4C47-99E0-50F75A5BEB98}" name="Column14" headerRowDxfId="5" dataDxfId="4">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Nov 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05192377-12E6-4148-ADE0-697462615E27}" name="Column15" headerRowDxfId="39" dataDxfId="38">
+    <tableColumn id="15" xr3:uid="{05192377-12E6-4148-ADE0-697462615E27}" name="Column15" headerRowDxfId="3" dataDxfId="2">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Dec 2023]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EA4ACDD-C710-4F94-A6AD-8015D759315A}" name="Column16" headerRowDxfId="37" dataDxfId="36">
+    <tableColumn id="16" xr3:uid="{2EA4ACDD-C710-4F94-A6AD-8015D759315A}" name="Column16" headerRowDxfId="1" dataDxfId="0">
       <calculatedColumnFormula>SUM(INDEX(BudgetTable[#Totals],1,2):BudgetTable[[#Totals],[Jan 2024]], INDEX(RegisterTable[[Balance]:[Balance]],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6008,17 +6004,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G5:G91 C5:E91">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:I91">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="144" priority="4">
       <formula>$A5="Rec"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6042,7 +6038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE2A7D-2307-4D38-94C2-B579DAA0D29F}">
   <dimension ref="A2:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -7055,66 +7051,66 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="26" cm="1">
+      <c r="B19" s="21" cm="1">
         <f t="array" ref="B19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="26" cm="1">
+      <c r="C19" s="21" cm="1">
         <f t="array" ref="C19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2022]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="26" cm="1">
+      <c r="D19" s="21" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="26" cm="1">
+      <c r="E19" s="21" cm="1">
         <f t="array" ref="E19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Feb 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="26" cm="1">
+      <c r="F19" s="21" cm="1">
         <f t="array" ref="F19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Mar 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="26" cm="1">
+      <c r="G19" s="21" cm="1">
         <f t="array" ref="G19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Apr 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="26" cm="1">
+      <c r="H19" s="21" cm="1">
         <f t="array" ref="H19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[May 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="26" cm="1">
+      <c r="I19" s="21" cm="1">
         <f t="array" ref="I19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jun 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="26" cm="1">
+      <c r="J19" s="21" cm="1">
         <f t="array" ref="J19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jul 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="26" cm="1">
+      <c r="K19" s="21" cm="1">
         <f t="array" ref="K19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Aug 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="L19" s="26" cm="1">
+      <c r="L19" s="21" cm="1">
         <f t="array" ref="L19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Sep 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="26" cm="1">
+      <c r="M19" s="21" cm="1">
         <f t="array" ref="M19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Oct 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="26" cm="1">
+      <c r="N19" s="21" cm="1">
         <f t="array" ref="N19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Nov 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="26" cm="1">
+      <c r="O19" s="21" cm="1">
         <f t="array" ref="O19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Dec 2023]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="26" cm="1">
+      <c r="P19" s="21" cm="1">
         <f t="array" ref="P19">_xlfn.LET(_xlpm.headerDate, DATEVALUE(ActualTable[[#Headers],[Jan 2024]]), _xlpm.registerDate, RegisterTable[[Date]:[Date]], SUM( (YEAR(_xlpm.registerDate)=YEAR(_xlpm.headerDate)) * (MONTH(_xlpm.registerDate)=MONTH(_xlpm.headerDate)) * (RegisterTable[[Category]:[Category]]=_xlfn.SINGLE(ActualTable[[Category]:[Category]])) * (RegisterTable[[Net]:[Net]])))</f>
         <v>0</v>
       </c>
@@ -8152,7 +8148,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="1">
@@ -8435,7 +8431,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A5:P21 A28:P44">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
